--- a/FILER/DK aktiekurser.xlsx
+++ b/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="875">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -2322,6 +2322,321 @@
   </si>
   <si>
     <t xml:space="preserve">2021-01-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-02</t>
   </si>
 </sst>
 </file>
@@ -2736,7 +3051,7 @@
         <v>0.1232</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1849</v>
+        <v>0.185</v>
       </c>
       <c r="E4" t="n">
         <v>6.2802</v>
@@ -2845,7 +3160,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.637</v>
+        <v>-0.6369</v>
       </c>
       <c r="C9" t="n">
         <v>-0.6781</v>
@@ -2871,7 +3186,7 @@
         <v>0.1923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.763</v>
+        <v>0.7631</v>
       </c>
       <c r="D10" t="n">
         <v>-2.4021</v>
@@ -3170,7 +3485,7 @@
         <v>-0.7539</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.5749</v>
+        <v>-0.575</v>
       </c>
       <c r="D23" t="n">
         <v>0.3962</v>
@@ -3202,7 +3517,7 @@
         <v>-2.6484</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.7346</v>
+        <v>-3.7347</v>
       </c>
       <c r="G24" t="n">
         <v>-1.3316</v>
@@ -3239,7 +3554,7 @@
         <v>-1.8118</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.5316</v>
+        <v>-2.5317</v>
       </c>
       <c r="D26" t="n">
         <v>0.6725</v>
@@ -3374,7 +3689,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3518</v>
+        <v>0.3519</v>
       </c>
       <c r="C32" t="n">
         <v>1.118</v>
@@ -3492,7 +3807,7 @@
         <v>0.4135</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6123</v>
+        <v>0.6122</v>
       </c>
       <c r="D37" t="n">
         <v>2.9957</v>
@@ -3535,7 +3850,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>1.0981</v>
+        <v>1.0982</v>
       </c>
       <c r="C39" t="n">
         <v>0.6478</v>
@@ -3696,7 +4011,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2782</v>
+        <v>0.2781</v>
       </c>
       <c r="C46" t="n">
         <v>-0.3705</v>
@@ -3811,7 +4126,7 @@
         <v>56</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2732</v>
+        <v>-0.2733</v>
       </c>
       <c r="C51" t="n">
         <v>0.3647</v>
@@ -3903,7 +4218,7 @@
         <v>60</v>
       </c>
       <c r="B55" t="n">
-        <v>-2.5925</v>
+        <v>-3.0791</v>
       </c>
       <c r="C55" t="n">
         <v>0.2559</v>
@@ -4133,7 +4448,7 @@
         <v>70</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7173</v>
+        <v>0.7174</v>
       </c>
       <c r="C65" t="n">
         <v>1.167</v>
@@ -4156,7 +4471,7 @@
         <v>71</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.4274</v>
+        <v>-0.4273</v>
       </c>
       <c r="C66" t="n">
         <v>-0.7542</v>
@@ -4179,7 +4494,7 @@
         <v>72</v>
       </c>
       <c r="B67" t="n">
-        <v>1.5737</v>
+        <v>1.5736</v>
       </c>
       <c r="C67" t="n">
         <v>0.2682</v>
@@ -4237,7 +4552,7 @@
         <v>-0.5372</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7813</v>
+        <v>-0.7812</v>
       </c>
       <c r="G69" t="n">
         <v>-0.8284</v>
@@ -4248,7 +4563,7 @@
         <v>75</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.8906</v>
+        <v>-1.1483</v>
       </c>
       <c r="C70" t="n">
         <v>0.6364</v>
@@ -4409,7 +4724,7 @@
         <v>82</v>
       </c>
       <c r="B77" t="n">
-        <v>1.9189</v>
+        <v>1.919</v>
       </c>
       <c r="C77" t="n">
         <v>0.3575</v>
@@ -4458,10 +4773,10 @@
         <v>-0.2079</v>
       </c>
       <c r="C79" t="n">
-        <v>-3.0571</v>
+        <v>-3.0572</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.7914</v>
+        <v>-0.7913</v>
       </c>
       <c r="E79" t="n">
         <v>-1.2131</v>
@@ -4547,7 +4862,7 @@
         <v>88</v>
       </c>
       <c r="B83" t="n">
-        <v>0.343</v>
+        <v>0.3429</v>
       </c>
       <c r="C83" t="n">
         <v>0.0459</v>
@@ -4639,7 +4954,7 @@
         <v>92</v>
       </c>
       <c r="B87" t="n">
-        <v>1.1757</v>
+        <v>1.1756</v>
       </c>
       <c r="C87" t="n">
         <v>0.8376</v>
@@ -4757,7 +5072,7 @@
         <v>0.6311</v>
       </c>
       <c r="C92" t="n">
-        <v>1.3108</v>
+        <v>1.3109</v>
       </c>
       <c r="D92" t="n">
         <v>1.5588</v>
@@ -4777,7 +5092,7 @@
         <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4181</v>
+        <v>0.4182</v>
       </c>
       <c r="C93" t="n">
         <v>-0.0462</v>
@@ -4927,7 +5242,7 @@
         <v>0.3147</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.7812</v>
+        <v>-0.7813</v>
       </c>
       <c r="G99" t="n">
         <v>-0.4138</v>
@@ -5105,7 +5420,7 @@
         <v>2.1556</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3704</v>
+        <v>0.3705</v>
       </c>
       <c r="E107" t="n">
         <v>-0.5462</v>
@@ -5424,7 +5739,7 @@
         <v>1.2847</v>
       </c>
       <c r="C121" t="n">
-        <v>0.579</v>
+        <v>0.5791</v>
       </c>
       <c r="D121" t="n">
         <v>2.1123</v>
@@ -5539,7 +5854,7 @@
         <v>0.2651</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.8064</v>
+        <v>-0.8065</v>
       </c>
       <c r="D126" t="n">
         <v>-2.4042</v>
@@ -5605,7 +5920,7 @@
         <v>134</v>
       </c>
       <c r="B129" t="n">
-        <v>1.811</v>
+        <v>1.5663</v>
       </c>
       <c r="C129" t="n">
         <v>0.0774</v>
@@ -5674,7 +5989,7 @@
         <v>137</v>
       </c>
       <c r="B132" t="n">
-        <v>0.195</v>
+        <v>0.1951</v>
       </c>
       <c r="C132" t="n">
         <v>-0.1031</v>
@@ -5709,7 +6024,7 @@
         <v>2.2936</v>
       </c>
       <c r="F133" t="n">
-        <v>2.0198</v>
+        <v>2.0199</v>
       </c>
       <c r="G133" t="n">
         <v>-0.1794</v>
@@ -5881,10 +6196,10 @@
         <v>146</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6494</v>
+        <v>0.6493</v>
       </c>
       <c r="C141" t="n">
-        <v>0.267</v>
+        <v>0.2669</v>
       </c>
       <c r="D141" t="n">
         <v>1.1056</v>
@@ -5939,7 +6254,7 @@
         <v>-3.9155</v>
       </c>
       <c r="F143" t="n">
-        <v>-1.3307</v>
+        <v>-1.3308</v>
       </c>
       <c r="G143" t="n">
         <v>0.2525</v>
@@ -5985,7 +6300,7 @@
         <v>-0.2716</v>
       </c>
       <c r="F145" t="n">
-        <v>0.7439</v>
+        <v>0.7438</v>
       </c>
       <c r="G145" t="n">
         <v>-1.3825</v>
@@ -6031,7 +6346,7 @@
         <v>-2.2841</v>
       </c>
       <c r="F147" t="n">
-        <v>0.668</v>
+        <v>0.6679</v>
       </c>
       <c r="G147" t="n">
         <v>0.595</v>
@@ -6114,7 +6429,7 @@
         <v>-0.6305</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9906</v>
+        <v>0.9907</v>
       </c>
       <c r="D151" t="n">
         <v>-3.8773</v>
@@ -6255,7 +6570,7 @@
         <v>0.6834</v>
       </c>
       <c r="D157" t="n">
-        <v>1.6993</v>
+        <v>1.6994</v>
       </c>
       <c r="E157" t="n">
         <v>-0.6651</v>
@@ -6295,7 +6610,7 @@
         <v>164</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.5067</v>
+        <v>-0.5066</v>
       </c>
       <c r="C159" t="n">
         <v>1.9215</v>
@@ -6307,7 +6622,7 @@
         <v>1.3468</v>
       </c>
       <c r="F159" t="n">
-        <v>7.4715</v>
+        <v>7.4714</v>
       </c>
       <c r="G159" t="n">
         <v>0.2238</v>
@@ -6445,7 +6760,7 @@
         <v>1.2762</v>
       </c>
       <c r="F165" t="n">
-        <v>0.4509</v>
+        <v>0.4508</v>
       </c>
       <c r="G165" t="n">
         <v>-0.3093</v>
@@ -6459,7 +6774,7 @@
         <v>0.702</v>
       </c>
       <c r="C166" t="n">
-        <v>-1.5886</v>
+        <v>-1.5885</v>
       </c>
       <c r="D166" t="n">
         <v>-1.4815</v>
@@ -6482,7 +6797,7 @@
         <v>-0.3802</v>
       </c>
       <c r="C167" t="n">
-        <v>0.1059</v>
+        <v>0.1058</v>
       </c>
       <c r="D167" t="n">
         <v>-1.0526</v>
@@ -6623,7 +6938,7 @@
         <v>-0.6694</v>
       </c>
       <c r="D173" t="n">
-        <v>-1.3958</v>
+        <v>-1.3959</v>
       </c>
       <c r="E173" t="n">
         <v>1.5812</v>
@@ -6698,7 +7013,7 @@
         <v>1.0658</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0304</v>
+        <v>0.0303</v>
       </c>
       <c r="G176" t="n">
         <v>-0.1382</v>
@@ -6732,7 +7047,7 @@
         <v>183</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1275</v>
+        <v>0.1276</v>
       </c>
       <c r="C178" t="n">
         <v>3.5535</v>
@@ -6847,7 +7162,7 @@
         <v>188</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.9276</v>
+        <v>-0.9277</v>
       </c>
       <c r="C183" t="n">
         <v>2.1942</v>
@@ -7146,7 +7461,7 @@
         <v>201</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.8821</v>
+        <v>-1.1184</v>
       </c>
       <c r="C196" t="n">
         <v>0.0708</v>
@@ -7287,7 +7602,7 @@
         <v>0.1273</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.5716</v>
+        <v>-0.5717</v>
       </c>
       <c r="D202" t="n">
         <v>0.5988</v>
@@ -7353,7 +7668,7 @@
         <v>210</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.0197</v>
+        <v>-1.0198</v>
       </c>
       <c r="C205" t="n">
         <v>0.5571</v>
@@ -7388,7 +7703,7 @@
         <v>2.0697</v>
       </c>
       <c r="F206" t="n">
-        <v>0.1482</v>
+        <v>0.1481</v>
       </c>
       <c r="G206" t="n">
         <v>-0.4748</v>
@@ -7641,7 +7956,7 @@
         <v>-3.3454</v>
       </c>
       <c r="F217" t="n">
-        <v>-1.9151</v>
+        <v>-1.915</v>
       </c>
       <c r="G217" t="n">
         <v>0.4904</v>
@@ -7747,7 +8062,7 @@
         <v>0.248</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.9868</v>
+        <v>-0.9869</v>
       </c>
       <c r="D222" t="n">
         <v>-1.198</v>
@@ -7770,7 +8085,7 @@
         <v>-2.35</v>
       </c>
       <c r="C223" t="n">
-        <v>-3.5807</v>
+        <v>-3.5806</v>
       </c>
       <c r="D223" t="n">
         <v>-2.9446</v>
@@ -7825,7 +8140,7 @@
         <v>2.9032</v>
       </c>
       <c r="F225" t="n">
-        <v>1.4895</v>
+        <v>1.4894</v>
       </c>
       <c r="G225" t="n">
         <v>-0.4865</v>
@@ -7848,7 +8163,7 @@
         <v>3.1557</v>
       </c>
       <c r="F226" t="n">
-        <v>2.7313</v>
+        <v>2.7314</v>
       </c>
       <c r="G226" t="n">
         <v>-0.6667</v>
@@ -7934,7 +8249,7 @@
         <v>-3.1618</v>
       </c>
       <c r="D230" t="n">
-        <v>0.5063</v>
+        <v>0.5062</v>
       </c>
       <c r="E230" t="n">
         <v>1.2901</v>
@@ -7997,7 +8312,7 @@
         <v>238</v>
       </c>
       <c r="B233" t="n">
-        <v>1.7105</v>
+        <v>1.7104</v>
       </c>
       <c r="C233" t="n">
         <v>-0.1126</v>
@@ -8020,7 +8335,7 @@
         <v>239</v>
       </c>
       <c r="B234" t="n">
-        <v>-1.4415</v>
+        <v>-1.4414</v>
       </c>
       <c r="C234" t="n">
         <v>5.5597</v>
@@ -8138,7 +8453,7 @@
         <v>1.4286</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.6071</v>
+        <v>-0.6072</v>
       </c>
       <c r="D239" t="n">
         <v>0.0966</v>
@@ -8184,7 +8499,7 @@
         <v>0.303</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.6835</v>
+        <v>-0.6834</v>
       </c>
       <c r="D241" t="n">
         <v>-0.9382</v>
@@ -8256,7 +8571,7 @@
         <v>-2.2174</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0333</v>
+        <v>0.0334</v>
       </c>
       <c r="E244" t="n">
         <v>2.0703</v>
@@ -8322,7 +8637,7 @@
         <v>-0.3096</v>
       </c>
       <c r="C247" t="n">
-        <v>-1.5985</v>
+        <v>-1.5984</v>
       </c>
       <c r="D247" t="n">
         <v>-4.8772</v>
@@ -8342,7 +8657,7 @@
         <v>253</v>
       </c>
       <c r="B248" t="n">
-        <v>1.8013</v>
+        <v>1.8012</v>
       </c>
       <c r="C248" t="n">
         <v>2.1395</v>
@@ -8368,7 +8683,7 @@
         <v>0.5491</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.1552</v>
+        <v>-0.1551</v>
       </c>
       <c r="D249" t="n">
         <v>1.6718</v>
@@ -8411,7 +8726,7 @@
         <v>256</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.182</v>
+        <v>-0.1821</v>
       </c>
       <c r="C251" t="n">
         <v>4.2446</v>
@@ -8549,7 +8864,7 @@
         <v>262</v>
       </c>
       <c r="B257" t="n">
-        <v>-1.6564</v>
+        <v>-1.6565</v>
       </c>
       <c r="C257" t="n">
         <v>0.3474</v>
@@ -8578,7 +8893,7 @@
         <v>-1.5385</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.6017</v>
+        <v>-0.6016</v>
       </c>
       <c r="E258" t="n">
         <v>-0.7681</v>
@@ -8676,7 +8991,7 @@
         <v>1.5709</v>
       </c>
       <c r="F262" t="n">
-        <v>2.2183</v>
+        <v>2.2182</v>
       </c>
       <c r="G262" t="n">
         <v>-1.85</v>
@@ -8710,7 +9025,7 @@
         <v>269</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.6237</v>
+        <v>-0.8392</v>
       </c>
       <c r="C264" t="n">
         <v>-0.7936</v>
@@ -8782,7 +9097,7 @@
         <v>-0.8279</v>
       </c>
       <c r="C267" t="n">
-        <v>-2.1565</v>
+        <v>-2.1566</v>
       </c>
       <c r="D267" t="n">
         <v>-2.2309</v>
@@ -8986,7 +9301,7 @@
         <v>281</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.0583</v>
+        <v>-0.0584</v>
       </c>
       <c r="C276" t="n">
         <v>-4</v>
@@ -9078,7 +9393,7 @@
         <v>285</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.2894</v>
+        <v>-0.2893</v>
       </c>
       <c r="C280" t="n">
         <v>-0.2443</v>
@@ -9242,7 +9557,7 @@
         <v>0.7353</v>
       </c>
       <c r="C287" t="n">
-        <v>3.894</v>
+        <v>3.8939</v>
       </c>
       <c r="D287" t="n">
         <v>-0.398</v>
@@ -9446,7 +9761,7 @@
         <v>301</v>
       </c>
       <c r="B296" t="n">
-        <v>0.507</v>
+        <v>0.5071</v>
       </c>
       <c r="C296" t="n">
         <v>-1.0576</v>
@@ -9472,7 +9787,7 @@
         <v>0.5605</v>
       </c>
       <c r="C297" t="n">
-        <v>0.8314</v>
+        <v>0.8313</v>
       </c>
       <c r="D297" t="n">
         <v>0.3668</v>
@@ -9705,7 +10020,7 @@
         <v>-0.2468</v>
       </c>
       <c r="D307" t="n">
-        <v>-2.0889</v>
+        <v>-2.089</v>
       </c>
       <c r="E307" t="n">
         <v>-0.4337</v>
@@ -9998,7 +10313,7 @@
         <v>325</v>
       </c>
       <c r="B320" t="n">
-        <v>2.5468</v>
+        <v>2.3463</v>
       </c>
       <c r="C320" t="n">
         <v>2.0551</v>
@@ -10171,7 +10486,7 @@
         <v>-1.2511</v>
       </c>
       <c r="F327" t="n">
-        <v>-1.0411</v>
+        <v>-1.041</v>
       </c>
       <c r="G327" t="n">
         <v>-1.377</v>
@@ -10182,7 +10497,7 @@
         <v>333</v>
       </c>
       <c r="B328" t="n">
-        <v>1.5842</v>
+        <v>1.5841</v>
       </c>
       <c r="C328" t="n">
         <v>1.5409</v>
@@ -10343,7 +10658,7 @@
         <v>340</v>
       </c>
       <c r="B335" t="n">
-        <v>0.2965</v>
+        <v>0.2964</v>
       </c>
       <c r="C335" t="n">
         <v>-2.0364</v>
@@ -10461,7 +10776,7 @@
         <v>0.5917</v>
       </c>
       <c r="C340" t="n">
-        <v>-2.2665</v>
+        <v>-2.2666</v>
       </c>
       <c r="D340" t="n">
         <v>2.3223</v>
@@ -10481,7 +10796,7 @@
         <v>346</v>
       </c>
       <c r="B341" t="n">
-        <v>0.3921</v>
+        <v>0.3922</v>
       </c>
       <c r="C341" t="n">
         <v>-1.2059</v>
@@ -10530,7 +10845,7 @@
         <v>-1.1364</v>
       </c>
       <c r="C343" t="n">
-        <v>2.0276</v>
+        <v>2.0277</v>
       </c>
       <c r="D343" t="n">
         <v>-2.8708</v>
@@ -10734,7 +11049,7 @@
         <v>357</v>
       </c>
       <c r="B352" t="n">
-        <v>1.1429</v>
+        <v>1.1428</v>
       </c>
       <c r="C352" t="n">
         <v>2.2354</v>
@@ -10944,7 +11259,7 @@
         <v>0.2722</v>
       </c>
       <c r="C361" t="n">
-        <v>0.9579</v>
+        <v>0.9578</v>
       </c>
       <c r="D361" t="n">
         <v>2.1898</v>
@@ -10953,7 +11268,7 @@
         <v>0.908</v>
       </c>
       <c r="F361" t="n">
-        <v>-0.3106</v>
+        <v>-0.3107</v>
       </c>
       <c r="G361" t="n">
         <v>0.7842</v>
@@ -11036,10 +11351,10 @@
         <v>0.1818</v>
       </c>
       <c r="C365" t="n">
-        <v>-1.6485</v>
+        <v>-1.6484</v>
       </c>
       <c r="D365" t="n">
-        <v>0.796</v>
+        <v>0.7959</v>
       </c>
       <c r="E365" t="n">
         <v>-1.0408</v>
@@ -11068,7 +11383,7 @@
         <v>-1.7249</v>
       </c>
       <c r="F366" t="n">
-        <v>-1.5083</v>
+        <v>-1.5084</v>
       </c>
       <c r="G366" t="n">
         <v>0.2534</v>
@@ -11197,7 +11512,7 @@
         <v>-0.4537</v>
       </c>
       <c r="C372" t="n">
-        <v>0.6727</v>
+        <v>0.6728</v>
       </c>
       <c r="D372" t="n">
         <v>2.2061</v>
@@ -11289,7 +11604,7 @@
         <v>-1.875</v>
       </c>
       <c r="C376" t="n">
-        <v>1.33</v>
+        <v>1.3301</v>
       </c>
       <c r="D376" t="n">
         <v>-0.5299</v>
@@ -11309,7 +11624,7 @@
         <v>382</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.2292</v>
+        <v>-0.4014</v>
       </c>
       <c r="C377" t="n">
         <v>-0.0972</v>
@@ -11493,7 +11808,7 @@
         <v>390</v>
       </c>
       <c r="B385" t="n">
-        <v>-1.5993</v>
+        <v>-1.5992</v>
       </c>
       <c r="C385" t="n">
         <v>2.1151</v>
@@ -11562,7 +11877,7 @@
         <v>393</v>
       </c>
       <c r="B388" t="n">
-        <v>-1.144</v>
+        <v>-1.1439</v>
       </c>
       <c r="C388" t="n">
         <v>-1.8252</v>
@@ -11795,7 +12110,7 @@
         <v>-0.0984</v>
       </c>
       <c r="C398" t="n">
-        <v>-1.4125</v>
+        <v>-1.4126</v>
       </c>
       <c r="D398" t="n">
         <v>-2.5916</v>
@@ -11907,7 +12222,7 @@
         <v>408</v>
       </c>
       <c r="B403" t="n">
-        <v>2.8075</v>
+        <v>2.8076</v>
       </c>
       <c r="C403" t="n">
         <v>3.4044</v>
@@ -12057,7 +12372,7 @@
         <v>-0.8358</v>
       </c>
       <c r="F409" t="n">
-        <v>-4.8813</v>
+        <v>-4.8814</v>
       </c>
       <c r="G409" t="n">
         <v>0.9214</v>
@@ -12229,7 +12544,7 @@
         <v>422</v>
       </c>
       <c r="B417" t="n">
-        <v>0.878</v>
+        <v>0.8781</v>
       </c>
       <c r="C417" t="n">
         <v>5.2534</v>
@@ -12442,7 +12757,7 @@
         <v>-2.0897</v>
       </c>
       <c r="D426" t="n">
-        <v>-1.0947</v>
+        <v>-1.0946</v>
       </c>
       <c r="E426" t="n">
         <v>1.9435</v>
@@ -12505,7 +12820,7 @@
         <v>434</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.1968</v>
+        <v>-0.1969</v>
       </c>
       <c r="C429" t="n">
         <v>-2.0408</v>
@@ -12827,7 +13142,7 @@
         <v>448</v>
       </c>
       <c r="B443" t="n">
-        <v>1.8013</v>
+        <v>1.5923</v>
       </c>
       <c r="C443" t="n">
         <v>3.3898</v>
@@ -12919,7 +13234,7 @@
         <v>452</v>
       </c>
       <c r="B447" t="n">
-        <v>1.859</v>
+        <v>1.8589</v>
       </c>
       <c r="C447" t="n">
         <v>0.7199</v>
@@ -13138,7 +13453,7 @@
         <v>1.1119</v>
       </c>
       <c r="F456" t="n">
-        <v>4.4232</v>
+        <v>4.4231</v>
       </c>
       <c r="G456" t="n">
         <v>-0.6807</v>
@@ -13359,7 +13674,7 @@
         <v>-0.6978</v>
       </c>
       <c r="C466" t="n">
-        <v>-2.2646</v>
+        <v>-2.2645</v>
       </c>
       <c r="D466" t="n">
         <v>-1.1328</v>
@@ -13408,7 +13723,7 @@
         <v>-0.6265</v>
       </c>
       <c r="D468" t="n">
-        <v>1.1471</v>
+        <v>1.1472</v>
       </c>
       <c r="E468" t="n">
         <v>1.0735</v>
@@ -13474,7 +13789,7 @@
         <v>-0.2756</v>
       </c>
       <c r="C471" t="n">
-        <v>-1.1853</v>
+        <v>-1.1852</v>
       </c>
       <c r="D471" t="n">
         <v>-0.5959</v>
@@ -13644,7 +13959,7 @@
         <v>-0.0633</v>
       </c>
       <c r="F478" t="n">
-        <v>1.5253</v>
+        <v>1.5252</v>
       </c>
       <c r="G478" t="n">
         <v>-1.5808</v>
@@ -13701,7 +14016,7 @@
         <v>486</v>
       </c>
       <c r="B481" t="n">
-        <v>0.7692</v>
+        <v>0.7693</v>
       </c>
       <c r="C481" t="n">
         <v>0.7036</v>
@@ -13727,7 +14042,7 @@
         <v>-0.5089</v>
       </c>
       <c r="C482" t="n">
-        <v>3.3624</v>
+        <v>3.3625</v>
       </c>
       <c r="D482" t="n">
         <v>1.0375</v>
@@ -13747,7 +14062,7 @@
         <v>488</v>
       </c>
       <c r="B483" t="n">
-        <v>0.2557</v>
+        <v>0.2558</v>
       </c>
       <c r="C483" t="n">
         <v>-0.338</v>
@@ -13782,7 +14097,7 @@
         <v>-2.0433</v>
       </c>
       <c r="F484" t="n">
-        <v>-2.154</v>
+        <v>-2.1539</v>
       </c>
       <c r="G484" t="n">
         <v>-2.1451</v>
@@ -13793,7 +14108,7 @@
         <v>490</v>
       </c>
       <c r="B485" t="n">
-        <v>-0.4079</v>
+        <v>-0.408</v>
       </c>
       <c r="C485" t="n">
         <v>0.1866</v>
@@ -13911,7 +14226,7 @@
         <v>0.8138</v>
       </c>
       <c r="C490" t="n">
-        <v>1.5508</v>
+        <v>1.5507</v>
       </c>
       <c r="D490" t="n">
         <v>-0.2597</v>
@@ -14006,7 +14321,7 @@
         <v>0.7533</v>
       </c>
       <c r="D494" t="n">
-        <v>0.7952</v>
+        <v>0.7951</v>
       </c>
       <c r="E494" t="n">
         <v>0.2739</v>
@@ -14118,7 +14433,7 @@
         <v>-0.3068</v>
       </c>
       <c r="C499" t="n">
-        <v>-1.1121</v>
+        <v>-1.1122</v>
       </c>
       <c r="D499" t="n">
         <v>-0.8585</v>
@@ -14259,7 +14574,7 @@
         <v>0.6055</v>
       </c>
       <c r="D505" t="n">
-        <v>-4.0709</v>
+        <v>-4.0708</v>
       </c>
       <c r="E505" t="n">
         <v>-0.7958</v>
@@ -14279,7 +14594,7 @@
         <v>0.4892</v>
       </c>
       <c r="C506" t="n">
-        <v>-0.6944</v>
+        <v>-0.6945</v>
       </c>
       <c r="D506" t="n">
         <v>-1.8075</v>
@@ -14368,10 +14683,10 @@
         <v>515</v>
       </c>
       <c r="B510" t="n">
-        <v>0.2862</v>
+        <v>0.2863</v>
       </c>
       <c r="C510" t="n">
-        <v>0.1821</v>
+        <v>0.1822</v>
       </c>
       <c r="D510" t="n">
         <v>-1.9699</v>
@@ -14414,7 +14729,7 @@
         <v>517</v>
       </c>
       <c r="B512" t="n">
-        <v>-2.5748</v>
+        <v>-2.7399</v>
       </c>
       <c r="C512" t="n">
         <v>-1.9361</v>
@@ -14472,7 +14787,7 @@
         <v>-1.955</v>
       </c>
       <c r="F514" t="n">
-        <v>-1.098</v>
+        <v>-1.0979</v>
       </c>
       <c r="G514" t="n">
         <v>-1.9298</v>
@@ -14486,7 +14801,7 @@
         <v>-0.2933</v>
       </c>
       <c r="C515" t="n">
-        <v>2.2138</v>
+        <v>2.2139</v>
       </c>
       <c r="D515" t="n">
         <v>1.8075</v>
@@ -14564,7 +14879,7 @@
         <v>-0.1922</v>
       </c>
       <c r="F518" t="n">
-        <v>-1.99</v>
+        <v>-1.9901</v>
       </c>
       <c r="G518" t="n">
         <v>-1.8291</v>
@@ -14693,7 +15008,7 @@
         <v>-0.1921</v>
       </c>
       <c r="C524" t="n">
-        <v>1.232</v>
+        <v>1.2319</v>
       </c>
       <c r="D524" t="n">
         <v>-1.7199</v>
@@ -14739,7 +15054,7 @@
         <v>0.779</v>
       </c>
       <c r="C526" t="n">
-        <v>1.6873</v>
+        <v>1.6872</v>
       </c>
       <c r="D526" t="n">
         <v>1.074</v>
@@ -14808,7 +15123,7 @@
         <v>-0.4822</v>
       </c>
       <c r="C529" t="n">
-        <v>-0.8638</v>
+        <v>-0.8639</v>
       </c>
       <c r="D529" t="n">
         <v>0.0392</v>
@@ -14874,7 +15189,7 @@
         <v>537</v>
       </c>
       <c r="B532" t="n">
-        <v>0.3831</v>
+        <v>0.3832</v>
       </c>
       <c r="C532" t="n">
         <v>1.4944</v>
@@ -15288,7 +15603,7 @@
         <v>555</v>
       </c>
       <c r="B550" t="n">
-        <v>7.2581</v>
+        <v>7.258</v>
       </c>
       <c r="C550" t="n">
         <v>0.2161</v>
@@ -15633,7 +15948,7 @@
         <v>570</v>
       </c>
       <c r="B565" t="n">
-        <v>4.7266</v>
+        <v>4.7267</v>
       </c>
       <c r="C565" t="n">
         <v>3.5179</v>
@@ -15702,7 +16017,7 @@
         <v>573</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.74</v>
+        <v>-0.7399</v>
       </c>
       <c r="C568" t="n">
         <v>-4.9423</v>
@@ -15852,7 +16167,7 @@
         <v>3.2157</v>
       </c>
       <c r="F574" t="n">
-        <v>3.4758</v>
+        <v>3.4759</v>
       </c>
       <c r="G574" t="n">
         <v>3.6853</v>
@@ -16001,7 +16316,7 @@
         <v>586</v>
       </c>
       <c r="B581" t="n">
-        <v>-1.0556</v>
+        <v>-22.9935</v>
       </c>
       <c r="C581" t="n">
         <v>-1.9355</v>
@@ -16122,7 +16437,7 @@
         <v>-0.6064</v>
       </c>
       <c r="D586" t="n">
-        <v>-3.423</v>
+        <v>-3.4231</v>
       </c>
       <c r="E586" t="n">
         <v>4.1799</v>
@@ -16415,7 +16730,7 @@
         <v>604</v>
       </c>
       <c r="B599" t="n">
-        <v>4.6413</v>
+        <v>4.6414</v>
       </c>
       <c r="C599" t="n">
         <v>3.7688</v>
@@ -16427,7 +16742,7 @@
         <v>-1.8393</v>
       </c>
       <c r="F599" t="n">
-        <v>0.6669</v>
+        <v>0.6668</v>
       </c>
       <c r="G599" t="n">
         <v>3.3276</v>
@@ -16553,7 +16868,7 @@
         <v>610</v>
       </c>
       <c r="B605" t="n">
-        <v>-0.1033</v>
+        <v>-0.1032</v>
       </c>
       <c r="C605" t="n">
         <v>-1.3696</v>
@@ -16714,10 +17029,10 @@
         <v>617</v>
       </c>
       <c r="B612" t="n">
-        <v>1.577</v>
+        <v>1.5769</v>
       </c>
       <c r="C612" t="n">
-        <v>3.1406</v>
+        <v>3.1407</v>
       </c>
       <c r="D612" t="n">
         <v>2.6184</v>
@@ -16818,7 +17133,7 @@
         <v>1.831</v>
       </c>
       <c r="F616" t="n">
-        <v>0.7552</v>
+        <v>0.7553</v>
       </c>
       <c r="G616" t="n">
         <v>-2.9596</v>
@@ -17151,22 +17466,22 @@
         <v>636</v>
       </c>
       <c r="B631" t="n">
-        <v>0</v>
+        <v>0.6119</v>
       </c>
       <c r="C631" t="n">
-        <v>0</v>
+        <v>5.1587</v>
       </c>
       <c r="D631" t="n">
-        <v>0</v>
+        <v>-0.5917</v>
       </c>
       <c r="E631" t="n">
-        <v>0</v>
+        <v>0.3866</v>
       </c>
       <c r="F631" t="n">
-        <v>0</v>
+        <v>2.7155</v>
       </c>
       <c r="G631" t="n">
-        <v>0</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="632">
@@ -17174,22 +17489,22 @@
         <v>637</v>
       </c>
       <c r="B632" t="n">
-        <v>0</v>
+        <v>-0.3041</v>
       </c>
       <c r="C632" t="n">
-        <v>0</v>
+        <v>0.6604</v>
       </c>
       <c r="D632" t="n">
-        <v>0</v>
+        <v>0.9921</v>
       </c>
       <c r="E632" t="n">
-        <v>0</v>
+        <v>0.1284</v>
       </c>
       <c r="F632" t="n">
-        <v>0</v>
+        <v>0.539</v>
       </c>
       <c r="G632" t="n">
-        <v>0</v>
+        <v>1.9034</v>
       </c>
     </row>
     <row r="633">
@@ -17220,7 +17535,7 @@
         <v>639</v>
       </c>
       <c r="B634" t="n">
-        <v>-1.0188</v>
+        <v>-1.0189</v>
       </c>
       <c r="C634" t="n">
         <v>-1.2641</v>
@@ -17496,7 +17811,7 @@
         <v>651</v>
       </c>
       <c r="B646" t="n">
-        <v>1.4469</v>
+        <v>1.447</v>
       </c>
       <c r="C646" t="n">
         <v>1.1286</v>
@@ -17542,7 +17857,7 @@
         <v>653</v>
       </c>
       <c r="B648" t="n">
-        <v>1.7952</v>
+        <v>1.7951</v>
       </c>
       <c r="C648" t="n">
         <v>-0.0473</v>
@@ -17680,7 +17995,7 @@
         <v>659</v>
       </c>
       <c r="B654" t="n">
-        <v>-0.7246</v>
+        <v>-0.7247</v>
       </c>
       <c r="C654" t="n">
         <v>-4.0587</v>
@@ -17703,7 +18018,7 @@
         <v>660</v>
       </c>
       <c r="B655" t="n">
-        <v>0.8863</v>
+        <v>0.8864</v>
       </c>
       <c r="C655" t="n">
         <v>0.5709</v>
@@ -17968,7 +18283,7 @@
         <v>3.7649</v>
       </c>
       <c r="F666" t="n">
-        <v>2.962</v>
+        <v>2.9619</v>
       </c>
       <c r="G666" t="n">
         <v>6.2942</v>
@@ -18163,22 +18478,22 @@
         <v>680</v>
       </c>
       <c r="B675" t="n">
-        <v>0</v>
+        <v>0.2558</v>
       </c>
       <c r="C675" t="n">
-        <v>0</v>
+        <v>-2.4492</v>
       </c>
       <c r="D675" t="n">
-        <v>0</v>
+        <v>-3.098</v>
       </c>
       <c r="E675" t="n">
-        <v>0</v>
+        <v>2.8765</v>
       </c>
       <c r="F675" t="n">
-        <v>0</v>
+        <v>2.0328</v>
       </c>
       <c r="G675" t="n">
-        <v>0</v>
+        <v>-3.2203</v>
       </c>
     </row>
     <row r="676">
@@ -18186,22 +18501,22 @@
         <v>681</v>
       </c>
       <c r="B676" t="n">
-        <v>0</v>
+        <v>-0.7653</v>
       </c>
       <c r="C676" t="n">
-        <v>0</v>
+        <v>-2.8896</v>
       </c>
       <c r="D676" t="n">
-        <v>0</v>
+        <v>-3.0398</v>
       </c>
       <c r="E676" t="n">
-        <v>0</v>
+        <v>-0.1645</v>
       </c>
       <c r="F676" t="n">
-        <v>0</v>
+        <v>-3.639</v>
       </c>
       <c r="G676" t="n">
-        <v>0</v>
+        <v>-3.9885</v>
       </c>
     </row>
     <row r="677">
@@ -18278,7 +18593,7 @@
         <v>685</v>
       </c>
       <c r="B680" t="n">
-        <v>-0.1542</v>
+        <v>-0.1543</v>
       </c>
       <c r="C680" t="n">
         <v>-2.3589</v>
@@ -18301,7 +18616,7 @@
         <v>686</v>
       </c>
       <c r="B681" t="n">
-        <v>2.6776</v>
+        <v>2.6777</v>
       </c>
       <c r="C681" t="n">
         <v>4.5828</v>
@@ -18416,7 +18731,7 @@
         <v>691</v>
       </c>
       <c r="B686" t="n">
-        <v>2.073</v>
+        <v>2.0731</v>
       </c>
       <c r="C686" t="n">
         <v>2.546</v>
@@ -18508,7 +18823,7 @@
         <v>695</v>
       </c>
       <c r="B690" t="n">
-        <v>-3.5646</v>
+        <v>-3.5645</v>
       </c>
       <c r="C690" t="n">
         <v>0.2639</v>
@@ -18669,13 +18984,13 @@
         <v>702</v>
       </c>
       <c r="B697" t="n">
-        <v>-0.4487</v>
+        <v>-0.4486</v>
       </c>
       <c r="C697" t="n">
         <v>1.6789</v>
       </c>
       <c r="D697" t="n">
-        <v>0.5034</v>
+        <v>0.5033</v>
       </c>
       <c r="E697" t="n">
         <v>-1.9948</v>
@@ -18692,7 +19007,7 @@
         <v>703</v>
       </c>
       <c r="B698" t="n">
-        <v>-2.5037</v>
+        <v>-2.5038</v>
       </c>
       <c r="C698" t="n">
         <v>-2.8154</v>
@@ -18744,7 +19059,7 @@
         <v>2.2242</v>
       </c>
       <c r="D700" t="n">
-        <v>2.8823</v>
+        <v>2.8824</v>
       </c>
       <c r="E700" t="n">
         <v>0.0906</v>
@@ -18925,7 +19240,7 @@
         <v>2.6461</v>
       </c>
       <c r="C708" t="n">
-        <v>-3.4294</v>
+        <v>-3.4295</v>
       </c>
       <c r="D708" t="n">
         <v>0.1725</v>
@@ -18968,7 +19283,7 @@
         <v>715</v>
       </c>
       <c r="B710" t="n">
-        <v>3.5963</v>
+        <v>3.5964</v>
       </c>
       <c r="C710" t="n">
         <v>-1.336</v>
@@ -19589,7 +19904,7 @@
         <v>742</v>
       </c>
       <c r="B737" t="n">
-        <v>0.8782</v>
+        <v>0.8781</v>
       </c>
       <c r="C737" t="n">
         <v>-2.761</v>
@@ -19612,7 +19927,7 @@
         <v>743</v>
       </c>
       <c r="B738" t="n">
-        <v>2.013</v>
+        <v>2.0131</v>
       </c>
       <c r="C738" t="n">
         <v>-0.5699</v>
@@ -19693,7 +20008,7 @@
         <v>-0.8247</v>
       </c>
       <c r="F741" t="n">
-        <v>-1.3363</v>
+        <v>-1.3364</v>
       </c>
       <c r="G741" t="n">
         <v>-2.7015</v>
@@ -19727,7 +20042,7 @@
         <v>748</v>
       </c>
       <c r="B743" t="n">
-        <v>0.2669</v>
+        <v>0.267</v>
       </c>
       <c r="C743" t="n">
         <v>2.9651</v>
@@ -20226,6 +20541,2421 @@
       </c>
       <c r="G764" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="s">
+        <v>770</v>
+      </c>
+      <c r="B765" t="n">
+        <v>0.9814</v>
+      </c>
+      <c r="C765" t="n">
+        <v>0.6604</v>
+      </c>
+      <c r="D765" t="n">
+        <v>1.1065</v>
+      </c>
+      <c r="E765" t="n">
+        <v>-0.3599</v>
+      </c>
+      <c r="F765" t="n">
+        <v>-0.6159</v>
+      </c>
+      <c r="G765" t="n">
+        <v>4.6432</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="s">
+        <v>771</v>
+      </c>
+      <c r="B766" t="n">
+        <v>-2.0972</v>
+      </c>
+      <c r="C766" t="n">
+        <v>-1.3589</v>
+      </c>
+      <c r="D766" t="n">
+        <v>-1.7328</v>
+      </c>
+      <c r="E766" t="n">
+        <v>-1.6854</v>
+      </c>
+      <c r="F766" t="n">
+        <v>-2.9126</v>
+      </c>
+      <c r="G766" t="n">
+        <v>-0.9809</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="s">
+        <v>772</v>
+      </c>
+      <c r="B767" t="n">
+        <v>1.3584</v>
+      </c>
+      <c r="C767" t="n">
+        <v>-0.0475</v>
+      </c>
+      <c r="D767" t="n">
+        <v>1.8562</v>
+      </c>
+      <c r="E767" t="n">
+        <v>1.7551</v>
+      </c>
+      <c r="F767" t="n">
+        <v>3.0213</v>
+      </c>
+      <c r="G767" t="n">
+        <v>-1.2264</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="s">
+        <v>773</v>
+      </c>
+      <c r="B768" t="n">
+        <v>1.2887</v>
+      </c>
+      <c r="C768" t="n">
+        <v>0.5703</v>
+      </c>
+      <c r="D768" t="n">
+        <v>0.8656</v>
+      </c>
+      <c r="E768" t="n">
+        <v>0.0401</v>
+      </c>
+      <c r="F768" t="n">
+        <v>2.4577</v>
+      </c>
+      <c r="G768" t="n">
+        <v>1.6237</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="s">
+        <v>774</v>
+      </c>
+      <c r="B769" t="n">
+        <v>0.1018</v>
+      </c>
+      <c r="C769" t="n">
+        <v>0.6616</v>
+      </c>
+      <c r="D769" t="n">
+        <v>2.7552</v>
+      </c>
+      <c r="E769" t="n">
+        <v>-0.6415</v>
+      </c>
+      <c r="F769" t="n">
+        <v>-0.9071</v>
+      </c>
+      <c r="G769" t="n">
+        <v>-1.3158</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="s">
+        <v>775</v>
+      </c>
+      <c r="B770" t="n">
+        <v>0.0508</v>
+      </c>
+      <c r="C770" t="n">
+        <v>1.5962</v>
+      </c>
+      <c r="D770" t="n">
+        <v>-0.3077</v>
+      </c>
+      <c r="E770" t="n">
+        <v>0.3228</v>
+      </c>
+      <c r="F770" t="n">
+        <v>1.2612</v>
+      </c>
+      <c r="G770" t="n">
+        <v>-0.0476</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="s">
+        <v>776</v>
+      </c>
+      <c r="B771" t="n">
+        <v>-0.9654</v>
+      </c>
+      <c r="C771" t="n">
+        <v>3.7431</v>
+      </c>
+      <c r="D771" t="n">
+        <v>0.2645</v>
+      </c>
+      <c r="E771" t="n">
+        <v>0.8447</v>
+      </c>
+      <c r="F771" t="n">
+        <v>1.9687</v>
+      </c>
+      <c r="G771" t="n">
+        <v>1.9533</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="s">
+        <v>777</v>
+      </c>
+      <c r="B772" t="n">
+        <v>-0.5131</v>
+      </c>
+      <c r="C772" t="n">
+        <v>-0.5791</v>
+      </c>
+      <c r="D772" t="n">
+        <v>1.6711</v>
+      </c>
+      <c r="E772" t="n">
+        <v>-0.5584</v>
+      </c>
+      <c r="F772" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="G772" t="n">
+        <v>-0.0467</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="s">
+        <v>778</v>
+      </c>
+      <c r="B773" t="n">
+        <v>1.2893</v>
+      </c>
+      <c r="C773" t="n">
+        <v>-2.3746</v>
+      </c>
+      <c r="D773" t="n">
+        <v>0.8651</v>
+      </c>
+      <c r="E773" t="n">
+        <v>0.9627</v>
+      </c>
+      <c r="F773" t="n">
+        <v>1.0204</v>
+      </c>
+      <c r="G773" t="n">
+        <v>-0.6078</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="s">
+        <v>779</v>
+      </c>
+      <c r="B774" t="n">
+        <v>0.3055</v>
+      </c>
+      <c r="C774" t="n">
+        <v>0.7802</v>
+      </c>
+      <c r="D774" t="n">
+        <v>-5.446</v>
+      </c>
+      <c r="E774" t="n">
+        <v>-1.1124</v>
+      </c>
+      <c r="F774" t="n">
+        <v>-0.8935</v>
+      </c>
+      <c r="G774" t="n">
+        <v>-0.9407</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="s">
+        <v>780</v>
+      </c>
+      <c r="B775" t="n">
+        <v>0</v>
+      </c>
+      <c r="C775" t="n">
+        <v>-0.0455</v>
+      </c>
+      <c r="D775" t="n">
+        <v>-0.3175</v>
+      </c>
+      <c r="E775" t="n">
+        <v>0.5223</v>
+      </c>
+      <c r="F775" t="n">
+        <v>0.9408</v>
+      </c>
+      <c r="G775" t="n">
+        <v>2.5641</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="s">
+        <v>781</v>
+      </c>
+      <c r="B776" t="n">
+        <v>1.8274</v>
+      </c>
+      <c r="C776" t="n">
+        <v>-0.0456</v>
+      </c>
+      <c r="D776" t="n">
+        <v>1.8198</v>
+      </c>
+      <c r="E776" t="n">
+        <v>0.2398</v>
+      </c>
+      <c r="F776" t="n">
+        <v>7.068</v>
+      </c>
+      <c r="G776" t="n">
+        <v>3.5185</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="s">
+        <v>782</v>
+      </c>
+      <c r="B777" t="n">
+        <v>1.1964</v>
+      </c>
+      <c r="C777" t="n">
+        <v>3.1449</v>
+      </c>
+      <c r="D777" t="n">
+        <v>0.0894</v>
+      </c>
+      <c r="E777" t="n">
+        <v>1.4354</v>
+      </c>
+      <c r="F777" t="n">
+        <v>1.3783</v>
+      </c>
+      <c r="G777" t="n">
+        <v>-0.5814</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="s">
+        <v>783</v>
+      </c>
+      <c r="B778" t="n">
+        <v>-0.1971</v>
+      </c>
+      <c r="C778" t="n">
+        <v>0.1326</v>
+      </c>
+      <c r="D778" t="n">
+        <v>4.2857</v>
+      </c>
+      <c r="E778" t="n">
+        <v>0.6682</v>
+      </c>
+      <c r="F778" t="n">
+        <v>-1.7889</v>
+      </c>
+      <c r="G778" t="n">
+        <v>0.4498</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="s">
+        <v>784</v>
+      </c>
+      <c r="B779" t="n">
+        <v>-1.0859</v>
+      </c>
+      <c r="C779" t="n">
+        <v>-0.5296</v>
+      </c>
+      <c r="D779" t="n">
+        <v>2.9109</v>
+      </c>
+      <c r="E779" t="n">
+        <v>-2.2647</v>
+      </c>
+      <c r="F779" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="G779" t="n">
+        <v>-1.3435</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="s">
+        <v>785</v>
+      </c>
+      <c r="B780" t="n">
+        <v>-0.9481</v>
+      </c>
+      <c r="C780" t="n">
+        <v>-1.1979</v>
+      </c>
+      <c r="D780" t="n">
+        <v>-2.787</v>
+      </c>
+      <c r="E780" t="n">
+        <v>-0.0799</v>
+      </c>
+      <c r="F780" t="n">
+        <v>0.8833</v>
+      </c>
+      <c r="G780" t="n">
+        <v>-2.8597</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="s">
+        <v>786</v>
+      </c>
+      <c r="B781" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="C781" t="n">
+        <v>1.6165</v>
+      </c>
+      <c r="D781" t="n">
+        <v>4.1506</v>
+      </c>
+      <c r="E781" t="n">
+        <v>-1.6393</v>
+      </c>
+      <c r="F781" t="n">
+        <v>0.1094</v>
+      </c>
+      <c r="G781" t="n">
+        <v>1.1215</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="s">
+        <v>787</v>
+      </c>
+      <c r="B782" t="n">
+        <v>-0.4523</v>
+      </c>
+      <c r="C782" t="n">
+        <v>0.3093</v>
+      </c>
+      <c r="D782" t="n">
+        <v>3.1224</v>
+      </c>
+      <c r="E782" t="n">
+        <v>-4.1463</v>
+      </c>
+      <c r="F782" t="n">
+        <v>-1.0933</v>
+      </c>
+      <c r="G782" t="n">
+        <v>0.2311</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="s">
+        <v>788</v>
+      </c>
+      <c r="B783" t="n">
+        <v>-1.262</v>
+      </c>
+      <c r="C783" t="n">
+        <v>-0.1762</v>
+      </c>
+      <c r="D783" t="n">
+        <v>-2.4701</v>
+      </c>
+      <c r="E783" t="n">
+        <v>-3.3079</v>
+      </c>
+      <c r="F783" t="n">
+        <v>-2.8371</v>
+      </c>
+      <c r="G783" t="n">
+        <v>3.2734</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="s">
+        <v>789</v>
+      </c>
+      <c r="B784" t="n">
+        <v>0.7157</v>
+      </c>
+      <c r="C784" t="n">
+        <v>0.7943</v>
+      </c>
+      <c r="D784" t="n">
+        <v>3.7582</v>
+      </c>
+      <c r="E784" t="n">
+        <v>-5.7018</v>
+      </c>
+      <c r="F784" t="n">
+        <v>-1.0618</v>
+      </c>
+      <c r="G784" t="n">
+        <v>1.6964</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="s">
+        <v>790</v>
+      </c>
+      <c r="B785" t="n">
+        <v>-0.1015</v>
+      </c>
+      <c r="C785" t="n">
+        <v>2.4518</v>
+      </c>
+      <c r="D785" t="n">
+        <v>3.8976</v>
+      </c>
+      <c r="E785" t="n">
+        <v>-2.6977</v>
+      </c>
+      <c r="F785" t="n">
+        <v>1.3032</v>
+      </c>
+      <c r="G785" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="s">
+        <v>791</v>
+      </c>
+      <c r="B786" t="n">
+        <v>-1.4228</v>
+      </c>
+      <c r="C786" t="n">
+        <v>-2.8205</v>
+      </c>
+      <c r="D786" t="n">
+        <v>-1.6294</v>
+      </c>
+      <c r="E786" t="n">
+        <v>-1.0516</v>
+      </c>
+      <c r="F786" t="n">
+        <v>-2.0053</v>
+      </c>
+      <c r="G786" t="n">
+        <v>-2.5461</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="s">
+        <v>792</v>
+      </c>
+      <c r="B787" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C787" t="n">
+        <v>2.4626</v>
+      </c>
+      <c r="D787" t="n">
+        <v>2.1572</v>
+      </c>
+      <c r="E787" t="n">
+        <v>3.9614</v>
+      </c>
+      <c r="F787" t="n">
+        <v>1.8533</v>
+      </c>
+      <c r="G787" t="n">
+        <v>-0.7658</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="s">
+        <v>793</v>
+      </c>
+      <c r="B788" t="n">
+        <v>1.1937</v>
+      </c>
+      <c r="C788" t="n">
+        <v>0.9442</v>
+      </c>
+      <c r="D788" t="n">
+        <v>-1.3575</v>
+      </c>
+      <c r="E788" t="n">
+        <v>-2.3234</v>
+      </c>
+      <c r="F788" t="n">
+        <v>-0.4928</v>
+      </c>
+      <c r="G788" t="n">
+        <v>-0.1362</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="s">
+        <v>794</v>
+      </c>
+      <c r="B789" t="n">
+        <v>-4.2895</v>
+      </c>
+      <c r="C789" t="n">
+        <v>0.5952</v>
+      </c>
+      <c r="D789" t="n">
+        <v>-4.3578</v>
+      </c>
+      <c r="E789" t="n">
+        <v>-3.8059</v>
+      </c>
+      <c r="F789" t="n">
+        <v>-4.8571</v>
+      </c>
+      <c r="G789" t="n">
+        <v>0.6364</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="s">
+        <v>795</v>
+      </c>
+      <c r="B790" t="n">
+        <v>-1.9601</v>
+      </c>
+      <c r="C790" t="n">
+        <v>-0.1268</v>
+      </c>
+      <c r="D790" t="n">
+        <v>-3.6771</v>
+      </c>
+      <c r="E790" t="n">
+        <v>-4.7972</v>
+      </c>
+      <c r="F790" t="n">
+        <v>-4.965</v>
+      </c>
+      <c r="G790" t="n">
+        <v>0.271</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="s">
+        <v>796</v>
+      </c>
+      <c r="B791" t="n">
+        <v>-0.1468</v>
+      </c>
+      <c r="C791" t="n">
+        <v>2.2429</v>
+      </c>
+      <c r="D791" t="n">
+        <v>-0.8299</v>
+      </c>
+      <c r="E791" t="n">
+        <v>-1.2208</v>
+      </c>
+      <c r="F791" t="n">
+        <v>-4.5292</v>
+      </c>
+      <c r="G791" t="n">
+        <v>-1.2613</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="s">
+        <v>797</v>
+      </c>
+      <c r="B792" t="n">
+        <v>-1.3235</v>
+      </c>
+      <c r="C792" t="n">
+        <v>1.9454</v>
+      </c>
+      <c r="D792" t="n">
+        <v>1.4644</v>
+      </c>
+      <c r="E792" t="n">
+        <v>2.5769</v>
+      </c>
+      <c r="F792" t="n">
+        <v>-0.1545</v>
+      </c>
+      <c r="G792" t="n">
+        <v>3.4215</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="s">
+        <v>798</v>
+      </c>
+      <c r="B793" t="n">
+        <v>0.8197</v>
+      </c>
+      <c r="C793" t="n">
+        <v>-0.5278</v>
+      </c>
+      <c r="D793" t="n">
+        <v>2.9278</v>
+      </c>
+      <c r="E793" t="n">
+        <v>1.8713</v>
+      </c>
+      <c r="F793" t="n">
+        <v>2.7624</v>
+      </c>
+      <c r="G793" t="n">
+        <v>5.4257</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="s">
+        <v>799</v>
+      </c>
+      <c r="B794" t="n">
+        <v>0.0739</v>
+      </c>
+      <c r="C794" t="n">
+        <v>0.9388</v>
+      </c>
+      <c r="D794" t="n">
+        <v>-2.8446</v>
+      </c>
+      <c r="E794" t="n">
+        <v>1.1575</v>
+      </c>
+      <c r="F794" t="n">
+        <v>-1.0323</v>
+      </c>
+      <c r="G794" t="n">
+        <v>2.5941</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="s">
+        <v>800</v>
+      </c>
+      <c r="B795" t="n">
+        <v>5.9823</v>
+      </c>
+      <c r="C795" t="n">
+        <v>-0.6874</v>
+      </c>
+      <c r="D795" t="n">
+        <v>1.5258</v>
+      </c>
+      <c r="E795" t="n">
+        <v>1.0945</v>
+      </c>
+      <c r="F795" t="n">
+        <v>2.4989</v>
+      </c>
+      <c r="G795" t="n">
+        <v>-1.876</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="s">
+        <v>801</v>
+      </c>
+      <c r="B796" t="n">
+        <v>0.1394</v>
+      </c>
+      <c r="C796" t="n">
+        <v>-0.2036</v>
+      </c>
+      <c r="D796" t="n">
+        <v>0.2031</v>
+      </c>
+      <c r="E796" t="n">
+        <v>0.2953</v>
+      </c>
+      <c r="F796" t="n">
+        <v>-1.8444</v>
+      </c>
+      <c r="G796" t="n">
+        <v>0.7066</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="s">
+        <v>802</v>
+      </c>
+      <c r="B797" t="n">
+        <v>0.9743</v>
+      </c>
+      <c r="C797" t="n">
+        <v>-0.0408</v>
+      </c>
+      <c r="D797" t="n">
+        <v>0.1216</v>
+      </c>
+      <c r="E797" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="F797" t="n">
+        <v>2.6134</v>
+      </c>
+      <c r="G797" t="n">
+        <v>2.5588</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="s">
+        <v>803</v>
+      </c>
+      <c r="B798" t="n">
+        <v>1.5851</v>
+      </c>
+      <c r="C798" t="n">
+        <v>-0.1224</v>
+      </c>
+      <c r="D798" t="n">
+        <v>-0.7692</v>
+      </c>
+      <c r="E798" t="n">
+        <v>2.0163</v>
+      </c>
+      <c r="F798" t="n">
+        <v>2.631</v>
+      </c>
+      <c r="G798" t="n">
+        <v>1.0463</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s">
+        <v>804</v>
+      </c>
+      <c r="B799" t="n">
+        <v>-2.3745</v>
+      </c>
+      <c r="C799" t="n">
+        <v>0.0831</v>
+      </c>
+      <c r="D799" t="n">
+        <v>-1.5912</v>
+      </c>
+      <c r="E799" t="n">
+        <v>-2.6824</v>
+      </c>
+      <c r="F799" t="n">
+        <v>-2.297</v>
+      </c>
+      <c r="G799" t="n">
+        <v>-2.8674</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s">
+        <v>805</v>
+      </c>
+      <c r="B800" t="n">
+        <v>1.1119</v>
+      </c>
+      <c r="C800" t="n">
+        <v>1.702</v>
+      </c>
+      <c r="D800" t="n">
+        <v>0.2488</v>
+      </c>
+      <c r="E800" t="n">
+        <v>-0.8704</v>
+      </c>
+      <c r="F800" t="n">
+        <v>1.1264</v>
+      </c>
+      <c r="G800" t="n">
+        <v>-1.599</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s">
+        <v>806</v>
+      </c>
+      <c r="B801" t="n">
+        <v>0.4124</v>
+      </c>
+      <c r="C801" t="n">
+        <v>-1.2653</v>
+      </c>
+      <c r="D801" t="n">
+        <v>-1.1166</v>
+      </c>
+      <c r="E801" t="n">
+        <v>0.3415</v>
+      </c>
+      <c r="F801" t="n">
+        <v>-1.1659</v>
+      </c>
+      <c r="G801" t="n">
+        <v>-1.6667</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s">
+        <v>807</v>
+      </c>
+      <c r="B802" t="n">
+        <v>0.2053</v>
+      </c>
+      <c r="C802" t="n">
+        <v>-0.7854</v>
+      </c>
+      <c r="D802" t="n">
+        <v>-0.2509</v>
+      </c>
+      <c r="E802" t="n">
+        <v>1.8474</v>
+      </c>
+      <c r="F802" t="n">
+        <v>1.0533</v>
+      </c>
+      <c r="G802" t="n">
+        <v>-1.6949</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s">
+        <v>808</v>
+      </c>
+      <c r="B803" t="n">
+        <v>-0.6831</v>
+      </c>
+      <c r="C803" t="n">
+        <v>-1.4583</v>
+      </c>
+      <c r="D803" t="n">
+        <v>-1.0901</v>
+      </c>
+      <c r="E803" t="n">
+        <v>-1.7661</v>
+      </c>
+      <c r="F803" t="n">
+        <v>2.5224</v>
+      </c>
+      <c r="G803" t="n">
+        <v>-1.8535</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="s">
+        <v>809</v>
+      </c>
+      <c r="B804" t="n">
+        <v>0.2751</v>
+      </c>
+      <c r="C804" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="D804" t="n">
+        <v>-0.0848</v>
+      </c>
+      <c r="E804" t="n">
+        <v>-1.8465</v>
+      </c>
+      <c r="F804" t="n">
+        <v>-0.7523</v>
+      </c>
+      <c r="G804" t="n">
+        <v>0.1318</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="s">
+        <v>810</v>
+      </c>
+      <c r="B805" t="n">
+        <v>-0.3429</v>
+      </c>
+      <c r="C805" t="n">
+        <v>-1.6345</v>
+      </c>
+      <c r="D805" t="n">
+        <v>-1.4976</v>
+      </c>
+      <c r="E805" t="n">
+        <v>-0.0495</v>
+      </c>
+      <c r="F805" t="n">
+        <v>0.7171</v>
+      </c>
+      <c r="G805" t="n">
+        <v>-2.2368</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="s">
+        <v>811</v>
+      </c>
+      <c r="B806" t="n">
+        <v>0.8259</v>
+      </c>
+      <c r="C806" t="n">
+        <v>2.3008</v>
+      </c>
+      <c r="D806" t="n">
+        <v>3.3015</v>
+      </c>
+      <c r="E806" t="n">
+        <v>1.2878</v>
+      </c>
+      <c r="F806" t="n">
+        <v>3.2547</v>
+      </c>
+      <c r="G806" t="n">
+        <v>4.0377</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="s">
+        <v>812</v>
+      </c>
+      <c r="B807" t="n">
+        <v>1.7065</v>
+      </c>
+      <c r="C807" t="n">
+        <v>-1.0829</v>
+      </c>
+      <c r="D807" t="n">
+        <v>0.2103</v>
+      </c>
+      <c r="E807" t="n">
+        <v>-0.8313</v>
+      </c>
+      <c r="F807" t="n">
+        <v>0.5516</v>
+      </c>
+      <c r="G807" t="n">
+        <v>1.1212</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s">
+        <v>813</v>
+      </c>
+      <c r="B808" t="n">
+        <v>0.5369</v>
+      </c>
+      <c r="C808" t="n">
+        <v>1.4737</v>
+      </c>
+      <c r="D808" t="n">
+        <v>2.2241</v>
+      </c>
+      <c r="E808" t="n">
+        <v>-0.4438</v>
+      </c>
+      <c r="F808" t="n">
+        <v>-3.2132</v>
+      </c>
+      <c r="G808" t="n">
+        <v>1.7058</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s">
+        <v>814</v>
+      </c>
+      <c r="B809" t="n">
+        <v>-0.1335</v>
+      </c>
+      <c r="C809" t="n">
+        <v>-1.4938</v>
+      </c>
+      <c r="D809" t="n">
+        <v>-0.2053</v>
+      </c>
+      <c r="E809" t="n">
+        <v>3.368</v>
+      </c>
+      <c r="F809" t="n">
+        <v>1.0931</v>
+      </c>
+      <c r="G809" t="n">
+        <v>-0.8386</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="s">
+        <v>815</v>
+      </c>
+      <c r="B810" t="n">
+        <v>0.1671</v>
+      </c>
+      <c r="C810" t="n">
+        <v>2.2746</v>
+      </c>
+      <c r="D810" t="n">
+        <v>-2.1802</v>
+      </c>
+      <c r="E810" t="n">
+        <v>-0.1437</v>
+      </c>
+      <c r="F810" t="n">
+        <v>2.9235</v>
+      </c>
+      <c r="G810" t="n">
+        <v>4.3129</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="s">
+        <v>816</v>
+      </c>
+      <c r="B811" t="n">
+        <v>0.0667</v>
+      </c>
+      <c r="C811" t="n">
+        <v>2.5124</v>
+      </c>
+      <c r="D811" t="n">
+        <v>1.0092</v>
+      </c>
+      <c r="E811" t="n">
+        <v>-1.0557</v>
+      </c>
+      <c r="F811" t="n">
+        <v>-1.4397</v>
+      </c>
+      <c r="G811" t="n">
+        <v>1.8241</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="s">
+        <v>817</v>
+      </c>
+      <c r="B812" t="n">
+        <v>1.2004</v>
+      </c>
+      <c r="C812" t="n">
+        <v>-2.5311</v>
+      </c>
+      <c r="D812" t="n">
+        <v>0.5412</v>
+      </c>
+      <c r="E812" t="n">
+        <v>2.0854</v>
+      </c>
+      <c r="F812" t="n">
+        <v>2.2108</v>
+      </c>
+      <c r="G812" t="n">
+        <v>-2.0701</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="s">
+        <v>818</v>
+      </c>
+      <c r="B813" t="n">
+        <v>-0.2306</v>
+      </c>
+      <c r="C813" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="D813" t="n">
+        <v>-0.2899</v>
+      </c>
+      <c r="E813" t="n">
+        <v>1.1876</v>
+      </c>
+      <c r="F813" t="n">
+        <v>1.4291</v>
+      </c>
+      <c r="G813" t="n">
+        <v>-0.2846</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="s">
+        <v>819</v>
+      </c>
+      <c r="B814" t="n">
+        <v>-0.7596</v>
+      </c>
+      <c r="C814" t="n">
+        <v>0.7365</v>
+      </c>
+      <c r="D814" t="n">
+        <v>-2.0349</v>
+      </c>
+      <c r="E814" t="n">
+        <v>-1.3146</v>
+      </c>
+      <c r="F814" t="n">
+        <v>-1.7898</v>
+      </c>
+      <c r="G814" t="n">
+        <v>-1.0599</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="s">
+        <v>820</v>
+      </c>
+      <c r="B815" t="n">
+        <v>-0.7987</v>
+      </c>
+      <c r="C815" t="n">
+        <v>-0.853</v>
+      </c>
+      <c r="D815" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="E815" t="n">
+        <v>2.1884</v>
+      </c>
+      <c r="F815" t="n">
+        <v>3.1408</v>
+      </c>
+      <c r="G815" t="n">
+        <v>0.4532</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="s">
+        <v>821</v>
+      </c>
+      <c r="B816" t="n">
+        <v>-0.4361</v>
+      </c>
+      <c r="C816" t="n">
+        <v>-0.6145</v>
+      </c>
+      <c r="D816" t="n">
+        <v>-3.8046</v>
+      </c>
+      <c r="E816" t="n">
+        <v>0.3724</v>
+      </c>
+      <c r="F816" t="n">
+        <v>1.2782</v>
+      </c>
+      <c r="G816" t="n">
+        <v>0.3281</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="s">
+        <v>822</v>
+      </c>
+      <c r="B817" t="n">
+        <v>-0.7749</v>
+      </c>
+      <c r="C817" t="n">
+        <v>-0.4946</v>
+      </c>
+      <c r="D817" t="n">
+        <v>0.2697</v>
+      </c>
+      <c r="E817" t="n">
+        <v>0.3247</v>
+      </c>
+      <c r="F817" t="n">
+        <v>0.7424</v>
+      </c>
+      <c r="G817" t="n">
+        <v>0.8585</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="s">
+        <v>823</v>
+      </c>
+      <c r="B818" t="n">
+        <v>1.9694</v>
+      </c>
+      <c r="C818" t="n">
+        <v>2.3198</v>
+      </c>
+      <c r="D818" t="n">
+        <v>1.3447</v>
+      </c>
+      <c r="E818" t="n">
+        <v>0.8322</v>
+      </c>
+      <c r="F818" t="n">
+        <v>0.4422</v>
+      </c>
+      <c r="G818" t="n">
+        <v>-0.6891</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="s">
+        <v>824</v>
+      </c>
+      <c r="B819" t="n">
+        <v>-0.5567</v>
+      </c>
+      <c r="C819" t="n">
+        <v>-2.3887</v>
+      </c>
+      <c r="D819" t="n">
+        <v>-0.6634</v>
+      </c>
+      <c r="E819" t="n">
+        <v>1.0546</v>
+      </c>
+      <c r="F819" t="n">
+        <v>-1.8709</v>
+      </c>
+      <c r="G819" t="n">
+        <v>-0.0408</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="s">
+        <v>825</v>
+      </c>
+      <c r="B820" t="n">
+        <v>-1.7201</v>
+      </c>
+      <c r="C820" t="n">
+        <v>-7.5487</v>
+      </c>
+      <c r="D820" t="n">
+        <v>-3.5619</v>
+      </c>
+      <c r="E820" t="n">
+        <v>0.0907</v>
+      </c>
+      <c r="F820" t="n">
+        <v>-0.6729</v>
+      </c>
+      <c r="G820" t="n">
+        <v>-1.1842</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="s">
+        <v>826</v>
+      </c>
+      <c r="B821" t="n">
+        <v>0.5491</v>
+      </c>
+      <c r="C821" t="n">
+        <v>2.961</v>
+      </c>
+      <c r="D821" t="n">
+        <v>-0.277</v>
+      </c>
+      <c r="E821" t="n">
+        <v>2.0852</v>
+      </c>
+      <c r="F821" t="n">
+        <v>1.8065</v>
+      </c>
+      <c r="G821" t="n">
+        <v>0.0826</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="s">
+        <v>827</v>
+      </c>
+      <c r="B822" t="n">
+        <v>-0.0341</v>
+      </c>
+      <c r="C822" t="n">
+        <v>0.0436</v>
+      </c>
+      <c r="D822" t="n">
+        <v>3.5648</v>
+      </c>
+      <c r="E822" t="n">
+        <v>1.7318</v>
+      </c>
+      <c r="F822" t="n">
+        <v>2.5508</v>
+      </c>
+      <c r="G822" t="n">
+        <v>1.7341</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="s">
+        <v>828</v>
+      </c>
+      <c r="B823" t="n">
+        <v>-0.9901</v>
+      </c>
+      <c r="C823" t="n">
+        <v>1.176</v>
+      </c>
+      <c r="D823" t="n">
+        <v>2.3692</v>
+      </c>
+      <c r="E823" t="n">
+        <v>-1.746</v>
+      </c>
+      <c r="F823" t="n">
+        <v>0.8652</v>
+      </c>
+      <c r="G823" t="n">
+        <v>-1.1364</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="s">
+        <v>829</v>
+      </c>
+      <c r="B824" t="n">
+        <v>-0.2069</v>
+      </c>
+      <c r="C824" t="n">
+        <v>2.3246</v>
+      </c>
+      <c r="D824" t="n">
+        <v>3.9301</v>
+      </c>
+      <c r="E824" t="n">
+        <v>0.8885</v>
+      </c>
+      <c r="F824" t="n">
+        <v>0.7148</v>
+      </c>
+      <c r="G824" t="n">
+        <v>0.1642</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="s">
+        <v>830</v>
+      </c>
+      <c r="B825" t="n">
+        <v>-1.8314</v>
+      </c>
+      <c r="C825" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D825" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="E825" t="n">
+        <v>-0.0881</v>
+      </c>
+      <c r="F825" t="n">
+        <v>0.5678</v>
+      </c>
+      <c r="G825" t="n">
+        <v>-2.2541</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="s">
+        <v>831</v>
+      </c>
+      <c r="B826" t="n">
+        <v>1.408</v>
+      </c>
+      <c r="C826" t="n">
+        <v>-2.6018</v>
+      </c>
+      <c r="D826" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="E826" t="n">
+        <v>0.2204</v>
+      </c>
+      <c r="F826" t="n">
+        <v>-1.5173</v>
+      </c>
+      <c r="G826" t="n">
+        <v>0.5451</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="s">
+        <v>832</v>
+      </c>
+      <c r="B827" t="n">
+        <v>-1.7355</v>
+      </c>
+      <c r="C827" t="n">
+        <v>1.7234</v>
+      </c>
+      <c r="D827" t="n">
+        <v>1.289</v>
+      </c>
+      <c r="E827" t="n">
+        <v>-0.1759</v>
+      </c>
+      <c r="F827" t="n">
+        <v>0.0358</v>
+      </c>
+      <c r="G827" t="n">
+        <v>-2.0434</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="s">
+        <v>833</v>
+      </c>
+      <c r="B828" t="n">
+        <v>0.7771</v>
+      </c>
+      <c r="C828" t="n">
+        <v>-0.4659</v>
+      </c>
+      <c r="D828" t="n">
+        <v>0.4105</v>
+      </c>
+      <c r="E828" t="n">
+        <v>-0.6167</v>
+      </c>
+      <c r="F828" t="n">
+        <v>1.3968</v>
+      </c>
+      <c r="G828" t="n">
+        <v>1.1494</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="s">
+        <v>834</v>
+      </c>
+      <c r="B829" t="n">
+        <v>-0.2103</v>
+      </c>
+      <c r="C829" t="n">
+        <v>-1.4894</v>
+      </c>
+      <c r="D829" t="n">
+        <v>-3.2298</v>
+      </c>
+      <c r="E829" t="n">
+        <v>-1.3741</v>
+      </c>
+      <c r="F829" t="n">
+        <v>-4.3801</v>
+      </c>
+      <c r="G829" t="n">
+        <v>-0.968</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="s">
+        <v>835</v>
+      </c>
+      <c r="B830" t="n">
+        <v>0.2107</v>
+      </c>
+      <c r="C830" t="n">
+        <v>1.0367</v>
+      </c>
+      <c r="D830" t="n">
+        <v>7.3511</v>
+      </c>
+      <c r="E830" t="n">
+        <v>-0.0899</v>
+      </c>
+      <c r="F830" t="n">
+        <v>0.3325</v>
+      </c>
+      <c r="G830" t="n">
+        <v>9.3073</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="s">
+        <v>836</v>
+      </c>
+      <c r="B831" t="n">
+        <v>0.1402</v>
+      </c>
+      <c r="C831" t="n">
+        <v>1.4109</v>
+      </c>
+      <c r="D831" t="n">
+        <v>4.7226</v>
+      </c>
+      <c r="E831" t="n">
+        <v>2.0693</v>
+      </c>
+      <c r="F831" t="n">
+        <v>-6.8851</v>
+      </c>
+      <c r="G831" t="n">
+        <v>6.7652</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="s">
+        <v>837</v>
+      </c>
+      <c r="B832" t="n">
+        <v>2.3801</v>
+      </c>
+      <c r="C832" t="n">
+        <v>1.5177</v>
+      </c>
+      <c r="D832" t="n">
+        <v>-0.6764</v>
+      </c>
+      <c r="E832" t="n">
+        <v>1.1459</v>
+      </c>
+      <c r="F832" t="n">
+        <v>2.8074</v>
+      </c>
+      <c r="G832" t="n">
+        <v>1.4931</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="s">
+        <v>838</v>
+      </c>
+      <c r="B833" t="n">
+        <v>-1.2991</v>
+      </c>
+      <c r="C833" t="n">
+        <v>-0.9136</v>
+      </c>
+      <c r="D833" t="n">
+        <v>5.1078</v>
+      </c>
+      <c r="E833" t="n">
+        <v>-0.2614</v>
+      </c>
+      <c r="F833" t="n">
+        <v>-3.0769</v>
+      </c>
+      <c r="G833" t="n">
+        <v>-0.7535</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="s">
+        <v>839</v>
+      </c>
+      <c r="B834" t="n">
+        <v>-1.5934</v>
+      </c>
+      <c r="C834" t="n">
+        <v>-2.4728</v>
+      </c>
+      <c r="D834" t="n">
+        <v>-4.6436</v>
+      </c>
+      <c r="E834" t="n">
+        <v>-2.6212</v>
+      </c>
+      <c r="F834" t="n">
+        <v>-3.3929</v>
+      </c>
+      <c r="G834" t="n">
+        <v>-3.1453</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="s">
+        <v>840</v>
+      </c>
+      <c r="B835" t="n">
+        <v>1.3728</v>
+      </c>
+      <c r="C835" t="n">
+        <v>-0.0859</v>
+      </c>
+      <c r="D835" t="n">
+        <v>1.2835</v>
+      </c>
+      <c r="E835" t="n">
+        <v>0.0897</v>
+      </c>
+      <c r="F835" t="n">
+        <v>-2.4235</v>
+      </c>
+      <c r="G835" t="n">
+        <v>0.5226</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="s">
+        <v>841</v>
+      </c>
+      <c r="B836" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="C836" t="n">
+        <v>-0.5591</v>
+      </c>
+      <c r="D836" t="n">
+        <v>-3.839</v>
+      </c>
+      <c r="E836" t="n">
+        <v>5.6029</v>
+      </c>
+      <c r="F836" t="n">
+        <v>3.1572</v>
+      </c>
+      <c r="G836" t="n">
+        <v>-2.785</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="s">
+        <v>842</v>
+      </c>
+      <c r="B837" t="n">
+        <v>-0.3067</v>
+      </c>
+      <c r="C837" t="n">
+        <v>1.6436</v>
+      </c>
+      <c r="D837" t="n">
+        <v>-0.0775</v>
+      </c>
+      <c r="E837" t="n">
+        <v>-1.528</v>
+      </c>
+      <c r="F837" t="n">
+        <v>1.3875</v>
+      </c>
+      <c r="G837" t="n">
+        <v>0.3056</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="s">
+        <v>843</v>
+      </c>
+      <c r="B838" t="n">
+        <v>-0.9231</v>
+      </c>
+      <c r="C838" t="n">
+        <v>-1.7447</v>
+      </c>
+      <c r="D838" t="n">
+        <v>-3.7238</v>
+      </c>
+      <c r="E838" t="n">
+        <v>-1.0776</v>
+      </c>
+      <c r="F838" t="n">
+        <v>-1.1069</v>
+      </c>
+      <c r="G838" t="n">
+        <v>-2.3991</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="s">
+        <v>844</v>
+      </c>
+      <c r="B839" t="n">
+        <v>1.9669</v>
+      </c>
+      <c r="C839" t="n">
+        <v>1.0394</v>
+      </c>
+      <c r="D839" t="n">
+        <v>0.6044</v>
+      </c>
+      <c r="E839" t="n">
+        <v>2.4401</v>
+      </c>
+      <c r="F839" t="n">
+        <v>2.4827</v>
+      </c>
+      <c r="G839" t="n">
+        <v>0.2731</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="s">
+        <v>845</v>
+      </c>
+      <c r="B840" t="n">
+        <v>-0.3046</v>
+      </c>
+      <c r="C840" t="n">
+        <v>2.0146</v>
+      </c>
+      <c r="D840" t="n">
+        <v>1.0813</v>
+      </c>
+      <c r="E840" t="n">
+        <v>1.6163</v>
+      </c>
+      <c r="F840" t="n">
+        <v>2.2637</v>
+      </c>
+      <c r="G840" t="n">
+        <v>0.5058</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="s">
+        <v>846</v>
+      </c>
+      <c r="B841" t="n">
+        <v>0.1697</v>
+      </c>
+      <c r="C841" t="n">
+        <v>-0.5882</v>
+      </c>
+      <c r="D841" t="n">
+        <v>1.0301</v>
+      </c>
+      <c r="E841" t="n">
+        <v>1.8418</v>
+      </c>
+      <c r="F841" t="n">
+        <v>-0.0388</v>
+      </c>
+      <c r="G841" t="n">
+        <v>-1.0453</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="s">
+        <v>847</v>
+      </c>
+      <c r="B842" t="n">
+        <v>-0.5422</v>
+      </c>
+      <c r="C842" t="n">
+        <v>-2.3669</v>
+      </c>
+      <c r="D842" t="n">
+        <v>-0.0784</v>
+      </c>
+      <c r="E842" t="n">
+        <v>-0.0822</v>
+      </c>
+      <c r="F842" t="n">
+        <v>1.0101</v>
+      </c>
+      <c r="G842" t="n">
+        <v>-1.4476</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="s">
+        <v>848</v>
+      </c>
+      <c r="B843" t="n">
+        <v>-1.2266</v>
+      </c>
+      <c r="C843" t="n">
+        <v>-0.4762</v>
+      </c>
+      <c r="D843" t="n">
+        <v>0.9419</v>
+      </c>
+      <c r="E843" t="n">
+        <v>-0.2879</v>
+      </c>
+      <c r="F843" t="n">
+        <v>-1.5385</v>
+      </c>
+      <c r="G843" t="n">
+        <v>0.1588</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="s">
+        <v>849</v>
+      </c>
+      <c r="B844" t="n">
+        <v>0</v>
+      </c>
+      <c r="C844" t="n">
+        <v>0</v>
+      </c>
+      <c r="D844" t="n">
+        <v>-1.6719</v>
+      </c>
+      <c r="E844" t="n">
+        <v>2.929</v>
+      </c>
+      <c r="F844" t="n">
+        <v>1.3672</v>
+      </c>
+      <c r="G844" t="n">
+        <v>3.0123</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="s">
+        <v>850</v>
+      </c>
+      <c r="B845" t="n">
+        <v>-1.1383</v>
+      </c>
+      <c r="C845" t="n">
+        <v>-1.6964</v>
+      </c>
+      <c r="D845" t="n">
+        <v>-0.2768</v>
+      </c>
+      <c r="E845" t="n">
+        <v>-1.2826</v>
+      </c>
+      <c r="F845" t="n">
+        <v>-0.3854</v>
+      </c>
+      <c r="G845" t="n">
+        <v>0.3848</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="s">
+        <v>851</v>
+      </c>
+      <c r="B846" t="n">
+        <v>0.7327</v>
+      </c>
+      <c r="C846" t="n">
+        <v>1.1062</v>
+      </c>
+      <c r="D846" t="n">
+        <v>6.5821</v>
+      </c>
+      <c r="E846" t="n">
+        <v>-0.5684</v>
+      </c>
+      <c r="F846" t="n">
+        <v>0.5803</v>
+      </c>
+      <c r="G846" t="n">
+        <v>3.4879</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="s">
+        <v>852</v>
+      </c>
+      <c r="B847" t="n">
+        <v>0.4849</v>
+      </c>
+      <c r="C847" t="n">
+        <v>0.5252</v>
+      </c>
+      <c r="D847" t="n">
+        <v>-0.372</v>
+      </c>
+      <c r="E847" t="n">
+        <v>-0.245</v>
+      </c>
+      <c r="F847" t="n">
+        <v>-2.5385</v>
+      </c>
+      <c r="G847" t="n">
+        <v>0.1111</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="s">
+        <v>853</v>
+      </c>
+      <c r="B848" t="n">
+        <v>-0.2068</v>
+      </c>
+      <c r="C848" t="n">
+        <v>-0.0871</v>
+      </c>
+      <c r="D848" t="n">
+        <v>1.1202</v>
+      </c>
+      <c r="E848" t="n">
+        <v>1.3508</v>
+      </c>
+      <c r="F848" t="n">
+        <v>-1.2628</v>
+      </c>
+      <c r="G848" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="s">
+        <v>854</v>
+      </c>
+      <c r="B849" t="n">
+        <v>1.209</v>
+      </c>
+      <c r="C849" t="n">
+        <v>-0.7843</v>
+      </c>
+      <c r="D849" t="n">
+        <v>1.551</v>
+      </c>
+      <c r="E849" t="n">
+        <v>0.3635</v>
+      </c>
+      <c r="F849" t="n">
+        <v>1.0791</v>
+      </c>
+      <c r="G849" t="n">
+        <v>-1.0689</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="s">
+        <v>855</v>
+      </c>
+      <c r="B850" t="n">
+        <v>-0.273</v>
+      </c>
+      <c r="C850" t="n">
+        <v>0.6148</v>
+      </c>
+      <c r="D850" t="n">
+        <v>-0.2909</v>
+      </c>
+      <c r="E850" t="n">
+        <v>0.9658</v>
+      </c>
+      <c r="F850" t="n">
+        <v>0.2768</v>
+      </c>
+      <c r="G850" t="n">
+        <v>1.3413</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="s">
+        <v>856</v>
+      </c>
+      <c r="B851" t="n">
+        <v>-0.6845</v>
+      </c>
+      <c r="C851" t="n">
+        <v>-0.1309</v>
+      </c>
+      <c r="D851" t="n">
+        <v>0.7294</v>
+      </c>
+      <c r="E851" t="n">
+        <v>1.9131</v>
+      </c>
+      <c r="F851" t="n">
+        <v>1.9716</v>
+      </c>
+      <c r="G851" t="n">
+        <v>-0.4044</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="s">
+        <v>857</v>
+      </c>
+      <c r="B852" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="C852" t="n">
+        <v>-0.9178</v>
+      </c>
+      <c r="D852" t="n">
+        <v>-2.281</v>
+      </c>
+      <c r="E852" t="n">
+        <v>1.9554</v>
+      </c>
+      <c r="F852" t="n">
+        <v>2.4362</v>
+      </c>
+      <c r="G852" t="n">
+        <v>2.1041</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="s">
+        <v>858</v>
+      </c>
+      <c r="B853" t="n">
+        <v>-0.8956</v>
+      </c>
+      <c r="C853" t="n">
+        <v>1.191</v>
+      </c>
+      <c r="D853" t="n">
+        <v>-1.3709</v>
+      </c>
+      <c r="E853" t="n">
+        <v>0.8439</v>
+      </c>
+      <c r="F853" t="n">
+        <v>-1.7742</v>
+      </c>
+      <c r="G853" t="n">
+        <v>-0.7954</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="s">
+        <v>859</v>
+      </c>
+      <c r="B854" t="n">
+        <v>4.4838</v>
+      </c>
+      <c r="C854" t="n">
+        <v>0</v>
+      </c>
+      <c r="D854" t="n">
+        <v>-1.6529</v>
+      </c>
+      <c r="E854" t="n">
+        <v>0.7607</v>
+      </c>
+      <c r="F854" t="n">
+        <v>-0.8455</v>
+      </c>
+      <c r="G854" t="n">
+        <v>-0.0729</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="s">
+        <v>860</v>
+      </c>
+      <c r="B855" t="n">
+        <v>1.1311</v>
+      </c>
+      <c r="C855" t="n">
+        <v>0.6539</v>
+      </c>
+      <c r="D855" t="n">
+        <v>-0.2674</v>
+      </c>
+      <c r="E855" t="n">
+        <v>2.0385</v>
+      </c>
+      <c r="F855" t="n">
+        <v>1.0078</v>
+      </c>
+      <c r="G855" t="n">
+        <v>1.0576</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="s">
+        <v>861</v>
+      </c>
+      <c r="B856" t="n">
+        <v>0.7566</v>
+      </c>
+      <c r="C856" t="n">
+        <v>-0.3032</v>
+      </c>
+      <c r="D856" t="n">
+        <v>-0.3064</v>
+      </c>
+      <c r="E856" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="F856" t="n">
+        <v>2.571</v>
+      </c>
+      <c r="G856" t="n">
+        <v>-1.4796</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="s">
+        <v>862</v>
+      </c>
+      <c r="B857" t="n">
+        <v>-0.1959</v>
+      </c>
+      <c r="C857" t="n">
+        <v>-0.9557</v>
+      </c>
+      <c r="D857" t="n">
+        <v>-1.4214</v>
+      </c>
+      <c r="E857" t="n">
+        <v>0.4065</v>
+      </c>
+      <c r="F857" t="n">
+        <v>-0.0374</v>
+      </c>
+      <c r="G857" t="n">
+        <v>-1.0989</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="s">
+        <v>863</v>
+      </c>
+      <c r="B858" t="n">
+        <v>0.9486</v>
+      </c>
+      <c r="C858" t="n">
+        <v>-0.3509</v>
+      </c>
+      <c r="D858" t="n">
+        <v>-1.364</v>
+      </c>
+      <c r="E858" t="n">
+        <v>0.3681</v>
+      </c>
+      <c r="F858" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="G858" t="n">
+        <v>-1.8519</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="s">
+        <v>864</v>
+      </c>
+      <c r="B859" t="n">
+        <v>0.1296</v>
+      </c>
+      <c r="C859" t="n">
+        <v>-2.3327</v>
+      </c>
+      <c r="D859" t="n">
+        <v>-3.5954</v>
+      </c>
+      <c r="E859" t="n">
+        <v>-0.1834</v>
+      </c>
+      <c r="F859" t="n">
+        <v>0.7784</v>
+      </c>
+      <c r="G859" t="n">
+        <v>-2.6415</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="s">
+        <v>865</v>
+      </c>
+      <c r="B860" t="n">
+        <v>0.3236</v>
+      </c>
+      <c r="C860" t="n">
+        <v>1.0816</v>
+      </c>
+      <c r="D860" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="E860" t="n">
+        <v>-1.1021</v>
+      </c>
+      <c r="F860" t="n">
+        <v>-1.4343</v>
+      </c>
+      <c r="G860" t="n">
+        <v>0.1938</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="s">
+        <v>866</v>
+      </c>
+      <c r="B861" t="n">
+        <v>-0.129</v>
+      </c>
+      <c r="C861" t="n">
+        <v>-0.6687</v>
+      </c>
+      <c r="D861" t="n">
+        <v>0.1633</v>
+      </c>
+      <c r="E861" t="n">
+        <v>0.2229</v>
+      </c>
+      <c r="F861" t="n">
+        <v>2.7612</v>
+      </c>
+      <c r="G861" t="n">
+        <v>1.9729</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="s">
+        <v>867</v>
+      </c>
+      <c r="B862" t="n">
+        <v>0.1292</v>
+      </c>
+      <c r="C862" t="n">
+        <v>-0.1347</v>
+      </c>
+      <c r="D862" t="n">
+        <v>0.2445</v>
+      </c>
+      <c r="E862" t="n">
+        <v>-3.0764</v>
+      </c>
+      <c r="F862" t="n">
+        <v>-2.1786</v>
+      </c>
+      <c r="G862" t="n">
+        <v>1.783</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="s">
+        <v>868</v>
+      </c>
+      <c r="B863" t="n">
+        <v>1.2903</v>
+      </c>
+      <c r="C863" t="n">
+        <v>0.5843</v>
+      </c>
+      <c r="D863" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="E863" t="n">
+        <v>0.1912</v>
+      </c>
+      <c r="F863" t="n">
+        <v>1.4477</v>
+      </c>
+      <c r="G863" t="n">
+        <v>1.4909</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="s">
+        <v>869</v>
+      </c>
+      <c r="B864" t="n">
+        <v>-0.0955</v>
+      </c>
+      <c r="C864" t="n">
+        <v>1.2511</v>
+      </c>
+      <c r="D864" t="n">
+        <v>1.7458</v>
+      </c>
+      <c r="E864" t="n">
+        <v>-0.3817</v>
+      </c>
+      <c r="F864" t="n">
+        <v>-0.1829</v>
+      </c>
+      <c r="G864" t="n">
+        <v>4.1131</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="s">
+        <v>870</v>
+      </c>
+      <c r="B865" t="n">
+        <v>0.7332</v>
+      </c>
+      <c r="C865" t="n">
+        <v>-1.3239</v>
+      </c>
+      <c r="D865" t="n">
+        <v>-1.4366</v>
+      </c>
+      <c r="E865" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="F865" t="n">
+        <v>1.9428</v>
+      </c>
+      <c r="G865" t="n">
+        <v>-0.8113</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="s">
+        <v>871</v>
+      </c>
+      <c r="B866" t="n">
+        <v>-2.5316</v>
+      </c>
+      <c r="C866" t="n">
+        <v>-1.0286</v>
+      </c>
+      <c r="D866" t="n">
+        <v>2.3482</v>
+      </c>
+      <c r="E866" t="n">
+        <v>-0.7651</v>
+      </c>
+      <c r="F866" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="G866" t="n">
+        <v>2.7027</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="s">
+        <v>872</v>
+      </c>
+      <c r="B867" t="n">
+        <v>-0.0325</v>
+      </c>
+      <c r="C867" t="n">
+        <v>-0.2711</v>
+      </c>
+      <c r="D867" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E867" t="n">
+        <v>-1.0794</v>
+      </c>
+      <c r="F867" t="n">
+        <v>-1.6164</v>
+      </c>
+      <c r="G867" t="n">
+        <v>1.9391</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="s">
+        <v>873</v>
+      </c>
+      <c r="B868" t="n">
+        <v>0.5197</v>
+      </c>
+      <c r="C868" t="n">
+        <v>2.2202</v>
+      </c>
+      <c r="D868" t="n">
+        <v>-0.3836</v>
+      </c>
+      <c r="E868" t="n">
+        <v>0.6235</v>
+      </c>
+      <c r="F868" t="n">
+        <v>1.5699</v>
+      </c>
+      <c r="G868" t="n">
+        <v>6.5557</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="s">
+        <v>874</v>
+      </c>
+      <c r="B869" t="n">
+        <v>0.8078</v>
+      </c>
+      <c r="C869" t="n">
+        <v>-0.5762</v>
+      </c>
+      <c r="D869" t="n">
+        <v>0.1155</v>
+      </c>
+      <c r="E869" t="n">
+        <v>0.8133</v>
+      </c>
+      <c r="F869" t="n">
+        <v>0.8627</v>
+      </c>
+      <c r="G869" t="n">
+        <v>1.0838</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/DK aktiekurser.xlsx
+++ b/FILER/DK aktiekurser.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -2642,7 +2642,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -2961,15 +2961,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true">
       <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/FILER/DK aktiekurser.xlsx
+++ b/FILER/DK aktiekurser.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -2642,7 +2642,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -2961,15 +2961,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1">
       <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/FILER/DK aktiekurser.xlsx
+++ b/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="897">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -2637,6 +2637,72 @@
   </si>
   <si>
     <t xml:space="preserve">2021-07-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-03</t>
   </si>
 </sst>
 </file>
@@ -3689,7 +3755,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3519</v>
+        <v>0.3518</v>
       </c>
       <c r="C32" t="n">
         <v>1.118</v>
@@ -3712,7 +3778,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1402</v>
+        <v>0.1403</v>
       </c>
       <c r="C33" t="n">
         <v>0.6552</v>
@@ -3850,7 +3916,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>1.0982</v>
+        <v>1.0981</v>
       </c>
       <c r="C39" t="n">
         <v>0.6478</v>
@@ -4011,7 +4077,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2781</v>
+        <v>0.2782</v>
       </c>
       <c r="C46" t="n">
         <v>-0.3705</v>
@@ -4103,7 +4169,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.3404</v>
+        <v>-0.3403</v>
       </c>
       <c r="C50" t="n">
         <v>0.2437</v>
@@ -4126,7 +4192,7 @@
         <v>56</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2733</v>
+        <v>-0.2732</v>
       </c>
       <c r="C51" t="n">
         <v>0.3647</v>
@@ -4494,7 +4560,7 @@
         <v>72</v>
       </c>
       <c r="B67" t="n">
-        <v>1.5736</v>
+        <v>1.5737</v>
       </c>
       <c r="C67" t="n">
         <v>0.2682</v>
@@ -4954,7 +5020,7 @@
         <v>92</v>
       </c>
       <c r="B87" t="n">
-        <v>1.1756</v>
+        <v>1.1757</v>
       </c>
       <c r="C87" t="n">
         <v>0.8376</v>
@@ -5092,7 +5158,7 @@
         <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4182</v>
+        <v>0.4181</v>
       </c>
       <c r="C93" t="n">
         <v>-0.0462</v>
@@ -5207,7 +5273,7 @@
         <v>103</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.0676</v>
+        <v>-0.0677</v>
       </c>
       <c r="C98" t="n">
         <v>-0.0942</v>
@@ -5253,7 +5319,7 @@
         <v>105</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3425</v>
+        <v>0.3424</v>
       </c>
       <c r="C100" t="n">
         <v>-0.0483</v>
@@ -5414,7 +5480,7 @@
         <v>112</v>
       </c>
       <c r="B107" t="n">
-        <v>1.1456</v>
+        <v>1.1455</v>
       </c>
       <c r="C107" t="n">
         <v>2.1556</v>
@@ -6886,7 +6952,7 @@
         <v>176</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.128</v>
+        <v>-0.1279</v>
       </c>
       <c r="C171" t="n">
         <v>-4.1949</v>
@@ -6909,7 +6975,7 @@
         <v>177</v>
       </c>
       <c r="B172" t="n">
-        <v>0.1922</v>
+        <v>0.1921</v>
       </c>
       <c r="C172" t="n">
         <v>-2.9378</v>
@@ -7047,7 +7113,7 @@
         <v>183</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1276</v>
+        <v>0.1275</v>
       </c>
       <c r="C178" t="n">
         <v>3.5535</v>
@@ -7162,7 +7228,7 @@
         <v>188</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.9277</v>
+        <v>-0.9276</v>
       </c>
       <c r="C183" t="n">
         <v>2.1942</v>
@@ -7783,7 +7849,7 @@
         <v>215</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.6281</v>
+        <v>-0.6282</v>
       </c>
       <c r="C210" t="n">
         <v>4.907</v>
@@ -8197,7 +8263,7 @@
         <v>233</v>
       </c>
       <c r="B228" t="n">
-        <v>0.0622</v>
+        <v>0.0623</v>
       </c>
       <c r="C228" t="n">
         <v>-0.8447</v>
@@ -8289,7 +8355,7 @@
         <v>237</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.1829</v>
+        <v>-0.183</v>
       </c>
       <c r="C232" t="n">
         <v>1.4079</v>
@@ -8312,7 +8378,7 @@
         <v>238</v>
       </c>
       <c r="B233" t="n">
-        <v>1.7104</v>
+        <v>1.7105</v>
       </c>
       <c r="C233" t="n">
         <v>-0.1126</v>
@@ -8496,7 +8562,7 @@
         <v>246</v>
       </c>
       <c r="B241" t="n">
-        <v>0.303</v>
+        <v>0.3031</v>
       </c>
       <c r="C241" t="n">
         <v>-0.6834</v>
@@ -8726,7 +8792,7 @@
         <v>256</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.1821</v>
+        <v>-0.182</v>
       </c>
       <c r="C251" t="n">
         <v>4.2446</v>
@@ -8841,7 +8907,7 @@
         <v>261</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.972</v>
+        <v>-0.9721</v>
       </c>
       <c r="C256" t="n">
         <v>1.409</v>
@@ -9255,7 +9321,7 @@
         <v>279</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.1753</v>
+        <v>-0.1754</v>
       </c>
       <c r="C274" t="n">
         <v>-0.5138</v>
@@ -9577,7 +9643,7 @@
         <v>293</v>
       </c>
       <c r="B288" t="n">
-        <v>1.123</v>
+        <v>1.1229</v>
       </c>
       <c r="C288" t="n">
         <v>-0.0797</v>
@@ -9761,7 +9827,7 @@
         <v>301</v>
       </c>
       <c r="B296" t="n">
-        <v>0.5071</v>
+        <v>0.507</v>
       </c>
       <c r="C296" t="n">
         <v>-1.0576</v>
@@ -9807,7 +9873,7 @@
         <v>303</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.3344</v>
+        <v>-0.3345</v>
       </c>
       <c r="C298" t="n">
         <v>0.5497</v>
@@ -9945,7 +10011,7 @@
         <v>309</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.3753</v>
+        <v>-0.3754</v>
       </c>
       <c r="C304" t="n">
         <v>-0.7896</v>
@@ -9968,7 +10034,7 @@
         <v>310</v>
       </c>
       <c r="B305" t="n">
-        <v>-1.1303</v>
+        <v>-1.1302</v>
       </c>
       <c r="C305" t="n">
         <v>-1.3132</v>
@@ -10451,7 +10517,7 @@
         <v>331</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.9843</v>
+        <v>-0.9842</v>
       </c>
       <c r="C326" t="n">
         <v>-0.0393</v>
@@ -10658,7 +10724,7 @@
         <v>340</v>
       </c>
       <c r="B335" t="n">
-        <v>0.2964</v>
+        <v>0.2965</v>
       </c>
       <c r="C335" t="n">
         <v>-2.0364</v>
@@ -11049,7 +11115,7 @@
         <v>357</v>
       </c>
       <c r="B352" t="n">
-        <v>1.1428</v>
+        <v>1.1429</v>
       </c>
       <c r="C352" t="n">
         <v>2.2354</v>
@@ -11877,7 +11943,7 @@
         <v>393</v>
       </c>
       <c r="B388" t="n">
-        <v>-1.1439</v>
+        <v>-1.144</v>
       </c>
       <c r="C388" t="n">
         <v>-1.8252</v>
@@ -12521,7 +12587,7 @@
         <v>421</v>
       </c>
       <c r="B416" t="n">
-        <v>0.0977</v>
+        <v>0.0976</v>
       </c>
       <c r="C416" t="n">
         <v>-0.4167</v>
@@ -12544,7 +12610,7 @@
         <v>422</v>
       </c>
       <c r="B417" t="n">
-        <v>0.8781</v>
+        <v>0.878</v>
       </c>
       <c r="C417" t="n">
         <v>5.2534</v>
@@ -12820,7 +12886,7 @@
         <v>434</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.1969</v>
+        <v>-0.1968</v>
       </c>
       <c r="C429" t="n">
         <v>-2.0408</v>
@@ -13464,7 +13530,7 @@
         <v>462</v>
       </c>
       <c r="B457" t="n">
-        <v>-0.7953</v>
+        <v>-0.7954</v>
       </c>
       <c r="C457" t="n">
         <v>0.5047</v>
@@ -14016,7 +14082,7 @@
         <v>486</v>
       </c>
       <c r="B481" t="n">
-        <v>0.7693</v>
+        <v>0.7692</v>
       </c>
       <c r="C481" t="n">
         <v>0.7036</v>
@@ -14913,7 +14979,7 @@
         <v>525</v>
       </c>
       <c r="B520" t="n">
-        <v>2.1654</v>
+        <v>2.1653</v>
       </c>
       <c r="C520" t="n">
         <v>2.8226</v>
@@ -15189,7 +15255,7 @@
         <v>537</v>
       </c>
       <c r="B532" t="n">
-        <v>0.3832</v>
+        <v>0.3831</v>
       </c>
       <c r="C532" t="n">
         <v>1.4944</v>
@@ -15603,7 +15669,7 @@
         <v>555</v>
       </c>
       <c r="B550" t="n">
-        <v>7.258</v>
+        <v>7.2581</v>
       </c>
       <c r="C550" t="n">
         <v>0.2161</v>
@@ -16017,7 +16083,7 @@
         <v>573</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.7399</v>
+        <v>-0.74</v>
       </c>
       <c r="C568" t="n">
         <v>-4.9423</v>
@@ -17811,7 +17877,7 @@
         <v>651</v>
       </c>
       <c r="B646" t="n">
-        <v>1.447</v>
+        <v>1.4469</v>
       </c>
       <c r="C646" t="n">
         <v>1.1286</v>
@@ -18961,7 +19027,7 @@
         <v>701</v>
       </c>
       <c r="B696" t="n">
-        <v>-0.9872</v>
+        <v>-0.9871</v>
       </c>
       <c r="C696" t="n">
         <v>1.7521</v>
@@ -18984,7 +19050,7 @@
         <v>702</v>
       </c>
       <c r="B697" t="n">
-        <v>-0.4486</v>
+        <v>-0.4487</v>
       </c>
       <c r="C697" t="n">
         <v>1.6789</v>
@@ -19283,7 +19349,7 @@
         <v>715</v>
       </c>
       <c r="B710" t="n">
-        <v>3.5964</v>
+        <v>3.5963</v>
       </c>
       <c r="C710" t="n">
         <v>-1.336</v>
@@ -19559,7 +19625,7 @@
         <v>727</v>
       </c>
       <c r="B722" t="n">
-        <v>-1.236</v>
+        <v>-1.2359</v>
       </c>
       <c r="C722" t="n">
         <v>1.8932</v>
@@ -19904,7 +19970,7 @@
         <v>742</v>
       </c>
       <c r="B737" t="n">
-        <v>0.8781</v>
+        <v>0.8782</v>
       </c>
       <c r="C737" t="n">
         <v>-2.761</v>
@@ -21284,7 +21350,7 @@
         <v>802</v>
       </c>
       <c r="B797" t="n">
-        <v>0.9743</v>
+        <v>0.9742</v>
       </c>
       <c r="C797" t="n">
         <v>-0.0408</v>
@@ -22917,7 +22983,7 @@
         <v>873</v>
       </c>
       <c r="B868" t="n">
-        <v>0.5197</v>
+        <v>0.5196</v>
       </c>
       <c r="C868" t="n">
         <v>2.2202</v>
@@ -22956,6 +23022,512 @@
       </c>
       <c r="G869" t="n">
         <v>1.0838</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="s">
+        <v>875</v>
+      </c>
+      <c r="B870" t="n">
+        <v>1.5705</v>
+      </c>
+      <c r="C870" t="n">
+        <v>1.7833</v>
+      </c>
+      <c r="D870" t="n">
+        <v>0.9615</v>
+      </c>
+      <c r="E870" t="n">
+        <v>-0.461</v>
+      </c>
+      <c r="F870" t="n">
+        <v>0.1425</v>
+      </c>
+      <c r="G870" t="n">
+        <v>-0.9776</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="s">
+        <v>876</v>
+      </c>
+      <c r="B871" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C871" t="n">
+        <v>-3.0661</v>
+      </c>
+      <c r="D871" t="n">
+        <v>-2.019</v>
+      </c>
+      <c r="E871" t="n">
+        <v>1.428</v>
+      </c>
+      <c r="F871" t="n">
+        <v>1.4235</v>
+      </c>
+      <c r="G871" t="n">
+        <v>1.1146</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="s">
+        <v>877</v>
+      </c>
+      <c r="B872" t="n">
+        <v>0.3462</v>
+      </c>
+      <c r="C872" t="n">
+        <v>0.5422</v>
+      </c>
+      <c r="D872" t="n">
+        <v>-0.0389</v>
+      </c>
+      <c r="E872" t="n">
+        <v>1.9026</v>
+      </c>
+      <c r="F872" t="n">
+        <v>2.8421</v>
+      </c>
+      <c r="G872" t="n">
+        <v>-0.8819</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="s">
+        <v>878</v>
+      </c>
+      <c r="B873" t="n">
+        <v>-1.2861</v>
+      </c>
+      <c r="C873" t="n">
+        <v>1.1236</v>
+      </c>
+      <c r="D873" t="n">
+        <v>-2.7227</v>
+      </c>
+      <c r="E873" t="n">
+        <v>-0.7095</v>
+      </c>
+      <c r="F873" t="n">
+        <v>-0.6141</v>
+      </c>
+      <c r="G873" t="n">
+        <v>-0.858</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="s">
+        <v>879</v>
+      </c>
+      <c r="B874" t="n">
+        <v>0.3495</v>
+      </c>
+      <c r="C874" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="D874" t="n">
+        <v>2.479</v>
+      </c>
+      <c r="E874" t="n">
+        <v>1.1282</v>
+      </c>
+      <c r="F874" t="n">
+        <v>-5.3553</v>
+      </c>
+      <c r="G874" t="n">
+        <v>-1.0897</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="s">
+        <v>880</v>
+      </c>
+      <c r="B875" t="n">
+        <v>1.2243</v>
+      </c>
+      <c r="C875" t="n">
+        <v>-0.088</v>
+      </c>
+      <c r="D875" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="E875" t="n">
+        <v>2.7148</v>
+      </c>
+      <c r="F875" t="n">
+        <v>3.0468</v>
+      </c>
+      <c r="G875" t="n">
+        <v>0.8749</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="s">
+        <v>881</v>
+      </c>
+      <c r="B876" t="n">
+        <v>-1.3543</v>
+      </c>
+      <c r="C876" t="n">
+        <v>-0.0881</v>
+      </c>
+      <c r="D876" t="n">
+        <v>-0.195</v>
+      </c>
+      <c r="E876" t="n">
+        <v>-0.5431</v>
+      </c>
+      <c r="F876" t="n">
+        <v>0.9152</v>
+      </c>
+      <c r="G876" t="n">
+        <v>-1.2207</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="s">
+        <v>882</v>
+      </c>
+      <c r="B877" t="n">
+        <v>0.3831</v>
+      </c>
+      <c r="C877" t="n">
+        <v>-0.5291</v>
+      </c>
+      <c r="D877" t="n">
+        <v>1.0942</v>
+      </c>
+      <c r="E877" t="n">
+        <v>-0.4368</v>
+      </c>
+      <c r="F877" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="G877" t="n">
+        <v>-0.4878</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="s">
+        <v>883</v>
+      </c>
+      <c r="B878" t="n">
+        <v>-0.5407</v>
+      </c>
+      <c r="C878" t="n">
+        <v>-0.3989</v>
+      </c>
+      <c r="D878" t="n">
+        <v>-2.5512</v>
+      </c>
+      <c r="E878" t="n">
+        <v>-0.3656</v>
+      </c>
+      <c r="F878" t="n">
+        <v>-1.9826</v>
+      </c>
+      <c r="G878" t="n">
+        <v>-2.6471</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="s">
+        <v>884</v>
+      </c>
+      <c r="B879" t="n">
+        <v>-0.8954</v>
+      </c>
+      <c r="C879" t="n">
+        <v>-1.2461</v>
+      </c>
+      <c r="D879" t="n">
+        <v>-1.785</v>
+      </c>
+      <c r="E879" t="n">
+        <v>0.0734</v>
+      </c>
+      <c r="F879" t="n">
+        <v>0.4613</v>
+      </c>
+      <c r="G879" t="n">
+        <v>1.712</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="s">
+        <v>885</v>
+      </c>
+      <c r="B880" t="n">
+        <v>-1.6457</v>
+      </c>
+      <c r="C880" t="n">
+        <v>-3.1996</v>
+      </c>
+      <c r="D880" t="n">
+        <v>-3.0291</v>
+      </c>
+      <c r="E880" t="n">
+        <v>-0.2567</v>
+      </c>
+      <c r="F880" t="n">
+        <v>-0.6358</v>
+      </c>
+      <c r="G880" t="n">
+        <v>-2.9703</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="s">
+        <v>886</v>
+      </c>
+      <c r="B881" t="n">
+        <v>0.2297</v>
+      </c>
+      <c r="C881" t="n">
+        <v>0.6983</v>
+      </c>
+      <c r="D881" t="n">
+        <v>0.5414</v>
+      </c>
+      <c r="E881" t="n">
+        <v>0.2574</v>
+      </c>
+      <c r="F881" t="n">
+        <v>-1.1731</v>
+      </c>
+      <c r="G881" t="n">
+        <v>-2.6871</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="s">
+        <v>887</v>
+      </c>
+      <c r="B882" t="n">
+        <v>0.5892</v>
+      </c>
+      <c r="C882" t="n">
+        <v>3.2825</v>
+      </c>
+      <c r="D882" t="n">
+        <v>2.6926</v>
+      </c>
+      <c r="E882" t="n">
+        <v>1.9069</v>
+      </c>
+      <c r="F882" t="n">
+        <v>1.7626</v>
+      </c>
+      <c r="G882" t="n">
+        <v>-0.035</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="s">
+        <v>888</v>
+      </c>
+      <c r="B883" t="n">
+        <v>0.7159</v>
+      </c>
+      <c r="C883" t="n">
+        <v>1.0743</v>
+      </c>
+      <c r="D883" t="n">
+        <v>0.3631</v>
+      </c>
+      <c r="E883" t="n">
+        <v>0.7197</v>
+      </c>
+      <c r="F883" t="n">
+        <v>2.0855</v>
+      </c>
+      <c r="G883" t="n">
+        <v>-0.1049</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="s">
+        <v>889</v>
+      </c>
+      <c r="B884" t="n">
+        <v>0.3554</v>
+      </c>
+      <c r="C884" t="n">
+        <v>-4.2958</v>
+      </c>
+      <c r="D884" t="n">
+        <v>0.8842</v>
+      </c>
+      <c r="E884" t="n">
+        <v>1.4648</v>
+      </c>
+      <c r="F884" t="n">
+        <v>0.6925</v>
+      </c>
+      <c r="G884" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="s">
+        <v>890</v>
+      </c>
+      <c r="B885" t="n">
+        <v>0.1932</v>
+      </c>
+      <c r="C885" t="n">
+        <v>4.1185</v>
+      </c>
+      <c r="D885" t="n">
+        <v>1.4741</v>
+      </c>
+      <c r="E885" t="n">
+        <v>-1.3732</v>
+      </c>
+      <c r="F885" t="n">
+        <v>-1.238</v>
+      </c>
+      <c r="G885" t="n">
+        <v>2.1336</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="s">
+        <v>891</v>
+      </c>
+      <c r="B886" t="n">
+        <v>0.2571</v>
+      </c>
+      <c r="C886" t="n">
+        <v>-1.8667</v>
+      </c>
+      <c r="D886" t="n">
+        <v>-2.4342</v>
+      </c>
+      <c r="E886" t="n">
+        <v>-1.6423</v>
+      </c>
+      <c r="F886" t="n">
+        <v>-0.3134</v>
+      </c>
+      <c r="G886" t="n">
+        <v>-0.411</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="s">
+        <v>892</v>
+      </c>
+      <c r="B887" t="n">
+        <v>-0.609</v>
+      </c>
+      <c r="C887" t="n">
+        <v>-0.2717</v>
+      </c>
+      <c r="D887" t="n">
+        <v>1.4487</v>
+      </c>
+      <c r="E887" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="F887" t="n">
+        <v>-1.3273</v>
+      </c>
+      <c r="G887" t="n">
+        <v>2.6479</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="s">
+        <v>893</v>
+      </c>
+      <c r="B888" t="n">
+        <v>0.0967</v>
+      </c>
+      <c r="C888" t="n">
+        <v>0.9083</v>
+      </c>
+      <c r="D888" t="n">
+        <v>-7.1797</v>
+      </c>
+      <c r="E888" t="n">
+        <v>0.0357</v>
+      </c>
+      <c r="F888" t="n">
+        <v>-2.4071</v>
+      </c>
+      <c r="G888" t="n">
+        <v>0.4355</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="s">
+        <v>894</v>
+      </c>
+      <c r="B889" t="n">
+        <v>-0.0966</v>
+      </c>
+      <c r="C889" t="n">
+        <v>-0.9901</v>
+      </c>
+      <c r="D889" t="n">
+        <v>-0.7265</v>
+      </c>
+      <c r="E889" t="n">
+        <v>1.1416</v>
+      </c>
+      <c r="F889" t="n">
+        <v>-0.3265</v>
+      </c>
+      <c r="G889" t="n">
+        <v>-1.2675</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="s">
+        <v>895</v>
+      </c>
+      <c r="B890" t="n">
+        <v>0.8707</v>
+      </c>
+      <c r="C890" t="n">
+        <v>1.1818</v>
+      </c>
+      <c r="D890" t="n">
+        <v>-0.7318</v>
+      </c>
+      <c r="E890" t="n">
+        <v>0.4938</v>
+      </c>
+      <c r="F890" t="n">
+        <v>0.5822</v>
+      </c>
+      <c r="G890" t="n">
+        <v>3.2095</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="s">
+        <v>896</v>
+      </c>
+      <c r="B891" t="n">
+        <v>0.1918</v>
+      </c>
+      <c r="C891" t="n">
+        <v>-1.4825</v>
+      </c>
+      <c r="D891" t="n">
+        <v>-0.1735</v>
+      </c>
+      <c r="E891" t="n">
+        <v>1.8603</v>
+      </c>
+      <c r="F891" t="n">
+        <v>2.4964</v>
+      </c>
+      <c r="G891" t="n">
+        <v>-0.1637</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/DK aktiekurser.xlsx
+++ b/FILER/DK aktiekurser.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="1026">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -2703,12 +2703,399 @@
   </si>
   <si>
     <t xml:space="preserve">2021-08-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -3027,15 +3414,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true">
       <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -3088,7 +3475,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.089</v>
+        <v>1.0891</v>
       </c>
       <c r="C3" t="n">
         <v>0.8699</v>
@@ -3252,7 +3639,7 @@
         <v>0.1923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7631</v>
+        <v>0.763</v>
       </c>
       <c r="D10" t="n">
         <v>-2.4021</v>
@@ -3551,7 +3938,7 @@
         <v>-0.7539</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.575</v>
+        <v>-0.5749</v>
       </c>
       <c r="D23" t="n">
         <v>0.3962</v>
@@ -3571,7 +3958,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4143</v>
+        <v>0.4144</v>
       </c>
       <c r="C24" t="n">
         <v>1.1565</v>
@@ -3617,7 +4004,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.8118</v>
+        <v>-1.8119</v>
       </c>
       <c r="C26" t="n">
         <v>-2.5317</v>
@@ -3755,7 +4142,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3518</v>
+        <v>0.3519</v>
       </c>
       <c r="C32" t="n">
         <v>1.118</v>
@@ -3778,7 +4165,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1403</v>
+        <v>0.1402</v>
       </c>
       <c r="C33" t="n">
         <v>0.6552</v>
@@ -3873,7 +4260,7 @@
         <v>0.4135</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6122</v>
+        <v>0.6123</v>
       </c>
       <c r="D37" t="n">
         <v>2.9957</v>
@@ -4014,7 +4401,7 @@
         <v>-0.9748</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.7679</v>
+        <v>-0.768</v>
       </c>
       <c r="E43" t="n">
         <v>-1.1227</v>
@@ -4077,7 +4464,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2782</v>
+        <v>0.2781</v>
       </c>
       <c r="C46" t="n">
         <v>-0.3705</v>
@@ -4169,7 +4556,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.3403</v>
+        <v>-0.3404</v>
       </c>
       <c r="C50" t="n">
         <v>0.2437</v>
@@ -4230,7 +4617,7 @@
         <v>0.4757</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.6231</v>
+        <v>-0.623</v>
       </c>
     </row>
     <row r="53">
@@ -4238,7 +4625,7 @@
         <v>58</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7539</v>
+        <v>0.754</v>
       </c>
       <c r="C53" t="n">
         <v>0.041</v>
@@ -4322,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.4504</v>
+        <v>-0.4505</v>
       </c>
     </row>
     <row r="57">
@@ -4399,7 +4786,7 @@
         <v>65</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.0722</v>
+        <v>-0.0721</v>
       </c>
       <c r="C60" t="n">
         <v>-0.9649</v>
@@ -4514,7 +4901,7 @@
         <v>70</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7174</v>
+        <v>0.7173</v>
       </c>
       <c r="C65" t="n">
         <v>1.167</v>
@@ -4618,7 +5005,7 @@
         <v>-0.5372</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7812</v>
+        <v>-0.7813</v>
       </c>
       <c r="G69" t="n">
         <v>-0.8284</v>
@@ -5181,7 +5568,7 @@
         <v>99</v>
       </c>
       <c r="B94" t="n">
-        <v>1.1797</v>
+        <v>1.1798</v>
       </c>
       <c r="C94" t="n">
         <v>-0.1849</v>
@@ -5308,7 +5695,7 @@
         <v>0.3147</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.7813</v>
+        <v>-0.7812</v>
       </c>
       <c r="G99" t="n">
         <v>-0.4138</v>
@@ -5319,7 +5706,7 @@
         <v>105</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3424</v>
+        <v>0.3425</v>
       </c>
       <c r="C100" t="n">
         <v>-0.0483</v>
@@ -5601,7 +5988,7 @@
         <v>-2.112</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.9818</v>
+        <v>-0.9817</v>
       </c>
       <c r="E112" t="n">
         <v>-0.9579</v>
@@ -5664,7 +6051,7 @@
         <v>120</v>
       </c>
       <c r="B115" t="n">
-        <v>0.466</v>
+        <v>0.4661</v>
       </c>
       <c r="C115" t="n">
         <v>-1.4375</v>
@@ -5831,7 +6218,7 @@
         <v>-0.1752</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.8067</v>
+        <v>-1.8068</v>
       </c>
       <c r="E122" t="n">
         <v>-0.528</v>
@@ -5998,7 +6385,7 @@
         <v>-0.7522</v>
       </c>
       <c r="F129" t="n">
-        <v>-2.8136</v>
+        <v>-2.8135</v>
       </c>
       <c r="G129" t="n">
         <v>-0.7092</v>
@@ -6055,7 +6442,7 @@
         <v>137</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1951</v>
+        <v>0.195</v>
       </c>
       <c r="C132" t="n">
         <v>-0.1031</v>
@@ -6182,7 +6569,7 @@
         <v>-1.1879</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.5281</v>
+        <v>-0.528</v>
       </c>
       <c r="G137" t="n">
         <v>-0.2185</v>
@@ -6262,13 +6649,13 @@
         <v>146</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6493</v>
+        <v>0.6494</v>
       </c>
       <c r="C141" t="n">
         <v>0.2669</v>
       </c>
       <c r="D141" t="n">
-        <v>1.1056</v>
+        <v>1.1057</v>
       </c>
       <c r="E141" t="n">
         <v>-1.2675</v>
@@ -6320,7 +6707,7 @@
         <v>-3.9155</v>
       </c>
       <c r="F143" t="n">
-        <v>-1.3308</v>
+        <v>-1.3307</v>
       </c>
       <c r="G143" t="n">
         <v>0.2525</v>
@@ -6596,7 +6983,7 @@
         <v>0.7663</v>
       </c>
       <c r="F155" t="n">
-        <v>2.9904</v>
+        <v>2.9903</v>
       </c>
       <c r="G155" t="n">
         <v>-3.8869</v>
@@ -6636,7 +7023,7 @@
         <v>0.6834</v>
       </c>
       <c r="D157" t="n">
-        <v>1.6994</v>
+        <v>1.6993</v>
       </c>
       <c r="E157" t="n">
         <v>-0.6651</v>
@@ -6688,7 +7075,7 @@
         <v>1.3468</v>
       </c>
       <c r="F159" t="n">
-        <v>7.4714</v>
+        <v>7.4715</v>
       </c>
       <c r="G159" t="n">
         <v>0.2238</v>
@@ -6826,7 +7213,7 @@
         <v>1.2762</v>
       </c>
       <c r="F165" t="n">
-        <v>0.4508</v>
+        <v>0.4509</v>
       </c>
       <c r="G165" t="n">
         <v>-0.3093</v>
@@ -6849,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.3291</v>
+        <v>-0.3292</v>
       </c>
       <c r="G166" t="n">
         <v>-0.6206</v>
@@ -6952,7 +7339,7 @@
         <v>176</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.1279</v>
+        <v>-0.128</v>
       </c>
       <c r="C171" t="n">
         <v>-4.1949</v>
@@ -6975,7 +7362,7 @@
         <v>177</v>
       </c>
       <c r="B172" t="n">
-        <v>0.1921</v>
+        <v>0.1922</v>
       </c>
       <c r="C172" t="n">
         <v>-2.9378</v>
@@ -7067,7 +7454,7 @@
         <v>181</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.6365</v>
+        <v>-0.6366</v>
       </c>
       <c r="C176" t="n">
         <v>-1.048</v>
@@ -7113,7 +7500,7 @@
         <v>183</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1275</v>
+        <v>0.1276</v>
       </c>
       <c r="C178" t="n">
         <v>3.5535</v>
@@ -7228,7 +7615,7 @@
         <v>188</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.9276</v>
+        <v>-0.9277</v>
       </c>
       <c r="C183" t="n">
         <v>2.1942</v>
@@ -7447,7 +7834,7 @@
         <v>-1.1958</v>
       </c>
       <c r="F192" t="n">
-        <v>-8.1735</v>
+        <v>-8.1736</v>
       </c>
       <c r="G192" t="n">
         <v>-3.453</v>
@@ -7516,7 +7903,7 @@
         <v>-1.3239</v>
       </c>
       <c r="F195" t="n">
-        <v>0.6457</v>
+        <v>0.6456</v>
       </c>
       <c r="G195" t="n">
         <v>1.1843</v>
@@ -7700,7 +8087,7 @@
         <v>-4.4592</v>
       </c>
       <c r="F203" t="n">
-        <v>-2.6653</v>
+        <v>-2.6652</v>
       </c>
       <c r="G203" t="n">
         <v>-3.0082</v>
@@ -7763,7 +8150,7 @@
         <v>-0.277</v>
       </c>
       <c r="D206" t="n">
-        <v>-4.0919</v>
+        <v>-4.0918</v>
       </c>
       <c r="E206" t="n">
         <v>2.0697</v>
@@ -7809,7 +8196,7 @@
         <v>-1.248</v>
       </c>
       <c r="D208" t="n">
-        <v>1.1786</v>
+        <v>1.1785</v>
       </c>
       <c r="E208" t="n">
         <v>6.0365</v>
@@ -8033,7 +8420,7 @@
         <v>223</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.2399</v>
+        <v>-0.24</v>
       </c>
       <c r="C218" t="n">
         <v>-1.3641</v>
@@ -8131,7 +8518,7 @@
         <v>-0.9869</v>
       </c>
       <c r="D222" t="n">
-        <v>-1.198</v>
+        <v>-1.1979</v>
       </c>
       <c r="E222" t="n">
         <v>1.0673</v>
@@ -8206,7 +8593,7 @@
         <v>2.9032</v>
       </c>
       <c r="F225" t="n">
-        <v>1.4894</v>
+        <v>1.4895</v>
       </c>
       <c r="G225" t="n">
         <v>-0.4865</v>
@@ -8229,7 +8616,7 @@
         <v>3.1557</v>
       </c>
       <c r="F226" t="n">
-        <v>2.7314</v>
+        <v>2.7313</v>
       </c>
       <c r="G226" t="n">
         <v>-0.6667</v>
@@ -8263,7 +8650,7 @@
         <v>233</v>
       </c>
       <c r="B228" t="n">
-        <v>0.0623</v>
+        <v>0.0622</v>
       </c>
       <c r="C228" t="n">
         <v>-0.8447</v>
@@ -8332,7 +8719,7 @@
         <v>236</v>
       </c>
       <c r="B231" t="n">
-        <v>1.0475</v>
+        <v>1.0474</v>
       </c>
       <c r="C231" t="n">
         <v>-0.2278</v>
@@ -8355,7 +8742,7 @@
         <v>237</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.183</v>
+        <v>-0.1829</v>
       </c>
       <c r="C232" t="n">
         <v>1.4079</v>
@@ -8378,7 +8765,7 @@
         <v>238</v>
       </c>
       <c r="B233" t="n">
-        <v>1.7105</v>
+        <v>1.7104</v>
       </c>
       <c r="C233" t="n">
         <v>-0.1126</v>
@@ -8516,7 +8903,7 @@
         <v>244</v>
       </c>
       <c r="B239" t="n">
-        <v>1.4286</v>
+        <v>1.4285</v>
       </c>
       <c r="C239" t="n">
         <v>-0.6072</v>
@@ -8545,7 +8932,7 @@
         <v>-0.1078</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.5789</v>
+        <v>-0.579</v>
       </c>
       <c r="E240" t="n">
         <v>1.0412</v>
@@ -8562,7 +8949,7 @@
         <v>246</v>
       </c>
       <c r="B241" t="n">
-        <v>0.3031</v>
+        <v>0.303</v>
       </c>
       <c r="C241" t="n">
         <v>-0.6834</v>
@@ -8643,7 +9030,7 @@
         <v>2.0703</v>
       </c>
       <c r="F244" t="n">
-        <v>0.7809</v>
+        <v>0.781</v>
       </c>
       <c r="G244" t="n">
         <v>0.0524</v>
@@ -8746,7 +9133,7 @@
         <v>254</v>
       </c>
       <c r="B249" t="n">
-        <v>0.5491</v>
+        <v>0.5492</v>
       </c>
       <c r="C249" t="n">
         <v>-0.1551</v>
@@ -8792,7 +9179,7 @@
         <v>256</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.182</v>
+        <v>-0.1821</v>
       </c>
       <c r="C251" t="n">
         <v>4.2446</v>
@@ -8930,7 +9317,7 @@
         <v>262</v>
       </c>
       <c r="B257" t="n">
-        <v>-1.6565</v>
+        <v>-1.6564</v>
       </c>
       <c r="C257" t="n">
         <v>0.3474</v>
@@ -8953,7 +9340,7 @@
         <v>263</v>
       </c>
       <c r="B258" t="n">
-        <v>0.1248</v>
+        <v>0.1247</v>
       </c>
       <c r="C258" t="n">
         <v>-1.5385</v>
@@ -8999,7 +9386,7 @@
         <v>265</v>
       </c>
       <c r="B260" t="n">
-        <v>0.1219</v>
+        <v>0.122</v>
       </c>
       <c r="C260" t="n">
         <v>-1.0485</v>
@@ -9057,7 +9444,7 @@
         <v>1.5709</v>
       </c>
       <c r="F262" t="n">
-        <v>2.2182</v>
+        <v>2.2183</v>
       </c>
       <c r="G262" t="n">
         <v>-1.85</v>
@@ -9264,7 +9651,7 @@
         <v>1.2247</v>
       </c>
       <c r="F271" t="n">
-        <v>-0.7478</v>
+        <v>-0.7479</v>
       </c>
       <c r="G271" t="n">
         <v>2.3067</v>
@@ -9327,7 +9714,7 @@
         <v>-0.5138</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.1935</v>
+        <v>-0.1936</v>
       </c>
       <c r="E274" t="n">
         <v>-1.6033</v>
@@ -9367,7 +9754,7 @@
         <v>281</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.0584</v>
+        <v>-0.0583</v>
       </c>
       <c r="C276" t="n">
         <v>-4</v>
@@ -9534,7 +9921,7 @@
         <v>-0.4343</v>
       </c>
       <c r="D283" t="n">
-        <v>-2.6358</v>
+        <v>-2.6357</v>
       </c>
       <c r="E283" t="n">
         <v>-2.0772</v>
@@ -9580,7 +9967,7 @@
         <v>-4.2722</v>
       </c>
       <c r="D285" t="n">
-        <v>1.2572</v>
+        <v>1.2573</v>
       </c>
       <c r="E285" t="n">
         <v>6.8948</v>
@@ -9643,7 +10030,7 @@
         <v>293</v>
       </c>
       <c r="B288" t="n">
-        <v>1.1229</v>
+        <v>1.123</v>
       </c>
       <c r="C288" t="n">
         <v>-0.0797</v>
@@ -9827,7 +10214,7 @@
         <v>301</v>
       </c>
       <c r="B296" t="n">
-        <v>0.507</v>
+        <v>0.5071</v>
       </c>
       <c r="C296" t="n">
         <v>-1.0576</v>
@@ -9919,7 +10306,7 @@
         <v>305</v>
       </c>
       <c r="B300" t="n">
-        <v>0.7175</v>
+        <v>0.7174</v>
       </c>
       <c r="C300" t="n">
         <v>2.4778</v>
@@ -9931,7 +10318,7 @@
         <v>0.4403</v>
       </c>
       <c r="F300" t="n">
-        <v>1.1635</v>
+        <v>1.1636</v>
       </c>
       <c r="G300" t="n">
         <v>1.1946</v>
@@ -9977,7 +10364,7 @@
         <v>-0.5791</v>
       </c>
       <c r="F302" t="n">
-        <v>-1.0877</v>
+        <v>-1.0876</v>
       </c>
       <c r="G302" t="n">
         <v>0</v>
@@ -10011,13 +10398,13 @@
         <v>309</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.3754</v>
+        <v>-0.3753</v>
       </c>
       <c r="C304" t="n">
         <v>-0.7896</v>
       </c>
       <c r="D304" t="n">
-        <v>-3.8426</v>
+        <v>-3.8425</v>
       </c>
       <c r="E304" t="n">
         <v>3.6689</v>
@@ -10517,7 +10904,7 @@
         <v>331</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.9842</v>
+        <v>-0.9843</v>
       </c>
       <c r="C326" t="n">
         <v>-0.0393</v>
@@ -10552,7 +10939,7 @@
         <v>-1.2511</v>
       </c>
       <c r="F327" t="n">
-        <v>-1.041</v>
+        <v>-1.0411</v>
       </c>
       <c r="G327" t="n">
         <v>-1.377</v>
@@ -10563,7 +10950,7 @@
         <v>333</v>
       </c>
       <c r="B328" t="n">
-        <v>1.5841</v>
+        <v>1.5842</v>
       </c>
       <c r="C328" t="n">
         <v>1.5409</v>
@@ -10724,7 +11111,7 @@
         <v>340</v>
       </c>
       <c r="B335" t="n">
-        <v>0.2965</v>
+        <v>0.2964</v>
       </c>
       <c r="C335" t="n">
         <v>-2.0364</v>
@@ -10862,7 +11249,7 @@
         <v>346</v>
       </c>
       <c r="B341" t="n">
-        <v>0.3922</v>
+        <v>0.3921</v>
       </c>
       <c r="C341" t="n">
         <v>-1.2059</v>
@@ -11610,7 +11997,7 @@
         <v>-1.2747</v>
       </c>
       <c r="F373" t="n">
-        <v>-2.0019</v>
+        <v>-2.0018</v>
       </c>
       <c r="G373" t="n">
         <v>-1.3074</v>
@@ -11840,7 +12227,7 @@
         <v>-0.6112</v>
       </c>
       <c r="F383" t="n">
-        <v>-2.0635</v>
+        <v>-2.0634</v>
       </c>
       <c r="G383" t="n">
         <v>-3.1476</v>
@@ -11874,7 +12261,7 @@
         <v>390</v>
       </c>
       <c r="B385" t="n">
-        <v>-1.5992</v>
+        <v>-1.5993</v>
       </c>
       <c r="C385" t="n">
         <v>2.1151</v>
@@ -11943,7 +12330,7 @@
         <v>393</v>
       </c>
       <c r="B388" t="n">
-        <v>-1.144</v>
+        <v>-1.1439</v>
       </c>
       <c r="C388" t="n">
         <v>-1.8252</v>
@@ -11966,7 +12353,7 @@
         <v>394</v>
       </c>
       <c r="B389" t="n">
-        <v>1.0608</v>
+        <v>1.0607</v>
       </c>
       <c r="C389" t="n">
         <v>0.1468</v>
@@ -12438,7 +12825,7 @@
         <v>-0.8358</v>
       </c>
       <c r="F409" t="n">
-        <v>-4.8814</v>
+        <v>-4.8813</v>
       </c>
       <c r="G409" t="n">
         <v>0.9214</v>
@@ -12587,7 +12974,7 @@
         <v>421</v>
       </c>
       <c r="B416" t="n">
-        <v>0.0976</v>
+        <v>0.0977</v>
       </c>
       <c r="C416" t="n">
         <v>-0.4167</v>
@@ -12691,7 +13078,7 @@
         <v>-4.5634</v>
       </c>
       <c r="F420" t="n">
-        <v>-2.8832</v>
+        <v>-2.8833</v>
       </c>
       <c r="G420" t="n">
         <v>0.7582</v>
@@ -12760,7 +13147,7 @@
         <v>-0.6909</v>
       </c>
       <c r="F423" t="n">
-        <v>2.6249</v>
+        <v>2.625</v>
       </c>
       <c r="G423" t="n">
         <v>0.9477</v>
@@ -13530,7 +13917,7 @@
         <v>462</v>
       </c>
       <c r="B457" t="n">
-        <v>-0.7954</v>
+        <v>-0.7953</v>
       </c>
       <c r="C457" t="n">
         <v>0.5047</v>
@@ -14025,7 +14412,7 @@
         <v>-0.0633</v>
       </c>
       <c r="F478" t="n">
-        <v>1.5252</v>
+        <v>1.5253</v>
       </c>
       <c r="G478" t="n">
         <v>-1.5808</v>
@@ -14163,7 +14550,7 @@
         <v>-2.0433</v>
       </c>
       <c r="F484" t="n">
-        <v>-2.1539</v>
+        <v>-2.154</v>
       </c>
       <c r="G484" t="n">
         <v>-2.1451</v>
@@ -14381,7 +14768,7 @@
         <v>499</v>
       </c>
       <c r="B494" t="n">
-        <v>0.5572</v>
+        <v>0.5573</v>
       </c>
       <c r="C494" t="n">
         <v>0.7533</v>
@@ -14439,7 +14826,7 @@
         <v>-0.4368</v>
       </c>
       <c r="F496" t="n">
-        <v>-1.5708</v>
+        <v>-1.5709</v>
       </c>
       <c r="G496" t="n">
         <v>-1.4184</v>
@@ -14611,7 +14998,7 @@
         <v>509</v>
       </c>
       <c r="B504" t="n">
-        <v>1.2557</v>
+        <v>1.2556</v>
       </c>
       <c r="C504" t="n">
         <v>-1.5589</v>
@@ -14749,7 +15136,7 @@
         <v>515</v>
       </c>
       <c r="B510" t="n">
-        <v>0.2863</v>
+        <v>0.2862</v>
       </c>
       <c r="C510" t="n">
         <v>0.1822</v>
@@ -14979,7 +15366,7 @@
         <v>525</v>
       </c>
       <c r="B520" t="n">
-        <v>2.1653</v>
+        <v>2.1654</v>
       </c>
       <c r="C520" t="n">
         <v>2.8226</v>
@@ -15324,7 +15711,7 @@
         <v>540</v>
       </c>
       <c r="B535" t="n">
-        <v>-1.8906</v>
+        <v>-1.8905</v>
       </c>
       <c r="C535" t="n">
         <v>-1.0435</v>
@@ -15416,7 +15803,7 @@
         <v>544</v>
       </c>
       <c r="B539" t="n">
-        <v>0.6944</v>
+        <v>0.6945</v>
       </c>
       <c r="C539" t="n">
         <v>0.4778</v>
@@ -15439,7 +15826,7 @@
         <v>545</v>
       </c>
       <c r="B540" t="n">
-        <v>2.069</v>
+        <v>2.0689</v>
       </c>
       <c r="C540" t="n">
         <v>1.6167</v>
@@ -15669,7 +16056,7 @@
         <v>555</v>
       </c>
       <c r="B550" t="n">
-        <v>7.2581</v>
+        <v>7.258</v>
       </c>
       <c r="C550" t="n">
         <v>0.2161</v>
@@ -16658,7 +17045,7 @@
         <v>598</v>
       </c>
       <c r="B593" t="n">
-        <v>1.0332</v>
+        <v>1.0331</v>
       </c>
       <c r="C593" t="n">
         <v>-1.1195</v>
@@ -16681,7 +17068,7 @@
         <v>599</v>
       </c>
       <c r="B594" t="n">
-        <v>0.592</v>
+        <v>0.5921</v>
       </c>
       <c r="C594" t="n">
         <v>6.7931</v>
@@ -16796,7 +17183,7 @@
         <v>604</v>
       </c>
       <c r="B599" t="n">
-        <v>4.6414</v>
+        <v>4.6413</v>
       </c>
       <c r="C599" t="n">
         <v>3.7688</v>
@@ -16865,7 +17252,7 @@
         <v>607</v>
       </c>
       <c r="B602" t="n">
-        <v>-1.7722</v>
+        <v>-1.7721</v>
       </c>
       <c r="C602" t="n">
         <v>-1.6807</v>
@@ -16934,7 +17321,7 @@
         <v>610</v>
       </c>
       <c r="B605" t="n">
-        <v>-0.1032</v>
+        <v>-0.1033</v>
       </c>
       <c r="C605" t="n">
         <v>-1.3696</v>
@@ -17118,7 +17505,7 @@
         <v>618</v>
       </c>
       <c r="B613" t="n">
-        <v>-0.7495</v>
+        <v>-0.7494</v>
       </c>
       <c r="C613" t="n">
         <v>-1.8976</v>
@@ -17187,7 +17574,7 @@
         <v>621</v>
       </c>
       <c r="B616" t="n">
-        <v>0.6486</v>
+        <v>0.6487</v>
       </c>
       <c r="C616" t="n">
         <v>2.5965</v>
@@ -17394,7 +17781,7 @@
         <v>630</v>
       </c>
       <c r="B625" t="n">
-        <v>2.6702</v>
+        <v>2.6701</v>
       </c>
       <c r="C625" t="n">
         <v>1.0771</v>
@@ -17578,7 +17965,7 @@
         <v>638</v>
       </c>
       <c r="B633" t="n">
-        <v>-0.2034</v>
+        <v>-0.2033</v>
       </c>
       <c r="C633" t="n">
         <v>0.0937</v>
@@ -17739,7 +18126,7 @@
         <v>645</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.2679</v>
+        <v>-0.268</v>
       </c>
       <c r="C640" t="n">
         <v>0.0985</v>
@@ -17854,7 +18241,7 @@
         <v>650</v>
       </c>
       <c r="B645" t="n">
-        <v>-0.5331</v>
+        <v>-0.533</v>
       </c>
       <c r="C645" t="n">
         <v>-0.098</v>
@@ -18061,7 +18448,7 @@
         <v>659</v>
       </c>
       <c r="B654" t="n">
-        <v>-0.7247</v>
+        <v>-0.7246</v>
       </c>
       <c r="C654" t="n">
         <v>-4.0587</v>
@@ -18084,7 +18471,7 @@
         <v>660</v>
       </c>
       <c r="B655" t="n">
-        <v>0.8864</v>
+        <v>0.8863</v>
       </c>
       <c r="C655" t="n">
         <v>0.5709</v>
@@ -18176,7 +18563,7 @@
         <v>664</v>
       </c>
       <c r="B659" t="n">
-        <v>0.5658</v>
+        <v>0.5659</v>
       </c>
       <c r="C659" t="n">
         <v>-1.4056</v>
@@ -18245,7 +18632,7 @@
         <v>667</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.4178</v>
+        <v>-0.4177</v>
       </c>
       <c r="C662" t="n">
         <v>-2.631</v>
@@ -18613,7 +19000,7 @@
         <v>683</v>
       </c>
       <c r="B678" t="n">
-        <v>0.5661</v>
+        <v>0.5662</v>
       </c>
       <c r="C678" t="n">
         <v>0.5796</v>
@@ -19027,7 +19414,7 @@
         <v>701</v>
       </c>
       <c r="B696" t="n">
-        <v>-0.9871</v>
+        <v>-0.9872</v>
       </c>
       <c r="C696" t="n">
         <v>1.7521</v>
@@ -19073,7 +19460,7 @@
         <v>703</v>
       </c>
       <c r="B698" t="n">
-        <v>-2.5038</v>
+        <v>-2.5037</v>
       </c>
       <c r="C698" t="n">
         <v>-2.8154</v>
@@ -19418,7 +19805,7 @@
         <v>718</v>
       </c>
       <c r="B713" t="n">
-        <v>0.4774</v>
+        <v>0.4775</v>
       </c>
       <c r="C713" t="n">
         <v>-0.3029</v>
@@ -19602,7 +19989,7 @@
         <v>726</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.8357</v>
+        <v>-0.8356</v>
       </c>
       <c r="C721" t="n">
         <v>-0.9615</v>
@@ -19625,7 +20012,7 @@
         <v>727</v>
       </c>
       <c r="B722" t="n">
-        <v>-1.2359</v>
+        <v>-1.236</v>
       </c>
       <c r="C722" t="n">
         <v>1.8932</v>
@@ -20407,7 +20794,7 @@
         <v>761</v>
       </c>
       <c r="B756" t="n">
-        <v>0.404</v>
+        <v>0.4041</v>
       </c>
       <c r="C756" t="n">
         <v>-1.9625</v>
@@ -21350,7 +21737,7 @@
         <v>802</v>
       </c>
       <c r="B797" t="n">
-        <v>0.9742</v>
+        <v>0.9743</v>
       </c>
       <c r="C797" t="n">
         <v>-0.0408</v>
@@ -21856,7 +22243,7 @@
         <v>824</v>
       </c>
       <c r="B819" t="n">
-        <v>-0.5567</v>
+        <v>-0.5568</v>
       </c>
       <c r="C819" t="n">
         <v>-2.3887</v>
@@ -22615,7 +23002,7 @@
         <v>857</v>
       </c>
       <c r="B852" t="n">
-        <v>0.0345</v>
+        <v>0.0344</v>
       </c>
       <c r="C852" t="n">
         <v>-0.9178</v>
@@ -22983,7 +23370,7 @@
         <v>873</v>
       </c>
       <c r="B868" t="n">
-        <v>0.5196</v>
+        <v>0.5197</v>
       </c>
       <c r="C868" t="n">
         <v>2.2202</v>
@@ -23006,7 +23393,7 @@
         <v>874</v>
       </c>
       <c r="B869" t="n">
-        <v>0.8078</v>
+        <v>0.8077</v>
       </c>
       <c r="C869" t="n">
         <v>-0.5762</v>
@@ -23052,7 +23439,7 @@
         <v>876</v>
       </c>
       <c r="B871" t="n">
-        <v>0.2524</v>
+        <v>0.2525</v>
       </c>
       <c r="C871" t="n">
         <v>-3.0661</v>
@@ -23466,7 +23853,7 @@
         <v>894</v>
       </c>
       <c r="B889" t="n">
-        <v>-0.0966</v>
+        <v>-0.0967</v>
       </c>
       <c r="C889" t="n">
         <v>-0.9901</v>
@@ -23528,6 +23915,2973 @@
       </c>
       <c r="G891" t="n">
         <v>-0.1637</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="s">
+        <v>897</v>
+      </c>
+      <c r="B892" t="n">
+        <v>0.8934</v>
+      </c>
+      <c r="C892" t="n">
+        <v>0.6384</v>
+      </c>
+      <c r="D892" t="n">
+        <v>0.4344</v>
+      </c>
+      <c r="E892" t="n">
+        <v>0.9649</v>
+      </c>
+      <c r="F892" t="n">
+        <v>0.3177</v>
+      </c>
+      <c r="G892" t="n">
+        <v>0.5246</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="s">
+        <v>898</v>
+      </c>
+      <c r="B893" t="n">
+        <v>-0.5376</v>
+      </c>
+      <c r="C893" t="n">
+        <v>-0.0453</v>
+      </c>
+      <c r="D893" t="n">
+        <v>-2.1626</v>
+      </c>
+      <c r="E893" t="n">
+        <v>1.2287</v>
+      </c>
+      <c r="F893" t="n">
+        <v>-0.8093</v>
+      </c>
+      <c r="G893" t="n">
+        <v>-0.1957</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="s">
+        <v>899</v>
+      </c>
+      <c r="B894" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="C894" t="n">
+        <v>0.9973</v>
+      </c>
+      <c r="D894" t="n">
+        <v>0.6631</v>
+      </c>
+      <c r="E894" t="n">
+        <v>-3.9447</v>
+      </c>
+      <c r="F894" t="n">
+        <v>-0.8514</v>
+      </c>
+      <c r="G894" t="n">
+        <v>-1.4706</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="s">
+        <v>900</v>
+      </c>
+      <c r="B895" t="n">
+        <v>0.7607</v>
+      </c>
+      <c r="C895" t="n">
+        <v>0.8977</v>
+      </c>
+      <c r="D895" t="n">
+        <v>-1.7567</v>
+      </c>
+      <c r="E895" t="n">
+        <v>1.6848</v>
+      </c>
+      <c r="F895" t="n">
+        <v>-0.5367</v>
+      </c>
+      <c r="G895" t="n">
+        <v>1.4594</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="s">
+        <v>901</v>
+      </c>
+      <c r="B896" t="n">
+        <v>1.2897</v>
+      </c>
+      <c r="C896" t="n">
+        <v>-0.1779</v>
+      </c>
+      <c r="D896" t="n">
+        <v>-0.3576</v>
+      </c>
+      <c r="E896" t="n">
+        <v>-0.932</v>
+      </c>
+      <c r="F896" t="n">
+        <v>-0.9353</v>
+      </c>
+      <c r="G896" t="n">
+        <v>2.2883</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="s">
+        <v>902</v>
+      </c>
+      <c r="B897" t="n">
+        <v>-0.0621</v>
+      </c>
+      <c r="C897" t="n">
+        <v>0.4456</v>
+      </c>
+      <c r="D897" t="n">
+        <v>0.7627</v>
+      </c>
+      <c r="E897" t="n">
+        <v>-1.0105</v>
+      </c>
+      <c r="F897" t="n">
+        <v>-0.2905</v>
+      </c>
+      <c r="G897" t="n">
+        <v>-6.0403</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="s">
+        <v>903</v>
+      </c>
+      <c r="B898" t="n">
+        <v>-0.3107</v>
+      </c>
+      <c r="C898" t="n">
+        <v>0.7099</v>
+      </c>
+      <c r="D898" t="n">
+        <v>-0.7124</v>
+      </c>
+      <c r="E898" t="n">
+        <v>3.3439</v>
+      </c>
+      <c r="F898" t="n">
+        <v>-3.7145</v>
+      </c>
+      <c r="G898" t="n">
+        <v>-0.4082</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="s">
+        <v>904</v>
+      </c>
+      <c r="B899" t="n">
+        <v>0.8728</v>
+      </c>
+      <c r="C899" t="n">
+        <v>0.4846</v>
+      </c>
+      <c r="D899" t="n">
+        <v>1.2556</v>
+      </c>
+      <c r="E899" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="F899" t="n">
+        <v>-0.9077</v>
+      </c>
+      <c r="G899" t="n">
+        <v>-2.6298</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="s">
+        <v>905</v>
+      </c>
+      <c r="B900" t="n">
+        <v>-0.6799</v>
+      </c>
+      <c r="C900" t="n">
+        <v>-0.833</v>
+      </c>
+      <c r="D900" t="n">
+        <v>-1.2843</v>
+      </c>
+      <c r="E900" t="n">
+        <v>-0.7797</v>
+      </c>
+      <c r="F900" t="n">
+        <v>-0.9924</v>
+      </c>
+      <c r="G900" t="n">
+        <v>1.7187</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="s">
+        <v>906</v>
+      </c>
+      <c r="B901" t="n">
+        <v>-0.3111</v>
+      </c>
+      <c r="C901" t="n">
+        <v>-2.2104</v>
+      </c>
+      <c r="D901" t="n">
+        <v>-1.301</v>
+      </c>
+      <c r="E901" t="n">
+        <v>1.1958</v>
+      </c>
+      <c r="F901" t="n">
+        <v>2.7371</v>
+      </c>
+      <c r="G901" t="n">
+        <v>-1.1724</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="s">
+        <v>907</v>
+      </c>
+      <c r="B902" t="n">
+        <v>1.2172</v>
+      </c>
+      <c r="C902" t="n">
+        <v>-0.5877</v>
+      </c>
+      <c r="D902" t="n">
+        <v>0.4545</v>
+      </c>
+      <c r="E902" t="n">
+        <v>0.6077</v>
+      </c>
+      <c r="F902" t="n">
+        <v>1.3133</v>
+      </c>
+      <c r="G902" t="n">
+        <v>-0.8374</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="s">
+        <v>908</v>
+      </c>
+      <c r="B903" t="n">
+        <v>-1.2026</v>
+      </c>
+      <c r="C903" t="n">
+        <v>-1.7281</v>
+      </c>
+      <c r="D903" t="n">
+        <v>-2.2624</v>
+      </c>
+      <c r="E903" t="n">
+        <v>-0.3691</v>
+      </c>
+      <c r="F903" t="n">
+        <v>-12.3148</v>
+      </c>
+      <c r="G903" t="n">
+        <v>-0.9852</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="s">
+        <v>909</v>
+      </c>
+      <c r="B904" t="n">
+        <v>-0.1248</v>
+      </c>
+      <c r="C904" t="n">
+        <v>0.2314</v>
+      </c>
+      <c r="D904" t="n">
+        <v>-1.3889</v>
+      </c>
+      <c r="E904" t="n">
+        <v>2.5598</v>
+      </c>
+      <c r="F904" t="n">
+        <v>-1.0982</v>
+      </c>
+      <c r="G904" t="n">
+        <v>-0.6752</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="s">
+        <v>910</v>
+      </c>
+      <c r="B905" t="n">
+        <v>0.5938</v>
+      </c>
+      <c r="C905" t="n">
+        <v>1.2004</v>
+      </c>
+      <c r="D905" t="n">
+        <v>1.2207</v>
+      </c>
+      <c r="E905" t="n">
+        <v>0</v>
+      </c>
+      <c r="F905" t="n">
+        <v>2.0713</v>
+      </c>
+      <c r="G905" t="n">
+        <v>-0.2147</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="s">
+        <v>911</v>
+      </c>
+      <c r="B906" t="n">
+        <v>-0.1243</v>
+      </c>
+      <c r="C906" t="n">
+        <v>-0.1369</v>
+      </c>
+      <c r="D906" t="n">
+        <v>1.9017</v>
+      </c>
+      <c r="E906" t="n">
+        <v>-1.642</v>
+      </c>
+      <c r="F906" t="n">
+        <v>-2.7197</v>
+      </c>
+      <c r="G906" t="n">
+        <v>1.3983</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="s">
+        <v>912</v>
+      </c>
+      <c r="B907" t="n">
+        <v>-1.0887</v>
+      </c>
+      <c r="C907" t="n">
+        <v>0.6852</v>
+      </c>
+      <c r="D907" t="n">
+        <v>0.0455</v>
+      </c>
+      <c r="E907" t="n">
+        <v>-1.0684</v>
+      </c>
+      <c r="F907" t="n">
+        <v>0.4516</v>
+      </c>
+      <c r="G907" t="n">
+        <v>0.9194</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="s">
+        <v>913</v>
+      </c>
+      <c r="B908" t="n">
+        <v>-1.1006</v>
+      </c>
+      <c r="C908" t="n">
+        <v>-0.4537</v>
+      </c>
+      <c r="D908" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="E908" t="n">
+        <v>1.215</v>
+      </c>
+      <c r="F908" t="n">
+        <v>-0.0214</v>
+      </c>
+      <c r="G908" t="n">
+        <v>0.5256</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="s">
+        <v>914</v>
+      </c>
+      <c r="B909" t="n">
+        <v>0.1272</v>
+      </c>
+      <c r="C909" t="n">
+        <v>-0.1367</v>
+      </c>
+      <c r="D909" t="n">
+        <v>-0.1812</v>
+      </c>
+      <c r="E909" t="n">
+        <v>-0.3001</v>
+      </c>
+      <c r="F909" t="n">
+        <v>1.7987</v>
+      </c>
+      <c r="G909" t="n">
+        <v>-0.3486</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="s">
+        <v>915</v>
+      </c>
+      <c r="B910" t="n">
+        <v>0.7939</v>
+      </c>
+      <c r="C910" t="n">
+        <v>0.2282</v>
+      </c>
+      <c r="D910" t="n">
+        <v>1.4973</v>
+      </c>
+      <c r="E910" t="n">
+        <v>0.9365</v>
+      </c>
+      <c r="F910" t="n">
+        <v>0.9466</v>
+      </c>
+      <c r="G910" t="n">
+        <v>0.5247</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="s">
+        <v>916</v>
+      </c>
+      <c r="B911" t="n">
+        <v>-1.7328</v>
+      </c>
+      <c r="C911" t="n">
+        <v>-3.5975</v>
+      </c>
+      <c r="D911" t="n">
+        <v>2.0563</v>
+      </c>
+      <c r="E911" t="n">
+        <v>-1.1928</v>
+      </c>
+      <c r="F911" t="n">
+        <v>-1.2503</v>
+      </c>
+      <c r="G911" t="n">
+        <v>0.5915</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="s">
+        <v>917</v>
+      </c>
+      <c r="B912" t="n">
+        <v>0.4168</v>
+      </c>
+      <c r="C912" t="n">
+        <v>0.4251</v>
+      </c>
+      <c r="D912" t="n">
+        <v>1.1388</v>
+      </c>
+      <c r="E912" t="n">
+        <v>0.8384</v>
+      </c>
+      <c r="F912" t="n">
+        <v>1.2872</v>
+      </c>
+      <c r="G912" t="n">
+        <v>-0.2767</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="s">
+        <v>918</v>
+      </c>
+      <c r="B913" t="n">
+        <v>0.7982</v>
+      </c>
+      <c r="C913" t="n">
+        <v>1.8344</v>
+      </c>
+      <c r="D913" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="E913" t="n">
+        <v>1.8291</v>
+      </c>
+      <c r="F913" t="n">
+        <v>1.5417</v>
+      </c>
+      <c r="G913" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="s">
+        <v>919</v>
+      </c>
+      <c r="B914" t="n">
+        <v>-1.9639</v>
+      </c>
+      <c r="C914" t="n">
+        <v>-1.2933</v>
+      </c>
+      <c r="D914" t="n">
+        <v>0.3426</v>
+      </c>
+      <c r="E914" t="n">
+        <v>0</v>
+      </c>
+      <c r="F914" t="n">
+        <v>-0.0821</v>
+      </c>
+      <c r="G914" t="n">
+        <v>-1.2487</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="s">
+        <v>920</v>
+      </c>
+      <c r="B915" t="n">
+        <v>-0.0969</v>
+      </c>
+      <c r="C915" t="n">
+        <v>0.6551</v>
+      </c>
+      <c r="D915" t="n">
+        <v>-1.7499</v>
+      </c>
+      <c r="E915" t="n">
+        <v>1.241</v>
+      </c>
+      <c r="F915" t="n">
+        <v>1.3758</v>
+      </c>
+      <c r="G915" t="n">
+        <v>-0.9484</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="s">
+        <v>921</v>
+      </c>
+      <c r="B916" t="n">
+        <v>-0.5175</v>
+      </c>
+      <c r="C916" t="n">
+        <v>-0.4184</v>
+      </c>
+      <c r="D916" t="n">
+        <v>0.9123</v>
+      </c>
+      <c r="E916" t="n">
+        <v>-4.3871</v>
+      </c>
+      <c r="F916" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="G916" t="n">
+        <v>1.383</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="s">
+        <v>922</v>
+      </c>
+      <c r="B917" t="n">
+        <v>0.8127</v>
+      </c>
+      <c r="C917" t="n">
+        <v>-0.8403</v>
+      </c>
+      <c r="D917" t="n">
+        <v>-3.0133</v>
+      </c>
+      <c r="E917" t="n">
+        <v>-2.3954</v>
+      </c>
+      <c r="F917" t="n">
+        <v>0.7056</v>
+      </c>
+      <c r="G917" t="n">
+        <v>-0.5946</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="s">
+        <v>923</v>
+      </c>
+      <c r="B918" t="n">
+        <v>-0.387</v>
+      </c>
+      <c r="C918" t="n">
+        <v>0.6591</v>
+      </c>
+      <c r="D918" t="n">
+        <v>2.9294</v>
+      </c>
+      <c r="E918" t="n">
+        <v>-1.1753</v>
+      </c>
+      <c r="F918" t="n">
+        <v>-1.6216</v>
+      </c>
+      <c r="G918" t="n">
+        <v>-0.8445</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="s">
+        <v>924</v>
+      </c>
+      <c r="B919" t="n">
+        <v>-0.5827</v>
+      </c>
+      <c r="C919" t="n">
+        <v>-1.4032</v>
+      </c>
+      <c r="D919" t="n">
+        <v>3.1479</v>
+      </c>
+      <c r="E919" t="n">
+        <v>-2.6583</v>
+      </c>
+      <c r="F919" t="n">
+        <v>-2.3199</v>
+      </c>
+      <c r="G919" t="n">
+        <v>0.9936</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="s">
+        <v>925</v>
+      </c>
+      <c r="B920" t="n">
+        <v>0.2605</v>
+      </c>
+      <c r="C920" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="D920" t="n">
+        <v>-1.7559</v>
+      </c>
+      <c r="E920" t="n">
+        <v>0.3953</v>
+      </c>
+      <c r="F920" t="n">
+        <v>-2.0417</v>
+      </c>
+      <c r="G920" t="n">
+        <v>-0.7027</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="s">
+        <v>926</v>
+      </c>
+      <c r="B921" t="n">
+        <v>-0.5846</v>
+      </c>
+      <c r="C921" t="n">
+        <v>-1.7757</v>
+      </c>
+      <c r="D921" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="E921" t="n">
+        <v>-0.5011</v>
+      </c>
+      <c r="F921" t="n">
+        <v>1.7652</v>
+      </c>
+      <c r="G921" t="n">
+        <v>0.3185</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="s">
+        <v>927</v>
+      </c>
+      <c r="B922" t="n">
+        <v>-0.6207</v>
+      </c>
+      <c r="C922" t="n">
+        <v>-2.0457</v>
+      </c>
+      <c r="D922" t="n">
+        <v>2.1186</v>
+      </c>
+      <c r="E922" t="n">
+        <v>-2.8058</v>
+      </c>
+      <c r="F922" t="n">
+        <v>-0.7106</v>
+      </c>
+      <c r="G922" t="n">
+        <v>-3.0688</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="s">
+        <v>928</v>
+      </c>
+      <c r="B923" t="n">
+        <v>0.6575</v>
+      </c>
+      <c r="C923" t="n">
+        <v>1.5056</v>
+      </c>
+      <c r="D923" t="n">
+        <v>2.3651</v>
+      </c>
+      <c r="E923" t="n">
+        <v>-1.4804</v>
+      </c>
+      <c r="F923" t="n">
+        <v>1.1156</v>
+      </c>
+      <c r="G923" t="n">
+        <v>0.2911</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="s">
+        <v>929</v>
+      </c>
+      <c r="B924" t="n">
+        <v>-0.0653</v>
+      </c>
+      <c r="C924" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="D924" t="n">
+        <v>-4.9453</v>
+      </c>
+      <c r="E924" t="n">
+        <v>1.4275</v>
+      </c>
+      <c r="F924" t="n">
+        <v>0.9575</v>
+      </c>
+      <c r="G924" t="n">
+        <v>-0.6531</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="s">
+        <v>930</v>
+      </c>
+      <c r="B925" t="n">
+        <v>-2.1242</v>
+      </c>
+      <c r="C925" t="n">
+        <v>-3.6191</v>
+      </c>
+      <c r="D925" t="n">
+        <v>-4.2217</v>
+      </c>
+      <c r="E925" t="n">
+        <v>1.4815</v>
+      </c>
+      <c r="F925" t="n">
+        <v>-2.0825</v>
+      </c>
+      <c r="G925" t="n">
+        <v>-3.5062</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="s">
+        <v>931</v>
+      </c>
+      <c r="B926" t="n">
+        <v>0.1336</v>
+      </c>
+      <c r="C926" t="n">
+        <v>0.5435</v>
+      </c>
+      <c r="D926" t="n">
+        <v>-0.8905</v>
+      </c>
+      <c r="E926" t="n">
+        <v>2.7737</v>
+      </c>
+      <c r="F926" t="n">
+        <v>2.0425</v>
+      </c>
+      <c r="G926" t="n">
+        <v>0.6813</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="s">
+        <v>932</v>
+      </c>
+      <c r="B927" t="n">
+        <v>0.6002</v>
+      </c>
+      <c r="C927" t="n">
+        <v>2.113</v>
+      </c>
+      <c r="D927" t="n">
+        <v>3.9533</v>
+      </c>
+      <c r="E927" t="n">
+        <v>-0.6392</v>
+      </c>
+      <c r="F927" t="n">
+        <v>-0.7842</v>
+      </c>
+      <c r="G927" t="n">
+        <v>2.1053</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="s">
+        <v>933</v>
+      </c>
+      <c r="B928" t="n">
+        <v>1.0938</v>
+      </c>
+      <c r="C928" t="n">
+        <v>1.9249</v>
+      </c>
+      <c r="D928" t="n">
+        <v>2.3336</v>
+      </c>
+      <c r="E928" t="n">
+        <v>1.0365</v>
+      </c>
+      <c r="F928" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G928" t="n">
+        <v>2.246</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="s">
+        <v>934</v>
+      </c>
+      <c r="B929" t="n">
+        <v>-0.918</v>
+      </c>
+      <c r="C929" t="n">
+        <v>0.7082</v>
+      </c>
+      <c r="D929" t="n">
+        <v>-0.8446</v>
+      </c>
+      <c r="E929" t="n">
+        <v>-1.6625</v>
+      </c>
+      <c r="F929" t="n">
+        <v>-1.8829</v>
+      </c>
+      <c r="G929" t="n">
+        <v>0.3961</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="s">
+        <v>935</v>
+      </c>
+      <c r="B930" t="n">
+        <v>-0.9596</v>
+      </c>
+      <c r="C930" t="n">
+        <v>3.2818</v>
+      </c>
+      <c r="D930" t="n">
+        <v>-0.4259</v>
+      </c>
+      <c r="E930" t="n">
+        <v>-1.6906</v>
+      </c>
+      <c r="F930" t="n">
+        <v>-1.919</v>
+      </c>
+      <c r="G930" t="n">
+        <v>0.4304</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="s">
+        <v>936</v>
+      </c>
+      <c r="B931" t="n">
+        <v>-1.1694</v>
+      </c>
+      <c r="C931" t="n">
+        <v>-2.0427</v>
+      </c>
+      <c r="D931" t="n">
+        <v>-3.1651</v>
+      </c>
+      <c r="E931" t="n">
+        <v>-1.7563</v>
+      </c>
+      <c r="F931" t="n">
+        <v>-4.0636</v>
+      </c>
+      <c r="G931" t="n">
+        <v>-1.2857</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="s">
+        <v>937</v>
+      </c>
+      <c r="B932" t="n">
+        <v>-2.0284</v>
+      </c>
+      <c r="C932" t="n">
+        <v>0.0927</v>
+      </c>
+      <c r="D932" t="n">
+        <v>-1.2809</v>
+      </c>
+      <c r="E932" t="n">
+        <v>1.4898</v>
+      </c>
+      <c r="F932" t="n">
+        <v>0.2913</v>
+      </c>
+      <c r="G932" t="n">
+        <v>-0.6512</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="s">
+        <v>938</v>
+      </c>
+      <c r="B933" t="n">
+        <v>0.6901</v>
+      </c>
+      <c r="C933" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="D933" t="n">
+        <v>0.3132</v>
+      </c>
+      <c r="E933" t="n">
+        <v>3.0826</v>
+      </c>
+      <c r="F933" t="n">
+        <v>-0.5363</v>
+      </c>
+      <c r="G933" t="n">
+        <v>-1.1653</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="s">
+        <v>939</v>
+      </c>
+      <c r="B934" t="n">
+        <v>-0.2742</v>
+      </c>
+      <c r="C934" t="n">
+        <v>-2.213</v>
+      </c>
+      <c r="D934" t="n">
+        <v>-0.6244</v>
+      </c>
+      <c r="E934" t="n">
+        <v>-1.8868</v>
+      </c>
+      <c r="F934" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="G934" t="n">
+        <v>1.916</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="s">
+        <v>940</v>
+      </c>
+      <c r="B935" t="n">
+        <v>-0.0344</v>
+      </c>
+      <c r="C935" t="n">
+        <v>0.5658</v>
+      </c>
+      <c r="D935" t="n">
+        <v>0</v>
+      </c>
+      <c r="E935" t="n">
+        <v>-1.1974</v>
+      </c>
+      <c r="F935" t="n">
+        <v>-2.1048</v>
+      </c>
+      <c r="G935" t="n">
+        <v>-1.0484</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="s">
+        <v>941</v>
+      </c>
+      <c r="B936" t="n">
+        <v>0.3094</v>
+      </c>
+      <c r="C936" t="n">
+        <v>0.8439</v>
+      </c>
+      <c r="D936" t="n">
+        <v>0.2693</v>
+      </c>
+      <c r="E936" t="n">
+        <v>1.6159</v>
+      </c>
+      <c r="F936" t="n">
+        <v>-7.0448</v>
+      </c>
+      <c r="G936" t="n">
+        <v>-1.1692</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="s">
+        <v>942</v>
+      </c>
+      <c r="B937" t="n">
+        <v>0.6854</v>
+      </c>
+      <c r="C937" t="n">
+        <v>-0.3719</v>
+      </c>
+      <c r="D937" t="n">
+        <v>-1.7905</v>
+      </c>
+      <c r="E937" t="n">
+        <v>0.6505</v>
+      </c>
+      <c r="F937" t="n">
+        <v>6.3484</v>
+      </c>
+      <c r="G937" t="n">
+        <v>-3.549</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="s">
+        <v>943</v>
+      </c>
+      <c r="B938" t="n">
+        <v>1.7018</v>
+      </c>
+      <c r="C938" t="n">
+        <v>1.5399</v>
+      </c>
+      <c r="D938" t="n">
+        <v>2.0055</v>
+      </c>
+      <c r="E938" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="F938" t="n">
+        <v>-0.6941</v>
+      </c>
+      <c r="G938" t="n">
+        <v>-1.1115</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="s">
+        <v>944</v>
+      </c>
+      <c r="B939" t="n">
+        <v>-1.3052</v>
+      </c>
+      <c r="C939" t="n">
+        <v>-1.011</v>
+      </c>
+      <c r="D939" t="n">
+        <v>1.5639</v>
+      </c>
+      <c r="E939" t="n">
+        <v>-1.1761</v>
+      </c>
+      <c r="F939" t="n">
+        <v>-2.1435</v>
+      </c>
+      <c r="G939" t="n">
+        <v>-1.9767</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="s">
+        <v>945</v>
+      </c>
+      <c r="B940" t="n">
+        <v>0.0678</v>
+      </c>
+      <c r="C940" t="n">
+        <v>-1.0678</v>
+      </c>
+      <c r="D940" t="n">
+        <v>0.5279</v>
+      </c>
+      <c r="E940" t="n">
+        <v>-1.5867</v>
+      </c>
+      <c r="F940" t="n">
+        <v>-1.4048</v>
+      </c>
+      <c r="G940" t="n">
+        <v>0.0395</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="s">
+        <v>946</v>
+      </c>
+      <c r="B941" t="n">
+        <v>-0.6777</v>
+      </c>
+      <c r="C941" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D941" t="n">
+        <v>0.6565</v>
+      </c>
+      <c r="E941" t="n">
+        <v>-0.3298</v>
+      </c>
+      <c r="F941" t="n">
+        <v>0.2173</v>
+      </c>
+      <c r="G941" t="n">
+        <v>-0.1186</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="s">
+        <v>947</v>
+      </c>
+      <c r="B942" t="n">
+        <v>2.0759</v>
+      </c>
+      <c r="C942" t="n">
+        <v>0.5597</v>
+      </c>
+      <c r="D942" t="n">
+        <v>1.3478</v>
+      </c>
+      <c r="E942" t="n">
+        <v>3.3456</v>
+      </c>
+      <c r="F942" t="n">
+        <v>-0.1687</v>
+      </c>
+      <c r="G942" t="n">
+        <v>0.9102</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="s">
+        <v>948</v>
+      </c>
+      <c r="B943" t="n">
+        <v>1.0774</v>
+      </c>
+      <c r="C943" t="n">
+        <v>1.8089</v>
+      </c>
+      <c r="D943" t="n">
+        <v>1.6302</v>
+      </c>
+      <c r="E943" t="n">
+        <v>-0.3202</v>
+      </c>
+      <c r="F943" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="G943" t="n">
+        <v>-0.7451</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="s">
+        <v>949</v>
+      </c>
+      <c r="B944" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C944" t="n">
+        <v>3.3713</v>
+      </c>
+      <c r="D944" t="n">
+        <v>1.5196</v>
+      </c>
+      <c r="E944" t="n">
+        <v>1.7844</v>
+      </c>
+      <c r="F944" t="n">
+        <v>0.5834</v>
+      </c>
+      <c r="G944" t="n">
+        <v>3.1213</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="s">
+        <v>950</v>
+      </c>
+      <c r="B945" t="n">
+        <v>-1.2745</v>
+      </c>
+      <c r="C945" t="n">
+        <v>0.7052</v>
+      </c>
+      <c r="D945" t="n">
+        <v>-0.2911</v>
+      </c>
+      <c r="E945" t="n">
+        <v>0</v>
+      </c>
+      <c r="F945" t="n">
+        <v>-1.1116</v>
+      </c>
+      <c r="G945" t="n">
+        <v>-0.4981</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="s">
+        <v>951</v>
+      </c>
+      <c r="B946" t="n">
+        <v>0.8275</v>
+      </c>
+      <c r="C946" t="n">
+        <v>0.6127</v>
+      </c>
+      <c r="D946" t="n">
+        <v>0.2919</v>
+      </c>
+      <c r="E946" t="n">
+        <v>2.0337</v>
+      </c>
+      <c r="F946" t="n">
+        <v>1.7107</v>
+      </c>
+      <c r="G946" t="n">
+        <v>1.1552</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="s">
+        <v>952</v>
+      </c>
+      <c r="B947" t="n">
+        <v>0.4268</v>
+      </c>
+      <c r="C947" t="n">
+        <v>-1.6529</v>
+      </c>
+      <c r="D947" t="n">
+        <v>0.9979</v>
+      </c>
+      <c r="E947" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="F947" t="n">
+        <v>0.9611</v>
+      </c>
+      <c r="G947" t="n">
+        <v>-0.4949</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="s">
+        <v>953</v>
+      </c>
+      <c r="B948" t="n">
+        <v>0.1308</v>
+      </c>
+      <c r="C948" t="n">
+        <v>1.1942</v>
+      </c>
+      <c r="D948" t="n">
+        <v>0.3705</v>
+      </c>
+      <c r="E948" t="n">
+        <v>0.6148</v>
+      </c>
+      <c r="F948" t="n">
+        <v>-0.8567</v>
+      </c>
+      <c r="G948" t="n">
+        <v>2.5249</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="s">
+        <v>954</v>
+      </c>
+      <c r="B949" t="n">
+        <v>0.3918</v>
+      </c>
+      <c r="C949" t="n">
+        <v>0.2622</v>
+      </c>
+      <c r="D949" t="n">
+        <v>0.4512</v>
+      </c>
+      <c r="E949" t="n">
+        <v>1.5275</v>
+      </c>
+      <c r="F949" t="n">
+        <v>1.1522</v>
+      </c>
+      <c r="G949" t="n">
+        <v>-1.6791</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="s">
+        <v>955</v>
+      </c>
+      <c r="B950" t="n">
+        <v>0.2602</v>
+      </c>
+      <c r="C950" t="n">
+        <v>1.4385</v>
+      </c>
+      <c r="D950" t="n">
+        <v>-0.7758</v>
+      </c>
+      <c r="E950" t="n">
+        <v>-0.2006</v>
+      </c>
+      <c r="F950" t="n">
+        <v>1.1153</v>
+      </c>
+      <c r="G950" t="n">
+        <v>-0.7211</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="s">
+        <v>956</v>
+      </c>
+      <c r="B951" t="n">
+        <v>-0.0324</v>
+      </c>
+      <c r="C951" t="n">
+        <v>1.633</v>
+      </c>
+      <c r="D951" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="E951" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="F951" t="n">
+        <v>-0.7275</v>
+      </c>
+      <c r="G951" t="n">
+        <v>-0.9557</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="s">
+        <v>957</v>
+      </c>
+      <c r="B952" t="n">
+        <v>-0.292</v>
+      </c>
+      <c r="C952" t="n">
+        <v>-2.0296</v>
+      </c>
+      <c r="D952" t="n">
+        <v>-0.2857</v>
+      </c>
+      <c r="E952" t="n">
+        <v>-1.3922</v>
+      </c>
+      <c r="F952" t="n">
+        <v>-0.0709</v>
+      </c>
+      <c r="G952" t="n">
+        <v>0.0772</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="s">
+        <v>958</v>
+      </c>
+      <c r="B953" t="n">
+        <v>0.1952</v>
+      </c>
+      <c r="C953" t="n">
+        <v>-0.4747</v>
+      </c>
+      <c r="D953" t="n">
+        <v>-0.9005</v>
+      </c>
+      <c r="E953" t="n">
+        <v>-2.2383</v>
+      </c>
+      <c r="F953" t="n">
+        <v>0.7334</v>
+      </c>
+      <c r="G953" t="n">
+        <v>-0.5785</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="s">
+        <v>959</v>
+      </c>
+      <c r="B954" t="n">
+        <v>-0.9094</v>
+      </c>
+      <c r="C954" t="n">
+        <v>-5.5507</v>
+      </c>
+      <c r="D954" t="n">
+        <v>1.0326</v>
+      </c>
+      <c r="E954" t="n">
+        <v>1.5851</v>
+      </c>
+      <c r="F954" t="n">
+        <v>-8.2903</v>
+      </c>
+      <c r="G954" t="n">
+        <v>-0.6206</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="s">
+        <v>960</v>
+      </c>
+      <c r="B955" t="n">
+        <v>0.4589</v>
+      </c>
+      <c r="C955" t="n">
+        <v>-0.4132</v>
+      </c>
+      <c r="D955" t="n">
+        <v>0.4088</v>
+      </c>
+      <c r="E955" t="n">
+        <v>-0.5201</v>
+      </c>
+      <c r="F955" t="n">
+        <v>5.4033</v>
+      </c>
+      <c r="G955" t="n">
+        <v>2.0297</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="s">
+        <v>961</v>
+      </c>
+      <c r="B956" t="n">
+        <v>0.5546</v>
+      </c>
+      <c r="C956" t="n">
+        <v>-0.5071</v>
+      </c>
+      <c r="D956" t="n">
+        <v>-0.1629</v>
+      </c>
+      <c r="E956" t="n">
+        <v>1.2548</v>
+      </c>
+      <c r="F956" t="n">
+        <v>2.9155</v>
+      </c>
+      <c r="G956" t="n">
+        <v>-1.1094</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="s">
+        <v>962</v>
+      </c>
+      <c r="B957" t="n">
+        <v>1.233</v>
+      </c>
+      <c r="C957" t="n">
+        <v>-0.3244</v>
+      </c>
+      <c r="D957" t="n">
+        <v>-0.0408</v>
+      </c>
+      <c r="E957" t="n">
+        <v>1.7212</v>
+      </c>
+      <c r="F957" t="n">
+        <v>-2.4788</v>
+      </c>
+      <c r="G957" t="n">
+        <v>0.8897</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="s">
+        <v>963</v>
+      </c>
+      <c r="B958" t="n">
+        <v>-0.2564</v>
+      </c>
+      <c r="C958" t="n">
+        <v>0.4649</v>
+      </c>
+      <c r="D958" t="n">
+        <v>-0.2448</v>
+      </c>
+      <c r="E958" t="n">
+        <v>2.8765</v>
+      </c>
+      <c r="F958" t="n">
+        <v>-0.0968</v>
+      </c>
+      <c r="G958" t="n">
+        <v>3.4509</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="s">
+        <v>964</v>
+      </c>
+      <c r="B959" t="n">
+        <v>0.4177</v>
+      </c>
+      <c r="C959" t="n">
+        <v>1.2957</v>
+      </c>
+      <c r="D959" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="E959" t="n">
+        <v>-1.1184</v>
+      </c>
+      <c r="F959" t="n">
+        <v>-2.9319</v>
+      </c>
+      <c r="G959" t="n">
+        <v>2.5204</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="s">
+        <v>965</v>
+      </c>
+      <c r="B960" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C960" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="D960" t="n">
+        <v>1.4257</v>
+      </c>
+      <c r="E960" t="n">
+        <v>0.1331</v>
+      </c>
+      <c r="F960" t="n">
+        <v>0.8238</v>
+      </c>
+      <c r="G960" t="n">
+        <v>-1.0484</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="s">
+        <v>966</v>
+      </c>
+      <c r="B961" t="n">
+        <v>-0.6984</v>
+      </c>
+      <c r="C961" t="n">
+        <v>0.5459</v>
+      </c>
+      <c r="D961" t="n">
+        <v>0.0803</v>
+      </c>
+      <c r="E961" t="n">
+        <v>-2.8571</v>
+      </c>
+      <c r="F961" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="G961" t="n">
+        <v>0.5846</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="s">
+        <v>967</v>
+      </c>
+      <c r="B962" t="n">
+        <v>0.9271</v>
+      </c>
+      <c r="C962" t="n">
+        <v>1.3575</v>
+      </c>
+      <c r="D962" t="n">
+        <v>0.1605</v>
+      </c>
+      <c r="E962" t="n">
+        <v>-4.959</v>
+      </c>
+      <c r="F962" t="n">
+        <v>-2.1632</v>
+      </c>
+      <c r="G962" t="n">
+        <v>-0.5085</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="s">
+        <v>968</v>
+      </c>
+      <c r="B963" t="n">
+        <v>0.5068</v>
+      </c>
+      <c r="C963" t="n">
+        <v>1.2946</v>
+      </c>
+      <c r="D963" t="n">
+        <v>6.0497</v>
+      </c>
+      <c r="E963" t="n">
+        <v>1.4754</v>
+      </c>
+      <c r="F963" t="n">
+        <v>-0.7035</v>
+      </c>
+      <c r="G963" t="n">
+        <v>-1.789</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="s">
+        <v>969</v>
+      </c>
+      <c r="B964" t="n">
+        <v>0.6303</v>
+      </c>
+      <c r="C964" t="n">
+        <v>0.7492</v>
+      </c>
+      <c r="D964" t="n">
+        <v>-2.0401</v>
+      </c>
+      <c r="E964" t="n">
+        <v>0.0709</v>
+      </c>
+      <c r="F964" t="n">
+        <v>0.5061</v>
+      </c>
+      <c r="G964" t="n">
+        <v>-2.974</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="s">
+        <v>970</v>
+      </c>
+      <c r="B965" t="n">
+        <v>0.3445</v>
+      </c>
+      <c r="C965" t="n">
+        <v>1.0499</v>
+      </c>
+      <c r="D965" t="n">
+        <v>-3.0467</v>
+      </c>
+      <c r="E965" t="n">
+        <v>-3.8979</v>
+      </c>
+      <c r="F965" t="n">
+        <v>-2.4925</v>
+      </c>
+      <c r="G965" t="n">
+        <v>-0.1916</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="s">
+        <v>971</v>
+      </c>
+      <c r="B966" t="n">
+        <v>-0.6242</v>
+      </c>
+      <c r="C966" t="n">
+        <v>-0.8225</v>
+      </c>
+      <c r="D966" t="n">
+        <v>0.2387</v>
+      </c>
+      <c r="E966" t="n">
+        <v>0.0369</v>
+      </c>
+      <c r="F966" t="n">
+        <v>2.6336</v>
+      </c>
+      <c r="G966" t="n">
+        <v>-0.1535</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="s">
+        <v>972</v>
+      </c>
+      <c r="B967" t="n">
+        <v>1.3505</v>
+      </c>
+      <c r="C967" t="n">
+        <v>-0.1309</v>
+      </c>
+      <c r="D967" t="n">
+        <v>-0.7937</v>
+      </c>
+      <c r="E967" t="n">
+        <v>2.5433</v>
+      </c>
+      <c r="F967" t="n">
+        <v>1.3836</v>
+      </c>
+      <c r="G967" t="n">
+        <v>-2.0377</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="s">
+        <v>973</v>
+      </c>
+      <c r="B968" t="n">
+        <v>-0.3099</v>
+      </c>
+      <c r="C968" t="n">
+        <v>-1.0052</v>
+      </c>
+      <c r="D968" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E968" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="F968" t="n">
+        <v>-0.8685</v>
+      </c>
+      <c r="G968" t="n">
+        <v>0.0392</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="s">
+        <v>974</v>
+      </c>
+      <c r="B969" t="n">
+        <v>0.7149</v>
+      </c>
+      <c r="C969" t="n">
+        <v>-0.9713</v>
+      </c>
+      <c r="D969" t="n">
+        <v>-1.6876</v>
+      </c>
+      <c r="E969" t="n">
+        <v>-1.9369</v>
+      </c>
+      <c r="F969" t="n">
+        <v>2.0776</v>
+      </c>
+      <c r="G969" t="n">
+        <v>-1.6477</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="s">
+        <v>975</v>
+      </c>
+      <c r="B970" t="n">
+        <v>-0.679</v>
+      </c>
+      <c r="C970" t="n">
+        <v>2.8087</v>
+      </c>
+      <c r="D970" t="n">
+        <v>1.0379</v>
+      </c>
+      <c r="E970" t="n">
+        <v>-3.4016</v>
+      </c>
+      <c r="F970" t="n">
+        <v>-2.1334</v>
+      </c>
+      <c r="G970" t="n">
+        <v>-0.3989</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="s">
+        <v>976</v>
+      </c>
+      <c r="B971" t="n">
+        <v>-0.8701</v>
+      </c>
+      <c r="C971" t="n">
+        <v>-0.7372</v>
+      </c>
+      <c r="D971" t="n">
+        <v>-2.5286</v>
+      </c>
+      <c r="E971" t="n">
+        <v>-3.9379</v>
+      </c>
+      <c r="F971" t="n">
+        <v>-4.0341</v>
+      </c>
+      <c r="G971" t="n">
+        <v>-0.6007</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="s">
+        <v>977</v>
+      </c>
+      <c r="B972" t="n">
+        <v>-0.4702</v>
+      </c>
+      <c r="C972" t="n">
+        <v>0.2184</v>
+      </c>
+      <c r="D972" t="n">
+        <v>-1.5403</v>
+      </c>
+      <c r="E972" t="n">
+        <v>1.8132</v>
+      </c>
+      <c r="F972" t="n">
+        <v>2.611</v>
+      </c>
+      <c r="G972" t="n">
+        <v>0.2015</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="s">
+        <v>978</v>
+      </c>
+      <c r="B973" t="n">
+        <v>0.6614</v>
+      </c>
+      <c r="C973" t="n">
+        <v>0.8718</v>
+      </c>
+      <c r="D973" t="n">
+        <v>0.3294</v>
+      </c>
+      <c r="E973" t="n">
+        <v>0.9292</v>
+      </c>
+      <c r="F973" t="n">
+        <v>1.4758</v>
+      </c>
+      <c r="G973" t="n">
+        <v>0.201</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="s">
+        <v>979</v>
+      </c>
+      <c r="B974" t="n">
+        <v>-1.1264</v>
+      </c>
+      <c r="C974" t="n">
+        <v>-4.9265</v>
+      </c>
+      <c r="D974" t="n">
+        <v>-6.2372</v>
+      </c>
+      <c r="E974" t="n">
+        <v>-0.8822</v>
+      </c>
+      <c r="F974" t="n">
+        <v>-0.4263</v>
+      </c>
+      <c r="G974" t="n">
+        <v>-6.5008</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="s">
+        <v>980</v>
+      </c>
+      <c r="B975" t="n">
+        <v>0.1582</v>
+      </c>
+      <c r="C975" t="n">
+        <v>-0.2727</v>
+      </c>
+      <c r="D975" t="n">
+        <v>-2.9759</v>
+      </c>
+      <c r="E975" t="n">
+        <v>-1.3158</v>
+      </c>
+      <c r="F975" t="n">
+        <v>-2.896</v>
+      </c>
+      <c r="G975" t="n">
+        <v>2.9614</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="s">
+        <v>981</v>
+      </c>
+      <c r="B976" t="n">
+        <v>0.4423</v>
+      </c>
+      <c r="C976" t="n">
+        <v>-1.2762</v>
+      </c>
+      <c r="D976" t="n">
+        <v>0.1353</v>
+      </c>
+      <c r="E976" t="n">
+        <v>-0.4706</v>
+      </c>
+      <c r="F976" t="n">
+        <v>-2.2303</v>
+      </c>
+      <c r="G976" t="n">
+        <v>-1.7924</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="s">
+        <v>982</v>
+      </c>
+      <c r="B977" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="C977" t="n">
+        <v>3.4626</v>
+      </c>
+      <c r="D977" t="n">
+        <v>4.5946</v>
+      </c>
+      <c r="E977" t="n">
+        <v>0.7486</v>
+      </c>
+      <c r="F977" t="n">
+        <v>-0.9549</v>
+      </c>
+      <c r="G977" t="n">
+        <v>2.1222</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="s">
+        <v>983</v>
+      </c>
+      <c r="B978" t="n">
+        <v>0.7156</v>
+      </c>
+      <c r="C978" t="n">
+        <v>-0.0893</v>
+      </c>
+      <c r="D978" t="n">
+        <v>-0.4737</v>
+      </c>
+      <c r="E978" t="n">
+        <v>-4.0673</v>
+      </c>
+      <c r="F978" t="n">
+        <v>-0.7231</v>
+      </c>
+      <c r="G978" t="n">
+        <v>-0.9144</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="s">
+        <v>984</v>
+      </c>
+      <c r="B979" t="n">
+        <v>-0.2471</v>
+      </c>
+      <c r="C979" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="D979" t="n">
+        <v>-1.2549</v>
+      </c>
+      <c r="E979" t="n">
+        <v>0.1631</v>
+      </c>
+      <c r="F979" t="n">
+        <v>-3.1292</v>
+      </c>
+      <c r="G979" t="n">
+        <v>-0.0839</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="s">
+        <v>985</v>
+      </c>
+      <c r="B980" t="n">
+        <v>0.3407</v>
+      </c>
+      <c r="C980" t="n">
+        <v>2.4086</v>
+      </c>
+      <c r="D980" t="n">
+        <v>0.7011</v>
+      </c>
+      <c r="E980" t="n">
+        <v>-1.2617</v>
+      </c>
+      <c r="F980" t="n">
+        <v>0.0557</v>
+      </c>
+      <c r="G980" t="n">
+        <v>1.0076</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="s">
+        <v>986</v>
+      </c>
+      <c r="B981" t="n">
+        <v>1.4506</v>
+      </c>
+      <c r="C981" t="n">
+        <v>0.8275</v>
+      </c>
+      <c r="D981" t="n">
+        <v>3.1767</v>
+      </c>
+      <c r="E981" t="n">
+        <v>5.4411</v>
+      </c>
+      <c r="F981" t="n">
+        <v>5.6777</v>
+      </c>
+      <c r="G981" t="n">
+        <v>3.2003</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="s">
+        <v>987</v>
+      </c>
+      <c r="B982" t="n">
+        <v>0.4563</v>
+      </c>
+      <c r="C982" t="n">
+        <v>-1.0799</v>
+      </c>
+      <c r="D982" t="n">
+        <v>0.2109</v>
+      </c>
+      <c r="E982" t="n">
+        <v>2.7756</v>
+      </c>
+      <c r="F982" t="n">
+        <v>-0.079</v>
+      </c>
+      <c r="G982" t="n">
+        <v>-0.1611</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="s">
+        <v>988</v>
+      </c>
+      <c r="B983" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="C983" t="n">
+        <v>-1.1354</v>
+      </c>
+      <c r="D983" t="n">
+        <v>-0.7997</v>
+      </c>
+      <c r="E983" t="n">
+        <v>0.4564</v>
+      </c>
+      <c r="F983" t="n">
+        <v>0.8171</v>
+      </c>
+      <c r="G983" t="n">
+        <v>-1.7749</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="s">
+        <v>989</v>
+      </c>
+      <c r="B984" t="n">
+        <v>0.1201</v>
+      </c>
+      <c r="C984" t="n">
+        <v>-0.3975</v>
+      </c>
+      <c r="D984" t="n">
+        <v>-1.7819</v>
+      </c>
+      <c r="E984" t="n">
+        <v>-4.6195</v>
+      </c>
+      <c r="F984" t="n">
+        <v>0.6536</v>
+      </c>
+      <c r="G984" t="n">
+        <v>-1.2731</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="s">
+        <v>990</v>
+      </c>
+      <c r="B985" t="n">
+        <v>-1.1698</v>
+      </c>
+      <c r="C985" t="n">
+        <v>-2.306</v>
+      </c>
+      <c r="D985" t="n">
+        <v>0.1728</v>
+      </c>
+      <c r="E985" t="n">
+        <v>-0.794</v>
+      </c>
+      <c r="F985" t="n">
+        <v>0.1558</v>
+      </c>
+      <c r="G985" t="n">
+        <v>-2.1215</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="s">
+        <v>991</v>
+      </c>
+      <c r="B986" t="n">
+        <v>-2.0637</v>
+      </c>
+      <c r="C986" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="D986" t="n">
+        <v>-2.8029</v>
+      </c>
+      <c r="E986" t="n">
+        <v>-4.3617</v>
+      </c>
+      <c r="F986" t="n">
+        <v>-2.8268</v>
+      </c>
+      <c r="G986" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="s">
+        <v>992</v>
+      </c>
+      <c r="B987" t="n">
+        <v>-0.2169</v>
+      </c>
+      <c r="C987" t="n">
+        <v>-1.2228</v>
+      </c>
+      <c r="D987" t="n">
+        <v>0.4437</v>
+      </c>
+      <c r="E987" t="n">
+        <v>1.0879</v>
+      </c>
+      <c r="F987" t="n">
+        <v>2.9624</v>
+      </c>
+      <c r="G987" t="n">
+        <v>-0.2563</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="s">
+        <v>993</v>
+      </c>
+      <c r="B988" t="n">
+        <v>1.1491</v>
+      </c>
+      <c r="C988" t="n">
+        <v>2.6593</v>
+      </c>
+      <c r="D988" t="n">
+        <v>2.0318</v>
+      </c>
+      <c r="E988" t="n">
+        <v>2.856</v>
+      </c>
+      <c r="F988" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="G988" t="n">
+        <v>0.257</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="s">
+        <v>994</v>
+      </c>
+      <c r="B989" t="n">
+        <v>-1.7194</v>
+      </c>
+      <c r="C989" t="n">
+        <v>-3.2604</v>
+      </c>
+      <c r="D989" t="n">
+        <v>-1.4719</v>
+      </c>
+      <c r="E989" t="n">
+        <v>-0.6036</v>
+      </c>
+      <c r="F989" t="n">
+        <v>2.7471</v>
+      </c>
+      <c r="G989" t="n">
+        <v>-1.1534</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="s">
+        <v>995</v>
+      </c>
+      <c r="B990" t="n">
+        <v>-1.5932</v>
+      </c>
+      <c r="C990" t="n">
+        <v>-1.7082</v>
+      </c>
+      <c r="D990" t="n">
+        <v>-1.5378</v>
+      </c>
+      <c r="E990" t="n">
+        <v>2.8745</v>
+      </c>
+      <c r="F990" t="n">
+        <v>-4.2229</v>
+      </c>
+      <c r="G990" t="n">
+        <v>-0.9507</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="s">
+        <v>996</v>
+      </c>
+      <c r="B991" t="n">
+        <v>1.1746</v>
+      </c>
+      <c r="C991" t="n">
+        <v>2.2076</v>
+      </c>
+      <c r="D991" t="n">
+        <v>4.3284</v>
+      </c>
+      <c r="E991" t="n">
+        <v>1.3381</v>
+      </c>
+      <c r="F991" t="n">
+        <v>0.5479</v>
+      </c>
+      <c r="G991" t="n">
+        <v>4.1449</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="s">
+        <v>997</v>
+      </c>
+      <c r="B992" t="n">
+        <v>-0.251</v>
+      </c>
+      <c r="C992" t="n">
+        <v>-0.7353</v>
+      </c>
+      <c r="D992" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="E992" t="n">
+        <v>1.0874</v>
+      </c>
+      <c r="F992" t="n">
+        <v>3.8661</v>
+      </c>
+      <c r="G992" t="n">
+        <v>2.2204</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="s">
+        <v>998</v>
+      </c>
+      <c r="B993" t="n">
+        <v>-0.1258</v>
+      </c>
+      <c r="C993" t="n">
+        <v>3.1944</v>
+      </c>
+      <c r="D993" t="n">
+        <v>1.9566</v>
+      </c>
+      <c r="E993" t="n">
+        <v>-0.3073</v>
+      </c>
+      <c r="F993" t="n">
+        <v>0.2498</v>
+      </c>
+      <c r="G993" t="n">
+        <v>2.8689</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="s">
+        <v>999</v>
+      </c>
+      <c r="B994" t="n">
+        <v>1.0709</v>
+      </c>
+      <c r="C994" t="n">
+        <v>1.3908</v>
+      </c>
+      <c r="D994" t="n">
+        <v>0.8344</v>
+      </c>
+      <c r="E994" t="n">
+        <v>0.0385</v>
+      </c>
+      <c r="F994" t="n">
+        <v>2.5667</v>
+      </c>
+      <c r="G994" t="n">
+        <v>0.0797</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B995" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="C995" t="n">
+        <v>-0.3982</v>
+      </c>
+      <c r="D995" t="n">
+        <v>1.5308</v>
+      </c>
+      <c r="E995" t="n">
+        <v>0.5008</v>
+      </c>
+      <c r="F995" t="n">
+        <v>-1.4091</v>
+      </c>
+      <c r="G995" t="n">
+        <v>-0.4777</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B996" t="n">
+        <v>0.0622</v>
+      </c>
+      <c r="C996" t="n">
+        <v>0.3554</v>
+      </c>
+      <c r="D996" t="n">
+        <v>-0.489</v>
+      </c>
+      <c r="E996" t="n">
+        <v>-0.4216</v>
+      </c>
+      <c r="F996" t="n">
+        <v>1.6264</v>
+      </c>
+      <c r="G996" t="n">
+        <v>-1.36</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B997" t="n">
+        <v>0.4041</v>
+      </c>
+      <c r="C997" t="n">
+        <v>0</v>
+      </c>
+      <c r="D997" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="E997" t="n">
+        <v>1.2317</v>
+      </c>
+      <c r="F997" t="n">
+        <v>-0.2667</v>
+      </c>
+      <c r="G997" t="n">
+        <v>1.3787</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B998" t="n">
+        <v>0.1858</v>
+      </c>
+      <c r="C998" t="n">
+        <v>1.5494</v>
+      </c>
+      <c r="D998" t="n">
+        <v>3.6431</v>
+      </c>
+      <c r="E998" t="n">
+        <v>-1.1407</v>
+      </c>
+      <c r="F998" t="n">
+        <v>1.0941</v>
+      </c>
+      <c r="G998" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B999" t="n">
+        <v>0.5562</v>
+      </c>
+      <c r="C999" t="n">
+        <v>3.0514</v>
+      </c>
+      <c r="D999" t="n">
+        <v>1.4613</v>
+      </c>
+      <c r="E999" t="n">
+        <v>-1.8077</v>
+      </c>
+      <c r="F999" t="n">
+        <v>-1.2025</v>
+      </c>
+      <c r="G999" t="n">
+        <v>1.4855</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>0.8298</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>2.5804</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>1.4792</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>-1.2143</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>0.9494</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>-0.4623</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>-1.4845</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>-4.5263</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>-3.8462</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>-4.5575</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>-1.3545</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>-0.9627</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>-5.2632</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>-2.1856</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>-1.2127</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>-1.3731</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>-0.7587</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>1.6906</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>-3.0958</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>-0.4216</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>-3.7596</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>0.3978</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>0.4587</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>1.9119</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>2.9322</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>1.1854</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>4.1456</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>2.8526</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>0.5175</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>3.0587</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>0.2551</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>0.2092</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>0.1531</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>2.2342</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>1.5445</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>2.6909</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>0.1272</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>-4.3841</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>-1.3503</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>0.7159</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>0.2982</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>0.1927</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>-4.0661</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>0.0873</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>0.6715</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>-1.5338</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>-1.2786</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>-1.2308</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>3.2671</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>0.7417</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>1.0775</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>-1.5361</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>0.4673</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>-0.513</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>-0.7362</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>-3.1472</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>-2.7314</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>1.4072</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>-0.155</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>-0.3438</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>0.0436</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>1.9392</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>1.4821</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>-1.3876</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>0.1553</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>-1.1643</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>0.9158</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>1.5424</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>0.4612</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>-1.1318</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>-2.0155</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>-2.356</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>-3.414</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>0.3544</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>-3.0222</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>-2.63</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>-2.057</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>-5.1385</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>-3.9821</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>-6.559</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>-4.2604</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>-4.1945</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>1.6155</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>0.6123</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>-0.7922</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>0.7559</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>2.3898</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>2.2515</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>0.7949</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>2.9963</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>3.3819</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>5.9218</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>2.6157</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>-0.098</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>1.0252</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>4.3636</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>-1.9991</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>-0.0759</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>-1.0196</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>0.2943</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>-1.249</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>-4.9652</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>-0.5563</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>-2.1772</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>-2.0998</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>2.0215</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>1.1067</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>1.4665</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>4.0093</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>2.8986</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>0.1619</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>0.1918</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>0.6646</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>-1.1292</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>0.6275</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>-0.2767</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>4.8889</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>0.3828</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>-0.0388</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>2.2841</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>2.8062</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>1.8411</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>4.3914</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/DK aktiekurser.xlsx
+++ b/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="1027">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -3090,6 +3090,9 @@
   </si>
   <si>
     <t xml:space="preserve">2022-02-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-03</t>
   </si>
 </sst>
 </file>
@@ -3455,7 +3458,7 @@
         <v>0.0641</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5356</v>
+        <v>-0.5357</v>
       </c>
       <c r="D2" t="n">
         <v>1.0318</v>
@@ -3475,7 +3478,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0891</v>
+        <v>1.089</v>
       </c>
       <c r="C3" t="n">
         <v>0.8699</v>
@@ -3613,7 +3616,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6369</v>
+        <v>-0.637</v>
       </c>
       <c r="C9" t="n">
         <v>-0.6781</v>
@@ -3639,7 +3642,7 @@
         <v>0.1923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.763</v>
+        <v>0.7631</v>
       </c>
       <c r="D10" t="n">
         <v>-2.4021</v>
@@ -3820,7 +3823,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.649</v>
+        <v>-1.6491</v>
       </c>
       <c r="C18" t="n">
         <v>-2.8106</v>
@@ -3935,10 +3938,10 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.7539</v>
+        <v>-0.754</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.5749</v>
+        <v>-0.575</v>
       </c>
       <c r="D23" t="n">
         <v>0.3962</v>
@@ -4007,7 +4010,7 @@
         <v>-1.8119</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.5317</v>
+        <v>-2.5316</v>
       </c>
       <c r="D26" t="n">
         <v>0.6725</v>
@@ -4062,7 +4065,7 @@
         <v>-1.5858</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.9297</v>
+        <v>-1.9298</v>
       </c>
       <c r="G28" t="n">
         <v>-1.5517</v>
@@ -4211,7 +4214,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.4144</v>
+        <v>-0.4143</v>
       </c>
       <c r="C35" t="n">
         <v>0.1206</v>
@@ -4303,7 +4306,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>1.0981</v>
+        <v>1.0982</v>
       </c>
       <c r="C39" t="n">
         <v>0.6478</v>
@@ -4464,7 +4467,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2781</v>
+        <v>0.2782</v>
       </c>
       <c r="C46" t="n">
         <v>-0.3705</v>
@@ -4510,7 +4513,7 @@
         <v>53</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8922</v>
+        <v>0.8923</v>
       </c>
       <c r="C48" t="n">
         <v>-0.1634</v>
@@ -4522,7 +4525,7 @@
         <v>0.84</v>
       </c>
       <c r="F48" t="n">
-        <v>2.9232</v>
+        <v>2.9231</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -4614,10 +4617,10 @@
         <v>0.6375</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4757</v>
+        <v>0.4756</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.623</v>
+        <v>-0.6231</v>
       </c>
     </row>
     <row r="53">
@@ -4694,7 +4697,7 @@
         <v>61</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.0702</v>
+        <v>-0.0703</v>
       </c>
       <c r="C56" t="n">
         <v>-0.0425</v>
@@ -4786,7 +4789,7 @@
         <v>65</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.0721</v>
+        <v>-0.0722</v>
       </c>
       <c r="C60" t="n">
         <v>-0.9649</v>
@@ -4855,7 +4858,7 @@
         <v>68</v>
       </c>
       <c r="B63" t="n">
-        <v>0.2135</v>
+        <v>0.2136</v>
       </c>
       <c r="C63" t="n">
         <v>-0.3993</v>
@@ -4901,7 +4904,7 @@
         <v>70</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7173</v>
+        <v>0.7174</v>
       </c>
       <c r="C65" t="n">
         <v>1.167</v>
@@ -4924,7 +4927,7 @@
         <v>71</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.4273</v>
+        <v>-0.4274</v>
       </c>
       <c r="C66" t="n">
         <v>-0.7542</v>
@@ -4985,7 +4988,7 @@
         <v>1.0859</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1383</v>
+        <v>0.1382</v>
       </c>
     </row>
     <row r="69">
@@ -5008,7 +5011,7 @@
         <v>-0.7813</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.8284</v>
+        <v>-0.8283</v>
       </c>
     </row>
     <row r="70">
@@ -5062,7 +5065,7 @@
         <v>77</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6466</v>
+        <v>0.6465</v>
       </c>
       <c r="C72" t="n">
         <v>0.0905</v>
@@ -5226,7 +5229,7 @@
         <v>-0.2079</v>
       </c>
       <c r="C79" t="n">
-        <v>-3.0572</v>
+        <v>-3.0571</v>
       </c>
       <c r="D79" t="n">
         <v>-0.7913</v>
@@ -5315,7 +5318,7 @@
         <v>88</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3429</v>
+        <v>0.343</v>
       </c>
       <c r="C83" t="n">
         <v>0.0459</v>
@@ -5376,7 +5379,7 @@
         <v>1.2717</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1826</v>
+        <v>0.1827</v>
       </c>
     </row>
     <row r="86">
@@ -5568,7 +5571,7 @@
         <v>99</v>
       </c>
       <c r="B94" t="n">
-        <v>1.1798</v>
+        <v>1.1797</v>
       </c>
       <c r="C94" t="n">
         <v>-0.1849</v>
@@ -5695,7 +5698,7 @@
         <v>0.3147</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.7812</v>
+        <v>-0.7813</v>
       </c>
       <c r="G99" t="n">
         <v>-0.4138</v>
@@ -5836,7 +5839,7 @@
         <v>-0.6375</v>
       </c>
       <c r="G105" t="n">
-        <v>1.4116</v>
+        <v>1.4117</v>
       </c>
     </row>
     <row r="106">
@@ -5982,7 +5985,7 @@
         <v>117</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.7334</v>
+        <v>-0.7333</v>
       </c>
       <c r="C112" t="n">
         <v>-2.112</v>
@@ -6028,7 +6031,7 @@
         <v>119</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4011</v>
+        <v>0.401</v>
       </c>
       <c r="C114" t="n">
         <v>-0.9962</v>
@@ -6066,7 +6069,7 @@
         <v>0.8597</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.5837</v>
+        <v>-0.5838</v>
       </c>
     </row>
     <row r="116">
@@ -6112,7 +6115,7 @@
         <v>-0.8856</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.98</v>
+        <v>-0.9799</v>
       </c>
     </row>
     <row r="118">
@@ -6189,7 +6192,7 @@
         <v>126</v>
       </c>
       <c r="B121" t="n">
-        <v>1.2847</v>
+        <v>1.2846</v>
       </c>
       <c r="C121" t="n">
         <v>0.5791</v>
@@ -6442,7 +6445,7 @@
         <v>137</v>
       </c>
       <c r="B132" t="n">
-        <v>0.195</v>
+        <v>0.1951</v>
       </c>
       <c r="C132" t="n">
         <v>-0.1031</v>
@@ -6477,7 +6480,7 @@
         <v>2.2936</v>
       </c>
       <c r="F133" t="n">
-        <v>2.0199</v>
+        <v>2.0198</v>
       </c>
       <c r="G133" t="n">
         <v>-0.1794</v>
@@ -6569,7 +6572,7 @@
         <v>-1.1879</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.528</v>
+        <v>-0.5281</v>
       </c>
       <c r="G137" t="n">
         <v>-0.2185</v>
@@ -6592,7 +6595,7 @@
         <v>0.4898</v>
       </c>
       <c r="F138" t="n">
-        <v>0.8626</v>
+        <v>0.8627</v>
       </c>
       <c r="G138" t="n">
         <v>-0.6132</v>
@@ -6753,7 +6756,7 @@
         <v>-0.2716</v>
       </c>
       <c r="F145" t="n">
-        <v>0.7438</v>
+        <v>0.7439</v>
       </c>
       <c r="G145" t="n">
         <v>-1.3825</v>
@@ -6822,7 +6825,7 @@
         <v>0.9818</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.3476</v>
+        <v>-0.3475</v>
       </c>
       <c r="G148" t="n">
         <v>0.169</v>
@@ -6856,7 +6859,7 @@
         <v>155</v>
       </c>
       <c r="B150" t="n">
-        <v>0.8264</v>
+        <v>0.8265</v>
       </c>
       <c r="C150" t="n">
         <v>0.5534</v>
@@ -6882,7 +6885,7 @@
         <v>-0.6305</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9907</v>
+        <v>0.9906</v>
       </c>
       <c r="D151" t="n">
         <v>-3.8773</v>
@@ -6917,7 +6920,7 @@
         <v>5.3753</v>
       </c>
       <c r="G152" t="n">
-        <v>0.6465</v>
+        <v>0.6466</v>
       </c>
     </row>
     <row r="153">
@@ -6925,7 +6928,7 @@
         <v>158</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.063</v>
+        <v>-0.0631</v>
       </c>
       <c r="C153" t="n">
         <v>-2.012</v>
@@ -7009,7 +7012,7 @@
         <v>-1.561</v>
       </c>
       <c r="G156" t="n">
-        <v>-1.1949</v>
+        <v>-1.1948</v>
       </c>
     </row>
     <row r="157">
@@ -7063,7 +7066,7 @@
         <v>164</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.5066</v>
+        <v>-0.5067</v>
       </c>
       <c r="C159" t="n">
         <v>1.9215</v>
@@ -7075,7 +7078,7 @@
         <v>1.3468</v>
       </c>
       <c r="F159" t="n">
-        <v>7.4715</v>
+        <v>7.4714</v>
       </c>
       <c r="G159" t="n">
         <v>0.2238</v>
@@ -7227,7 +7230,7 @@
         <v>0.702</v>
       </c>
       <c r="C166" t="n">
-        <v>-1.5885</v>
+        <v>-1.5886</v>
       </c>
       <c r="D166" t="n">
         <v>-1.4815</v>
@@ -7236,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.3292</v>
+        <v>-0.3291</v>
       </c>
       <c r="G166" t="n">
         <v>-0.6206</v>
@@ -7250,7 +7253,7 @@
         <v>-0.3802</v>
       </c>
       <c r="C167" t="n">
-        <v>0.1058</v>
+        <v>0.1059</v>
       </c>
       <c r="D167" t="n">
         <v>-1.0526</v>
@@ -7365,7 +7368,7 @@
         <v>0.1922</v>
       </c>
       <c r="C172" t="n">
-        <v>-2.9378</v>
+        <v>-2.9379</v>
       </c>
       <c r="D172" t="n">
         <v>1.0916</v>
@@ -7454,7 +7457,7 @@
         <v>181</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.6366</v>
+        <v>-0.6365</v>
       </c>
       <c r="C176" t="n">
         <v>-1.048</v>
@@ -7572,7 +7575,7 @@
         <v>0.0623</v>
       </c>
       <c r="C181" t="n">
-        <v>-3.9265</v>
+        <v>-3.9266</v>
       </c>
       <c r="D181" t="n">
         <v>0.378</v>
@@ -7630,7 +7633,7 @@
         <v>1.0719</v>
       </c>
       <c r="G183" t="n">
-        <v>0.8064</v>
+        <v>0.8065</v>
       </c>
     </row>
     <row r="184">
@@ -7638,7 +7641,7 @@
         <v>189</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.1873</v>
+        <v>-0.1872</v>
       </c>
       <c r="C184" t="n">
         <v>1.3529</v>
@@ -7834,7 +7837,7 @@
         <v>-1.1958</v>
       </c>
       <c r="F192" t="n">
-        <v>-8.1736</v>
+        <v>-8.1735</v>
       </c>
       <c r="G192" t="n">
         <v>-3.453</v>
@@ -7871,7 +7874,7 @@
         <v>-0.9205</v>
       </c>
       <c r="C194" t="n">
-        <v>1.689</v>
+        <v>1.6889</v>
       </c>
       <c r="D194" t="n">
         <v>-2.459</v>
@@ -7903,7 +7906,7 @@
         <v>-1.3239</v>
       </c>
       <c r="F195" t="n">
-        <v>0.6456</v>
+        <v>0.6457</v>
       </c>
       <c r="G195" t="n">
         <v>1.1843</v>
@@ -7929,7 +7932,7 @@
         <v>3.9245</v>
       </c>
       <c r="G196" t="n">
-        <v>0.7023</v>
+        <v>0.7022</v>
       </c>
     </row>
     <row r="197">
@@ -8055,7 +8058,7 @@
         <v>0.1273</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.5717</v>
+        <v>-0.5716</v>
       </c>
       <c r="D202" t="n">
         <v>0.5988</v>
@@ -8121,7 +8124,7 @@
         <v>210</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.0198</v>
+        <v>-1.0197</v>
       </c>
       <c r="C205" t="n">
         <v>0.5571</v>
@@ -8193,7 +8196,7 @@
         <v>0.3896</v>
       </c>
       <c r="C208" t="n">
-        <v>-1.248</v>
+        <v>-1.2481</v>
       </c>
       <c r="D208" t="n">
         <v>1.1785</v>
@@ -8236,7 +8239,7 @@
         <v>215</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.6282</v>
+        <v>-0.6281</v>
       </c>
       <c r="C210" t="n">
         <v>4.907</v>
@@ -8420,7 +8423,7 @@
         <v>223</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.24</v>
+        <v>-0.2399</v>
       </c>
       <c r="C218" t="n">
         <v>-1.3641</v>
@@ -8466,7 +8469,7 @@
         <v>225</v>
       </c>
       <c r="B220" t="n">
-        <v>-2.3536</v>
+        <v>-2.3537</v>
       </c>
       <c r="C220" t="n">
         <v>-3.4686</v>
@@ -8515,7 +8518,7 @@
         <v>0.248</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.9869</v>
+        <v>-0.9868</v>
       </c>
       <c r="D222" t="n">
         <v>-1.1979</v>
@@ -8593,7 +8596,7 @@
         <v>2.9032</v>
       </c>
       <c r="F225" t="n">
-        <v>1.4895</v>
+        <v>1.4894</v>
       </c>
       <c r="G225" t="n">
         <v>-0.4865</v>
@@ -8616,7 +8619,7 @@
         <v>3.1557</v>
       </c>
       <c r="F226" t="n">
-        <v>2.7313</v>
+        <v>2.7314</v>
       </c>
       <c r="G226" t="n">
         <v>-0.6667</v>
@@ -8895,7 +8898,7 @@
         <v>-0.4389</v>
       </c>
       <c r="G238" t="n">
-        <v>2.1558</v>
+        <v>2.1557</v>
       </c>
     </row>
     <row r="239">
@@ -8903,7 +8906,7 @@
         <v>244</v>
       </c>
       <c r="B239" t="n">
-        <v>1.4285</v>
+        <v>1.4286</v>
       </c>
       <c r="C239" t="n">
         <v>-0.6072</v>
@@ -8952,7 +8955,7 @@
         <v>0.303</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.6834</v>
+        <v>-0.6835</v>
       </c>
       <c r="D241" t="n">
         <v>-0.9382</v>
@@ -8972,7 +8975,7 @@
         <v>247</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.1208</v>
+        <v>-0.1209</v>
       </c>
       <c r="C242" t="n">
         <v>-1.9196</v>
@@ -8995,7 +8998,7 @@
         <v>248</v>
       </c>
       <c r="B243" t="n">
-        <v>-1.9359</v>
+        <v>-1.9358</v>
       </c>
       <c r="C243" t="n">
         <v>1.5879</v>
@@ -9044,7 +9047,7 @@
         <v>-0.4258</v>
       </c>
       <c r="C245" t="n">
-        <v>-3.9033</v>
+        <v>-3.9034</v>
       </c>
       <c r="D245" t="n">
         <v>-1.8333</v>
@@ -9110,7 +9113,7 @@
         <v>253</v>
       </c>
       <c r="B248" t="n">
-        <v>1.8012</v>
+        <v>1.8013</v>
       </c>
       <c r="C248" t="n">
         <v>2.1395</v>
@@ -9133,10 +9136,10 @@
         <v>254</v>
       </c>
       <c r="B249" t="n">
-        <v>0.5492</v>
+        <v>0.5491</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.1551</v>
+        <v>-0.1552</v>
       </c>
       <c r="D249" t="n">
         <v>1.6718</v>
@@ -9179,10 +9182,10 @@
         <v>256</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.1821</v>
+        <v>-0.182</v>
       </c>
       <c r="C251" t="n">
-        <v>4.2446</v>
+        <v>4.2445</v>
       </c>
       <c r="D251" t="n">
         <v>3.9891</v>
@@ -9217,7 +9220,7 @@
         <v>1.7645</v>
       </c>
       <c r="G252" t="n">
-        <v>-1.5051</v>
+        <v>-1.5052</v>
       </c>
     </row>
     <row r="253">
@@ -9263,7 +9266,7 @@
         <v>0.2535</v>
       </c>
       <c r="G254" t="n">
-        <v>-0.0526</v>
+        <v>-0.0525</v>
       </c>
     </row>
     <row r="255">
@@ -9294,7 +9297,7 @@
         <v>261</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.9721</v>
+        <v>-0.972</v>
       </c>
       <c r="C256" t="n">
         <v>1.409</v>
@@ -9320,7 +9323,7 @@
         <v>-1.6564</v>
       </c>
       <c r="C257" t="n">
-        <v>0.3474</v>
+        <v>0.3473</v>
       </c>
       <c r="D257" t="n">
         <v>-1.3125</v>
@@ -9501,7 +9504,7 @@
         <v>270</v>
       </c>
       <c r="B265" t="n">
-        <v>1.0161</v>
+        <v>1.0162</v>
       </c>
       <c r="C265" t="n">
         <v>-1.96</v>
@@ -9550,7 +9553,7 @@
         <v>-0.8279</v>
       </c>
       <c r="C267" t="n">
-        <v>-2.1566</v>
+        <v>-2.1565</v>
       </c>
       <c r="D267" t="n">
         <v>-2.2309</v>
@@ -9654,7 +9657,7 @@
         <v>-0.7479</v>
       </c>
       <c r="G271" t="n">
-        <v>2.3067</v>
+        <v>2.3066</v>
       </c>
     </row>
     <row r="272">
@@ -9754,7 +9757,7 @@
         <v>281</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.0583</v>
+        <v>-0.0584</v>
       </c>
       <c r="C276" t="n">
         <v>-4</v>
@@ -9815,7 +9818,7 @@
         <v>4.1922</v>
       </c>
       <c r="G278" t="n">
-        <v>0.5815</v>
+        <v>0.5816</v>
       </c>
     </row>
     <row r="279">
@@ -9930,7 +9933,7 @@
         <v>-3.6725</v>
       </c>
       <c r="G283" t="n">
-        <v>-0.0753</v>
+        <v>-0.0752</v>
       </c>
     </row>
     <row r="284">
@@ -10010,7 +10013,7 @@
         <v>0.7353</v>
       </c>
       <c r="C287" t="n">
-        <v>3.8939</v>
+        <v>3.894</v>
       </c>
       <c r="D287" t="n">
         <v>-0.398</v>
@@ -10033,7 +10036,7 @@
         <v>1.123</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.0797</v>
+        <v>-0.0798</v>
       </c>
       <c r="D288" t="n">
         <v>-0.0307</v>
@@ -10122,7 +10125,7 @@
         <v>297</v>
       </c>
       <c r="B292" t="n">
-        <v>0.1119</v>
+        <v>0.1118</v>
       </c>
       <c r="C292" t="n">
         <v>-0.2694</v>
@@ -10171,7 +10174,7 @@
         <v>-0.4457</v>
       </c>
       <c r="C294" t="n">
-        <v>0.5837</v>
+        <v>0.5836</v>
       </c>
       <c r="D294" t="n">
         <v>-1.2686</v>
@@ -10214,7 +10217,7 @@
         <v>301</v>
       </c>
       <c r="B296" t="n">
-        <v>0.5071</v>
+        <v>0.507</v>
       </c>
       <c r="C296" t="n">
         <v>-1.0576</v>
@@ -10229,7 +10232,7 @@
         <v>-0.0324</v>
       </c>
       <c r="G296" t="n">
-        <v>-0.7408</v>
+        <v>-0.7407</v>
       </c>
     </row>
     <row r="297">
@@ -10240,7 +10243,7 @@
         <v>0.5605</v>
       </c>
       <c r="C297" t="n">
-        <v>0.8313</v>
+        <v>0.8314</v>
       </c>
       <c r="D297" t="n">
         <v>0.3668</v>
@@ -10260,7 +10263,7 @@
         <v>303</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.3345</v>
+        <v>-0.3344</v>
       </c>
       <c r="C298" t="n">
         <v>0.5497</v>
@@ -10364,7 +10367,7 @@
         <v>-0.5791</v>
       </c>
       <c r="F302" t="n">
-        <v>-1.0876</v>
+        <v>-1.0877</v>
       </c>
       <c r="G302" t="n">
         <v>0</v>
@@ -10904,7 +10907,7 @@
         <v>331</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.9843</v>
+        <v>-0.9842</v>
       </c>
       <c r="C326" t="n">
         <v>-0.0393</v>
@@ -11229,7 +11232,7 @@
         <v>0.5917</v>
       </c>
       <c r="C340" t="n">
-        <v>-2.2666</v>
+        <v>-2.2665</v>
       </c>
       <c r="D340" t="n">
         <v>2.3223</v>
@@ -11298,7 +11301,7 @@
         <v>-1.1364</v>
       </c>
       <c r="C343" t="n">
-        <v>2.0277</v>
+        <v>2.0276</v>
       </c>
       <c r="D343" t="n">
         <v>-2.8708</v>
@@ -11479,7 +11482,7 @@
         <v>356</v>
       </c>
       <c r="B351" t="n">
-        <v>0.2865</v>
+        <v>0.2866</v>
       </c>
       <c r="C351" t="n">
         <v>-0.3636</v>
@@ -11502,7 +11505,7 @@
         <v>357</v>
       </c>
       <c r="B352" t="n">
-        <v>1.1429</v>
+        <v>1.1428</v>
       </c>
       <c r="C352" t="n">
         <v>2.2354</v>
@@ -11712,7 +11715,7 @@
         <v>0.2722</v>
       </c>
       <c r="C361" t="n">
-        <v>0.9578</v>
+        <v>0.9579</v>
       </c>
       <c r="D361" t="n">
         <v>2.1898</v>
@@ -11804,7 +11807,7 @@
         <v>0.1818</v>
       </c>
       <c r="C365" t="n">
-        <v>-1.6484</v>
+        <v>-1.6485</v>
       </c>
       <c r="D365" t="n">
         <v>0.7959</v>
@@ -11850,7 +11853,7 @@
         <v>-2.8029</v>
       </c>
       <c r="C367" t="n">
-        <v>2.0347</v>
+        <v>2.0348</v>
       </c>
       <c r="D367" t="n">
         <v>0.562</v>
@@ -11919,7 +11922,7 @@
         <v>1.6713</v>
       </c>
       <c r="C370" t="n">
-        <v>-0.6683</v>
+        <v>-0.6682</v>
       </c>
       <c r="D370" t="n">
         <v>-1.6667</v>
@@ -11965,7 +11968,7 @@
         <v>-0.4537</v>
       </c>
       <c r="C372" t="n">
-        <v>0.6728</v>
+        <v>0.6727</v>
       </c>
       <c r="D372" t="n">
         <v>2.2061</v>
@@ -12261,7 +12264,7 @@
         <v>390</v>
       </c>
       <c r="B385" t="n">
-        <v>-1.5993</v>
+        <v>-1.5992</v>
       </c>
       <c r="C385" t="n">
         <v>2.1151</v>
@@ -12330,7 +12333,7 @@
         <v>393</v>
       </c>
       <c r="B388" t="n">
-        <v>-1.1439</v>
+        <v>-1.144</v>
       </c>
       <c r="C388" t="n">
         <v>-1.8252</v>
@@ -12353,7 +12356,7 @@
         <v>394</v>
       </c>
       <c r="B389" t="n">
-        <v>1.0607</v>
+        <v>1.0608</v>
       </c>
       <c r="C389" t="n">
         <v>0.1468</v>
@@ -12563,7 +12566,7 @@
         <v>-0.0984</v>
       </c>
       <c r="C398" t="n">
-        <v>-1.4126</v>
+        <v>-1.4125</v>
       </c>
       <c r="D398" t="n">
         <v>-2.5916</v>
@@ -12678,7 +12681,7 @@
         <v>2.8076</v>
       </c>
       <c r="C403" t="n">
-        <v>3.4044</v>
+        <v>3.4045</v>
       </c>
       <c r="D403" t="n">
         <v>5.5801</v>
@@ -12997,7 +13000,7 @@
         <v>422</v>
       </c>
       <c r="B417" t="n">
-        <v>0.878</v>
+        <v>0.8781</v>
       </c>
       <c r="C417" t="n">
         <v>5.2534</v>
@@ -13273,7 +13276,7 @@
         <v>434</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.1968</v>
+        <v>-0.1969</v>
       </c>
       <c r="C429" t="n">
         <v>-2.0408</v>
@@ -13437,7 +13440,7 @@
         <v>-2.5227</v>
       </c>
       <c r="C436" t="n">
-        <v>-0.8632</v>
+        <v>-0.8631</v>
       </c>
       <c r="D436" t="n">
         <v>-6.7018</v>
@@ -13871,7 +13874,7 @@
         <v>460</v>
       </c>
       <c r="B455" t="n">
-        <v>0.9105</v>
+        <v>0.9106</v>
       </c>
       <c r="C455" t="n">
         <v>-0.8749</v>
@@ -13986,7 +13989,7 @@
         <v>465</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.1068</v>
+        <v>-0.1069</v>
       </c>
       <c r="C460" t="n">
         <v>0.5353</v>
@@ -14055,7 +14058,7 @@
         <v>468</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.3729</v>
+        <v>-0.373</v>
       </c>
       <c r="C463" t="n">
         <v>-0.3124</v>
@@ -14242,7 +14245,7 @@
         <v>-0.2756</v>
       </c>
       <c r="C471" t="n">
-        <v>-1.1852</v>
+        <v>-1.1853</v>
       </c>
       <c r="D471" t="n">
         <v>-0.5959</v>
@@ -14515,7 +14518,7 @@
         <v>488</v>
       </c>
       <c r="B483" t="n">
-        <v>0.2558</v>
+        <v>0.2557</v>
       </c>
       <c r="C483" t="n">
         <v>-0.338</v>
@@ -14679,7 +14682,7 @@
         <v>0.8138</v>
       </c>
       <c r="C490" t="n">
-        <v>1.5507</v>
+        <v>1.5508</v>
       </c>
       <c r="D490" t="n">
         <v>-0.2597</v>
@@ -14768,7 +14771,7 @@
         <v>499</v>
       </c>
       <c r="B494" t="n">
-        <v>0.5573</v>
+        <v>0.5572</v>
       </c>
       <c r="C494" t="n">
         <v>0.7533</v>
@@ -14886,7 +14889,7 @@
         <v>-0.3068</v>
       </c>
       <c r="C499" t="n">
-        <v>-1.1122</v>
+        <v>-1.1121</v>
       </c>
       <c r="D499" t="n">
         <v>-0.8585</v>
@@ -15047,7 +15050,7 @@
         <v>0.4892</v>
       </c>
       <c r="C506" t="n">
-        <v>-0.6945</v>
+        <v>-0.6944</v>
       </c>
       <c r="D506" t="n">
         <v>-1.8075</v>
@@ -15136,10 +15139,10 @@
         <v>515</v>
       </c>
       <c r="B510" t="n">
-        <v>0.2862</v>
+        <v>0.2863</v>
       </c>
       <c r="C510" t="n">
-        <v>0.1822</v>
+        <v>0.1821</v>
       </c>
       <c r="D510" t="n">
         <v>-1.9699</v>
@@ -15277,7 +15280,7 @@
         <v>-0.4902</v>
       </c>
       <c r="C516" t="n">
-        <v>1.4747</v>
+        <v>1.4746</v>
       </c>
       <c r="D516" t="n">
         <v>0.1239</v>
@@ -15323,7 +15326,7 @@
         <v>1.6915</v>
       </c>
       <c r="C518" t="n">
-        <v>3.8638</v>
+        <v>3.8639</v>
       </c>
       <c r="D518" t="n">
         <v>-1.9068</v>
@@ -15366,7 +15369,7 @@
         <v>525</v>
       </c>
       <c r="B520" t="n">
-        <v>2.1654</v>
+        <v>2.1653</v>
       </c>
       <c r="C520" t="n">
         <v>2.8226</v>
@@ -15461,7 +15464,7 @@
         <v>-0.1921</v>
       </c>
       <c r="C524" t="n">
-        <v>1.2319</v>
+        <v>1.232</v>
       </c>
       <c r="D524" t="n">
         <v>-1.7199</v>
@@ -15507,7 +15510,7 @@
         <v>0.779</v>
       </c>
       <c r="C526" t="n">
-        <v>1.6872</v>
+        <v>1.6873</v>
       </c>
       <c r="D526" t="n">
         <v>1.074</v>
@@ -15711,7 +15714,7 @@
         <v>540</v>
       </c>
       <c r="B535" t="n">
-        <v>-1.8905</v>
+        <v>-1.8906</v>
       </c>
       <c r="C535" t="n">
         <v>-1.0435</v>
@@ -15803,7 +15806,7 @@
         <v>544</v>
       </c>
       <c r="B539" t="n">
-        <v>0.6945</v>
+        <v>0.6944</v>
       </c>
       <c r="C539" t="n">
         <v>0.4778</v>
@@ -15826,7 +15829,7 @@
         <v>545</v>
       </c>
       <c r="B540" t="n">
-        <v>2.0689</v>
+        <v>2.069</v>
       </c>
       <c r="C540" t="n">
         <v>1.6167</v>
@@ -16263,7 +16266,7 @@
         <v>564</v>
       </c>
       <c r="B559" t="n">
-        <v>3.0038</v>
+        <v>3.0037</v>
       </c>
       <c r="C559" t="n">
         <v>-0.8644</v>
@@ -16401,7 +16404,7 @@
         <v>570</v>
       </c>
       <c r="B565" t="n">
-        <v>4.7267</v>
+        <v>4.7266</v>
       </c>
       <c r="C565" t="n">
         <v>3.5179</v>
@@ -16424,7 +16427,7 @@
         <v>571</v>
       </c>
       <c r="B566" t="n">
-        <v>0.5982</v>
+        <v>0.5981</v>
       </c>
       <c r="C566" t="n">
         <v>-2.4499</v>
@@ -16493,7 +16496,7 @@
         <v>574</v>
       </c>
       <c r="B569" t="n">
-        <v>-2.7157</v>
+        <v>-2.7156</v>
       </c>
       <c r="C569" t="n">
         <v>-1.4976</v>
@@ -17045,7 +17048,7 @@
         <v>598</v>
       </c>
       <c r="B593" t="n">
-        <v>1.0331</v>
+        <v>1.0332</v>
       </c>
       <c r="C593" t="n">
         <v>-1.1195</v>
@@ -17068,7 +17071,7 @@
         <v>599</v>
       </c>
       <c r="B594" t="n">
-        <v>0.5921</v>
+        <v>0.592</v>
       </c>
       <c r="C594" t="n">
         <v>6.7931</v>
@@ -17252,7 +17255,7 @@
         <v>607</v>
       </c>
       <c r="B602" t="n">
-        <v>-1.7721</v>
+        <v>-1.7722</v>
       </c>
       <c r="C602" t="n">
         <v>-1.6807</v>
@@ -17505,7 +17508,7 @@
         <v>618</v>
       </c>
       <c r="B613" t="n">
-        <v>-0.7494</v>
+        <v>-0.7495</v>
       </c>
       <c r="C613" t="n">
         <v>-1.8976</v>
@@ -17781,7 +17784,7 @@
         <v>630</v>
       </c>
       <c r="B625" t="n">
-        <v>2.6701</v>
+        <v>2.6702</v>
       </c>
       <c r="C625" t="n">
         <v>1.0771</v>
@@ -18126,7 +18129,7 @@
         <v>645</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.268</v>
+        <v>-0.2679</v>
       </c>
       <c r="C640" t="n">
         <v>0.0985</v>
@@ -18172,7 +18175,7 @@
         <v>647</v>
       </c>
       <c r="B642" t="n">
-        <v>-0.2639</v>
+        <v>-0.2638</v>
       </c>
       <c r="C642" t="n">
         <v>-0.6806</v>
@@ -18241,7 +18244,7 @@
         <v>650</v>
       </c>
       <c r="B645" t="n">
-        <v>-0.533</v>
+        <v>-0.5331</v>
       </c>
       <c r="C645" t="n">
         <v>-0.098</v>
@@ -18310,7 +18313,7 @@
         <v>653</v>
       </c>
       <c r="B648" t="n">
-        <v>1.7951</v>
+        <v>1.7952</v>
       </c>
       <c r="C648" t="n">
         <v>-0.0473</v>
@@ -18471,7 +18474,7 @@
         <v>660</v>
       </c>
       <c r="B655" t="n">
-        <v>0.8863</v>
+        <v>0.8864</v>
       </c>
       <c r="C655" t="n">
         <v>0.5709</v>
@@ -18632,7 +18635,7 @@
         <v>667</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.4177</v>
+        <v>-0.4178</v>
       </c>
       <c r="C662" t="n">
         <v>-2.631</v>
@@ -19000,7 +19003,7 @@
         <v>683</v>
       </c>
       <c r="B678" t="n">
-        <v>0.5662</v>
+        <v>0.5661</v>
       </c>
       <c r="C678" t="n">
         <v>0.5796</v>
@@ -19276,7 +19279,7 @@
         <v>695</v>
       </c>
       <c r="B690" t="n">
-        <v>-3.5645</v>
+        <v>-3.5646</v>
       </c>
       <c r="C690" t="n">
         <v>0.2639</v>
@@ -19437,7 +19440,7 @@
         <v>702</v>
       </c>
       <c r="B697" t="n">
-        <v>-0.4487</v>
+        <v>-0.4486</v>
       </c>
       <c r="C697" t="n">
         <v>1.6789</v>
@@ -19460,7 +19463,7 @@
         <v>703</v>
       </c>
       <c r="B698" t="n">
-        <v>-2.5037</v>
+        <v>-2.5038</v>
       </c>
       <c r="C698" t="n">
         <v>-2.8154</v>
@@ -19782,7 +19785,7 @@
         <v>717</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.6588</v>
+        <v>-0.6587</v>
       </c>
       <c r="C712" t="n">
         <v>4.7599</v>
@@ -19805,7 +19808,7 @@
         <v>718</v>
       </c>
       <c r="B713" t="n">
-        <v>0.4775</v>
+        <v>0.4774</v>
       </c>
       <c r="C713" t="n">
         <v>-0.3029</v>
@@ -19989,7 +19992,7 @@
         <v>726</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.8356</v>
+        <v>-0.8357</v>
       </c>
       <c r="C721" t="n">
         <v>-0.9615</v>
@@ -20035,7 +20038,7 @@
         <v>728</v>
       </c>
       <c r="B723" t="n">
-        <v>0.5119</v>
+        <v>0.512</v>
       </c>
       <c r="C723" t="n">
         <v>0.5717</v>
@@ -20081,7 +20084,7 @@
         <v>730</v>
       </c>
       <c r="B725" t="n">
-        <v>2.5481</v>
+        <v>2.5482</v>
       </c>
       <c r="C725" t="n">
         <v>-0.6686</v>
@@ -20357,7 +20360,7 @@
         <v>742</v>
       </c>
       <c r="B737" t="n">
-        <v>0.8782</v>
+        <v>0.8781</v>
       </c>
       <c r="C737" t="n">
         <v>-2.761</v>
@@ -21300,7 +21303,7 @@
         <v>783</v>
       </c>
       <c r="B778" t="n">
-        <v>-0.1971</v>
+        <v>-0.197</v>
       </c>
       <c r="C778" t="n">
         <v>0.1326</v>
@@ -22243,7 +22246,7 @@
         <v>824</v>
       </c>
       <c r="B819" t="n">
-        <v>-0.5568</v>
+        <v>-0.5567</v>
       </c>
       <c r="C819" t="n">
         <v>-2.3887</v>
@@ -23439,7 +23442,7 @@
         <v>876</v>
       </c>
       <c r="B871" t="n">
-        <v>0.2525</v>
+        <v>0.2524</v>
       </c>
       <c r="C871" t="n">
         <v>-3.0661</v>
@@ -26882,6 +26885,29 @@
       </c>
       <c r="G1020" t="n">
         <v>4.3914</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>-1.2075</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>-2.4087</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>-2.0992</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>-2.1231</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>-4.9529</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>0.738</v>
       </c>
     </row>
   </sheetData>
